--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="857" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
     <sheet name="STATIC" sheetId="9" r:id="rId2"/>
     <sheet name="BRAKING 2G" sheetId="3" r:id="rId3"/>
-    <sheet name="LEFT TURN 2G" sheetId="4" r:id="rId4"/>
+    <sheet name="LEFT TURN 2,2 G" sheetId="4" r:id="rId4"/>
     <sheet name="RIGHT TURN 2G" sheetId="8" r:id="rId5"/>
     <sheet name="Bump 3G" sheetId="5" r:id="rId6"/>
     <sheet name="INVERSE BRAKING 0.5G" sheetId="6" r:id="rId7"/>
@@ -29,7 +29,7 @@
     <definedName name="DonnéesExternes_3" localSheetId="6">'INVERSE BRAKING 0.5G'!$D$2:$L$3</definedName>
     <definedName name="DonnéesExternes_3" localSheetId="1">STATIC!$D$2:$L$3</definedName>
     <definedName name="DonnéesExternes_4" localSheetId="5">'Bump 3G'!#REF!</definedName>
-    <definedName name="DonnéesExternes_5" localSheetId="3">'LEFT TURN 2G'!#REF!</definedName>
+    <definedName name="DonnéesExternes_5" localSheetId="3">'LEFT TURN 2,2 G'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -903,6 +903,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,9 +934,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,12 +941,1316 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="90">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1114,1308 +2416,6 @@
         </vertical>
         <horizontal style="thin">
           <color rgb="FF000000"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
@@ -2831,24 +2831,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="8" totalsRowDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" name="F" dataDxfId="0">
-      <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="BRAKING 2G-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="71" totalsRowDxfId="70">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="69"/>
     <tableColumn id="2" name="Part 1" dataDxfId="68"/>
@@ -2864,8 +2847,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_229" displayName="Table_229" ref="D5:J47" headerRowDxfId="62" totalsRowDxfId="61">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="62" totalsRowDxfId="61">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="60"/>
     <tableColumn id="2" name="Part 1" dataDxfId="59"/>
@@ -2881,8 +2864,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_226" displayName="Table_226" ref="D5:J47" headerRowDxfId="53" totalsRowDxfId="52">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_229" displayName="Table_229" ref="D5:J47" headerRowDxfId="53" totalsRowDxfId="52">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="51"/>
     <tableColumn id="2" name="Part 1" dataDxfId="50"/>
@@ -2898,8 +2881,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="44" totalsRowDxfId="43">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_226" displayName="Table_226" ref="D5:J47" headerRowDxfId="44" totalsRowDxfId="43">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="42"/>
     <tableColumn id="2" name="Part 1" dataDxfId="41"/>
@@ -2915,8 +2898,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_2291011" displayName="Table_2291011" ref="D5:J47" headerRowDxfId="35" totalsRowDxfId="34">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="35" totalsRowDxfId="34">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="33"/>
     <tableColumn id="2" name="Part 1" dataDxfId="32"/>
@@ -2932,8 +2915,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_2291011" displayName="Table_2291011" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="24"/>
     <tableColumn id="2" name="Part 1" dataDxfId="23"/>
@@ -2949,8 +2932,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
   <tableColumns count="7">
     <tableColumn id="1" name="Type" dataDxfId="15"/>
     <tableColumn id="2" name="Part 1" dataDxfId="14"/>
@@ -2959,6 +2942,23 @@
     <tableColumn id="5" name="Ry" dataDxfId="11"/>
     <tableColumn id="6" name="Rz" dataDxfId="10"/>
     <tableColumn id="10" name="F" dataDxfId="9">
+      <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="BRAKING 2G-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3259,13 +3259,13 @@
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,21 +3297,21 @@
       <c r="A13" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
@@ -3323,14 +3323,14 @@
       <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -4382,7 +4382,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -5801,23 +5801,23 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
@@ -8279,12 +8279,12 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -9275,8 +9275,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9373,17 +9373,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>-1141.9000000000001</v>
+        <v>1046.058</v>
       </c>
       <c r="H6" s="9">
-        <v>-497.53500000000003</v>
+        <v>1434.135</v>
       </c>
       <c r="I6" s="9">
-        <v>-254.46899999999999</v>
+        <v>458.14600000000002</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1271.3108031421743</v>
+        <v>1833.269836904813</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9404,17 +9404,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>1030.425</v>
+        <v>-891.71199999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>2043.46</v>
+        <v>2567.3119999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>1045.145</v>
+        <v>820.14700000000005</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2515.9158418456686</v>
+        <v>2838.8170596037003</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9435,17 +9435,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-465.57299999999998</v>
+        <v>674.43</v>
       </c>
       <c r="H8" s="9">
-        <v>-1924.5540000000001</v>
+        <v>-2563.84</v>
       </c>
       <c r="I8" s="9">
-        <v>-290.14</v>
+        <v>-2.5979999999999999</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2001.2115172677275</v>
+        <v>2651.0635828104919</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9466,17 +9466,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>772.66899999999998</v>
+        <v>-654.82000000000005</v>
       </c>
       <c r="H9" s="9">
-        <v>600.577</v>
+        <v>-1185.3779999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>90.540999999999997</v>
+        <v>-1.2010000000000001</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>982.80607912802407</v>
+        <v>1354.2199517378999</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,17 +9497,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>-1141.9000000000001</v>
+        <v>1046.058</v>
       </c>
       <c r="H10" s="9">
-        <v>-497.53500000000003</v>
+        <v>1434.135</v>
       </c>
       <c r="I10" s="9">
-        <v>-254.46899999999999</v>
+        <v>458.14499999999998</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1271.3108031421743</v>
+        <v>1833.2695869985951</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9528,17 +9528,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>1030.425</v>
+        <v>-891.71199999999999</v>
       </c>
       <c r="H11" s="9">
-        <v>2043.46</v>
+        <v>2567.3119999999999</v>
       </c>
       <c r="I11" s="9">
-        <v>1045.145</v>
+        <v>820.14700000000005</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2515.9158418456686</v>
+        <v>2838.8170596037003</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9559,17 +9559,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-465.57299999999998</v>
+        <v>674.43</v>
       </c>
       <c r="H12" s="9">
-        <v>-1924.5540000000001</v>
+        <v>-2563.84</v>
       </c>
       <c r="I12" s="9">
-        <v>-290.14</v>
+        <v>-2.5979999999999999</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2001.2115172677275</v>
+        <v>2651.0635828104919</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9590,17 +9590,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>772.66899999999998</v>
+        <v>-654.82000000000005</v>
       </c>
       <c r="H13" s="9">
-        <v>600.577</v>
+        <v>-1185.3779999999999</v>
       </c>
       <c r="I13" s="9">
-        <v>90.540999999999997</v>
+        <v>-1.2010000000000001</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>982.80607912802407</v>
+        <v>1354.2199517378999</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,17 +9621,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>-195.62100000000001</v>
+        <v>-38.265000000000001</v>
       </c>
       <c r="H14" s="9">
-        <v>-564.78300000000002</v>
+        <v>267.97899999999998</v>
       </c>
       <c r="I14" s="9">
-        <v>-85.144999999999996</v>
+        <v>15.602</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>603.73593876379437</v>
+        <v>271.1464126076537</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9652,17 +9652,17 @@
         <v>50</v>
       </c>
       <c r="G15" s="9">
-        <v>-195.62100000000001</v>
+        <v>-38.265000000000001</v>
       </c>
       <c r="H15" s="9">
-        <v>-564.78300000000002</v>
+        <v>267.97899999999998</v>
       </c>
       <c r="I15" s="9">
-        <v>-85.144999999999996</v>
+        <v>15.602</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>603.73593876379437</v>
+        <v>271.1464126076537</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9683,17 +9683,17 @@
         <v>54</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>-135.691</v>
       </c>
       <c r="H16" s="9">
-        <v>-1187.0060000000001</v>
+        <v>-3112.6039999999998</v>
       </c>
       <c r="I16" s="9">
-        <v>884.83299999999997</v>
+        <v>1066.6410000000001</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1480.5109529905546</v>
+        <v>3293.0895419314061</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9714,17 +9714,17 @@
         <v>58</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>-135.691</v>
       </c>
       <c r="H17" s="9">
-        <v>-1187.0060000000001</v>
+        <v>-3112.6039999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>884.83299999999997</v>
+        <v>1066.6410000000001</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1480.5109529905546</v>
+        <v>3293.0895419314061</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9748,14 +9748,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-1284.8900000000001</v>
+        <v>-2254.5610000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>-429.80599999999998</v>
+        <v>-602.48</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1354.8710306652808</v>
+        <v>2333.6725248245521</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9779,14 +9779,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-1284.8900000000001</v>
+        <v>-2254.5610000000001</v>
       </c>
       <c r="I19" s="9">
-        <v>-429.80599999999998</v>
+        <v>-602.48</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1354.8710306652808</v>
+        <v>2333.6725248245521</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9807,17 +9807,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0</v>
+        <v>-135.691</v>
       </c>
       <c r="H20" s="9">
-        <v>97.884</v>
+        <v>-858.04200000000003</v>
       </c>
       <c r="I20" s="9">
-        <v>1314.6389999999999</v>
+        <v>1669.1210000000001</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1318.2780350809915</v>
+        <v>1881.6516770874466</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,11 +9844,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>1390.7650000000001</v>
+        <v>2356.7359999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1390.7650000000001</v>
+        <v>2356.7359999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9872,14 +9872,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>-0.153</v>
       </c>
       <c r="I22" s="9">
-        <v>-1.4E-2</v>
+        <v>-5.5540000000000003</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.4E-2</v>
+        <v>5.5561070004095496</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9900,17 +9900,17 @@
         <v>80</v>
       </c>
       <c r="G23" s="9">
-        <v>-5.3999999999999999E-2</v>
+        <v>-2.1120000000000001</v>
       </c>
       <c r="H23" s="9">
-        <v>319.18299999999999</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>-11571.955</v>
+        <v>-19317.184000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>11576.356089565923</v>
+        <v>19317.184115455337</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9931,17 +9931,17 @@
         <v>80</v>
       </c>
       <c r="G24" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="H24" s="9">
-        <v>-358.678</v>
+        <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>13003.842000000001</v>
+        <v>21679.473000000002</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>13008.787671092337</v>
+        <v>21679.473102874825</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9965,14 +9965,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>-1490.346</v>
+        <v>-2592.2420000000002</v>
       </c>
       <c r="I25" s="9">
-        <v>-41.106999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>1490.9128026698945</v>
+        <v>2592.2420000000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9995,17 +9995,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>287.70100000000002</v>
+        <v>-262.74</v>
       </c>
       <c r="H26" s="9">
-        <v>450.19200000000001</v>
+        <v>-562.38400000000001</v>
       </c>
       <c r="I26" s="9">
-        <v>106.94799999999999</v>
+        <v>30.242000000000001</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>544.86932100183435</v>
+        <v>621.46814047061173</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10026,17 +10026,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>-322.80099999999999</v>
+        <v>222.91499999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>504.84699999999998</v>
+        <v>-476.88600000000002</v>
       </c>
       <c r="I27" s="9">
-        <v>119.932</v>
+        <v>25.645</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>611.10937125362432</v>
+        <v>527.03796850511628</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10057,17 +10057,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>292.42500000000001</v>
+        <v>417.12400000000002</v>
       </c>
       <c r="H28" s="9">
-        <v>-728.51599999999996</v>
+        <v>-1081.394</v>
       </c>
       <c r="I28" s="9">
-        <v>-38.447000000000003</v>
+        <v>119.517</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>785.95554243862921</v>
+        <v>1165.1994369639044</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,17 +10088,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>-269.93599999999998</v>
+        <v>-372.29399999999998</v>
       </c>
       <c r="H29" s="9">
-        <v>-700.87199999999996</v>
+        <v>-1005.908</v>
       </c>
       <c r="I29" s="9">
-        <v>-36.988</v>
+        <v>111.17400000000001</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>751.96749705289778</v>
+        <v>1078.3382517447853</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10119,17 +10119,17 @@
         <v>101</v>
       </c>
       <c r="G30" s="9">
-        <v>-269.93599999999998</v>
+        <v>-372.29399999999998</v>
       </c>
       <c r="H30" s="9">
-        <v>-700.87199999999996</v>
+        <v>-1005.908</v>
       </c>
       <c r="I30" s="9">
-        <v>-36.988</v>
+        <v>111.17400000000001</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>751.96749705289778</v>
+        <v>1078.3382517447853</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10150,17 +10150,17 @@
         <v>103</v>
       </c>
       <c r="G31" s="9">
-        <v>292.42500000000001</v>
+        <v>417.12400000000002</v>
       </c>
       <c r="H31" s="9">
-        <v>-728.51599999999996</v>
+        <v>-1081.394</v>
       </c>
       <c r="I31" s="9">
-        <v>-38.447000000000003</v>
+        <v>119.517</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>785.95554243862921</v>
+        <v>1165.1994369639044</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10181,17 +10181,17 @@
         <v>105</v>
       </c>
       <c r="G32" s="9">
-        <v>-322.80099999999999</v>
+        <v>222.91499999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>504.84699999999998</v>
+        <v>-476.88600000000002</v>
       </c>
       <c r="I32" s="9">
-        <v>119.932</v>
+        <v>25.645</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>611.10937125362432</v>
+        <v>527.03796850511628</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10212,17 +10212,17 @@
         <v>107</v>
       </c>
       <c r="G33" s="9">
-        <v>287.70100000000002</v>
+        <v>-262.74</v>
       </c>
       <c r="H33" s="9">
-        <v>450.19200000000001</v>
+        <v>-562.38400000000001</v>
       </c>
       <c r="I33" s="9">
-        <v>106.94799999999999</v>
+        <v>30.242000000000001</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>544.86932100183435</v>
+        <v>621.46814047061173</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10246,14 +10246,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>-755.81799999999998</v>
+        <v>1441.24</v>
       </c>
       <c r="I34" s="9">
-        <v>778.51199999999994</v>
+        <v>1031.605</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>1085.0538158395648</v>
+        <v>1772.3943166307547</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10277,14 +10277,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>-755.81799999999998</v>
+        <v>1441.24</v>
       </c>
       <c r="I35" s="9">
-        <v>778.51199999999994</v>
+        <v>1031.605</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1085.0538158395648</v>
+        <v>1772.3943166307547</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10308,14 +10308,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-973.73299999999995</v>
+        <v>-118.491</v>
       </c>
       <c r="I36" s="9">
-        <v>-134.52500000000001</v>
+        <v>1160.6210000000001</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>982.98165339644049</v>
+        <v>1166.6538572867275</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10339,14 +10339,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-973.73299999999995</v>
+        <v>-118.491</v>
       </c>
       <c r="I37" s="9">
-        <v>-134.52500000000001</v>
+        <v>1160.6210000000001</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>982.98165339644049</v>
+        <v>1166.6538572867275</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10367,17 +10367,17 @@
         <v>121</v>
       </c>
       <c r="G38" s="9">
-        <v>12.611000000000001</v>
+        <v>-5.0049999999999999</v>
       </c>
       <c r="H38" s="9">
-        <v>187.584</v>
+        <v>244.333</v>
       </c>
       <c r="I38" s="9">
-        <v>17.843</v>
+        <v>-8.1839999999999993</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>188.85223595711014</v>
+        <v>244.52125218475385</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10398,17 +10398,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>12.611000000000001</v>
+        <v>-5.0049999999999999</v>
       </c>
       <c r="H39" s="9">
-        <v>187.584</v>
+        <v>244.333</v>
       </c>
       <c r="I39" s="9">
-        <v>17.843</v>
+        <v>-8.1839999999999993</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>188.85223595711014</v>
+        <v>244.52125218475385</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10435,11 +10435,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>0</v>
+        <v>-181.91800000000001</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>181.91800000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10466,11 +10466,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>947.80100000000004</v>
+        <v>1310</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>947.80100000000004</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10497,11 +10497,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>461.43400000000003</v>
+        <v>915.18100000000004</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>461.43400000000003</v>
+        <v>915.18100000000004</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,17 +10522,17 @@
         <v>128</v>
       </c>
       <c r="G43" s="9">
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.83</v>
       </c>
       <c r="H43" s="9">
-        <v>-214.69</v>
+        <v>-261.80700000000002</v>
       </c>
       <c r="I43" s="9">
-        <v>4597.33</v>
+        <v>5606.2920000000004</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>4602.3401575889629</v>
+        <v>5612.4017660368008</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10553,17 +10553,17 @@
         <v>128</v>
       </c>
       <c r="G44" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="H44" s="9">
-        <v>168.25299999999999</v>
+        <v>197.64500000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>-3602.9319999999998</v>
+        <v>-4232.3329999999996</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>3606.8584763810732</v>
+        <v>4236.9454534788383</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10584,17 +10584,17 @@
         <v>128</v>
       </c>
       <c r="G45" s="9">
-        <v>3.6999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H45" s="9">
-        <v>-996.14800000000002</v>
+        <v>-1376.8219999999999</v>
       </c>
       <c r="I45" s="9">
-        <v>-46.518999999999998</v>
+        <v>-64.296000000000006</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>997.23360183760349</v>
+        <v>1378.3224578816814</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10618,14 +10618,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="I46" s="9">
-        <v>-7.8E-2</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>7.8102496759066553E-2</v>
+        <v>0.33737960815674684</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10649,14 +10649,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>217.91499999999999</v>
+        <v>1559.73</v>
       </c>
       <c r="I47" s="9">
-        <v>913.03700000000003</v>
+        <v>-129.01599999999999</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>938.68179411022993</v>
+        <v>1565.0568044502411</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11629,7 +11629,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="G6" sqref="G6:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="857"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
-    <sheet name="STATIC" sheetId="9" r:id="rId2"/>
+    <sheet name="MAX SPEED" sheetId="9" r:id="rId2"/>
     <sheet name="BRAKING 2G" sheetId="3" r:id="rId3"/>
     <sheet name="LEFT TURN 2,2 G" sheetId="4" r:id="rId4"/>
     <sheet name="RIGHT TURN 2G" sheetId="8" r:id="rId5"/>
@@ -27,7 +27,7 @@
     <definedName name="DonnéesExternes_1" localSheetId="8">'Right Turn 1G + Freinage 1G'!#REF!</definedName>
     <definedName name="DonnéesExternes_2" localSheetId="7">'Left Turn 1G + Freinage 1'!#REF!</definedName>
     <definedName name="DonnéesExternes_3" localSheetId="6">'INVERSE BRAKING 0.5G'!$D$2:$L$3</definedName>
-    <definedName name="DonnéesExternes_3" localSheetId="1">STATIC!$D$2:$L$3</definedName>
+    <definedName name="DonnéesExternes_3" localSheetId="1">'MAX SPEED'!$D$2:$L$3</definedName>
     <definedName name="DonnéesExternes_4" localSheetId="5">'Bump 3G'!#REF!</definedName>
     <definedName name="DonnéesExternes_5" localSheetId="3">'LEFT TURN 2,2 G'!#REF!</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="164">
   <si>
     <t xml:space="preserve">Pour les Rockers </t>
   </si>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">rear lf a-arm    </t>
   </si>
   <si>
-    <t>Normal Force on RL Wheel = 0N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y positif </t>
   </si>
   <si>
@@ -237,9 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve">rr ohlins         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal Force on RR Wheel = 0N </t>
   </si>
   <si>
     <t xml:space="preserve">Z Positif </t>
@@ -476,15 +470,6 @@
     <t>CAS DE CHARGES OPTIMUS STUF 2019</t>
   </si>
   <si>
-    <t>BRAKING 2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEFT TURN 2G </t>
-  </si>
-  <si>
-    <t>RIGHT TURN 2G</t>
-  </si>
-  <si>
     <t>Normal Force on FR Wheel = Normal Force on FL Wheel</t>
   </si>
   <si>
@@ -495,6 +480,54 @@
   </si>
   <si>
     <t>RR Wheel</t>
+  </si>
+  <si>
+    <t>MAX SPEED</t>
+  </si>
+  <si>
+    <t>BRAKING 1,9G</t>
+  </si>
+  <si>
+    <t>ACCEL 1,5 G</t>
+  </si>
+  <si>
+    <t>LEFT TURN 2,2 G</t>
+  </si>
+  <si>
+    <t>RIGHT TURN 2,2 G</t>
+  </si>
+  <si>
+    <t>BUMP 3G</t>
+  </si>
+  <si>
+    <t>Z (poids + appui + accelération) (N)</t>
+  </si>
+  <si>
+    <t>Y (lateral accelération) (N)</t>
+  </si>
+  <si>
+    <t>X (longitudinal acceleration) (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT TURN 2,2G </t>
+  </si>
+  <si>
+    <t>RIGHT TURN 2,2G</t>
+  </si>
+  <si>
+    <t>ACCEL 1,5G</t>
+  </si>
+  <si>
+    <t>Normal Force on RL Wheel =Normal force on FL Wheel</t>
+  </si>
+  <si>
+    <t>Normal Force on RR Wheel = Normal Force on FR Wheel</t>
+  </si>
+  <si>
+    <t>Y force on each exterior wheel = 2130</t>
+  </si>
+  <si>
+    <t>Y force on each interior wheel = 920</t>
   </si>
 </sst>
 </file>
@@ -598,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -851,11 +884,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -900,9 +990,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,15 +1012,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,6 +1021,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2635,8 +2745,8 @@
       <xdr:rowOff>145808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1075765</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1916206</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>105897</xdr:rowOff>
     </xdr:to>
@@ -2685,8 +2795,8 @@
       <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>86538</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>830928</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>112621</xdr:rowOff>
     </xdr:to>
@@ -2731,14 +2841,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>169516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1506074</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>170544</xdr:rowOff>
+      <xdr:colOff>254377</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2781,14 +2891,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1525903</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>168885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428282</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3232,19 +3342,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -3259,18 +3369,18 @@
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -3278,112 +3388,224 @@
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="B19" s="49">
+        <v>0</v>
+      </c>
+      <c r="C19" s="49">
+        <v>0</v>
+      </c>
+      <c r="D19" s="49">
+        <v>-4063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="33">
+        <v>5400</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0</v>
+      </c>
+      <c r="D20" s="33">
+        <v>-2845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="33">
+        <v>-4265</v>
+      </c>
+      <c r="C21" s="33">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
+        <v>-2845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33">
+        <v>-6250</v>
+      </c>
+      <c r="D22" s="33">
+        <v>-4240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="33">
+        <v>6250</v>
+      </c>
+      <c r="D23" s="33">
+        <v>-4240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+      <c r="D24" s="33">
+        <v>-11380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3391,14 +3613,7 @@
     <row r="35" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
+    <row r="38" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3623,14 @@
     <row r="45" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4361,13 +4583,27 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="9">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4433,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -4466,14 +4702,14 @@
         <v>13</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4509,7 +4745,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -4543,7 +4779,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -4577,7 +4813,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4611,7 +4847,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4645,7 +4881,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -4679,7 +4915,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -4713,7 +4949,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -4744,18 +4980,18 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -4775,12 +5011,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -4789,7 +5025,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>-21.952000000000002</v>
@@ -4806,12 +5042,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -4820,7 +5056,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>-77.968999999999994</v>
@@ -4837,21 +5073,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>-77.968999999999994</v>
@@ -4868,21 +5104,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -4899,18 +5135,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -4930,18 +5166,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -4961,21 +5197,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -4992,21 +5228,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -5023,21 +5259,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>8.0000000000000002E-3</v>
@@ -5054,21 +5290,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>-8.0000000000000002E-3</v>
@@ -5085,21 +5321,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -5116,11 +5352,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -5129,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -5149,9 +5385,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -5160,7 +5396,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -5180,9 +5416,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -5191,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -5211,9 +5447,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -5222,7 +5458,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -5242,9 +5478,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -5253,10 +5489,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>66.296000000000006</v>
@@ -5273,9 +5509,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -5284,10 +5520,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-32.76</v>
@@ -5304,9 +5540,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -5315,10 +5551,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>378.46600000000001</v>
@@ -5335,9 +5571,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -5346,10 +5582,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>-412.18599999999998</v>
@@ -5366,21 +5602,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -5397,21 +5633,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -5428,21 +5664,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -5459,18 +5695,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -5490,21 +5726,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>0.184</v>
@@ -5521,18 +5757,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -5552,18 +5788,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -5583,21 +5819,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -5614,18 +5850,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -5645,21 +5881,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>3.1E-2</v>
@@ -5676,21 +5912,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>-2.9000000000000001E-2</v>
@@ -5707,21 +5943,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-2E-3</v>
@@ -5738,21 +5974,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -5769,18 +6005,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -5801,23 +6037,23 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
@@ -6865,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6895,11 +7131,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -6932,7 +7168,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -6963,7 +7199,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6994,7 +7230,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7261,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -7056,7 +7292,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -7087,7 +7323,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7118,7 +7354,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -7149,18 +7385,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -7180,12 +7416,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -7194,7 +7430,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>33.517000000000003</v>
@@ -7211,12 +7447,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -7225,7 +7461,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -7242,21 +7478,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -7273,21 +7509,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -7304,18 +7540,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -7335,18 +7571,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -7366,21 +7602,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -7397,21 +7633,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -7428,21 +7664,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>-1E-3</v>
@@ -7459,21 +7695,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>1E-3</v>
@@ -7490,21 +7726,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -7521,11 +7757,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -7534,7 +7770,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -7554,9 +7790,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -7565,7 +7801,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -7585,9 +7821,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -7596,7 +7832,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -7616,9 +7852,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -7627,7 +7863,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -7647,9 +7883,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -7658,10 +7894,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>81.600999999999999</v>
@@ -7678,9 +7914,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -7689,10 +7925,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-43.54</v>
@@ -7709,9 +7945,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -7720,10 +7956,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>-110.636</v>
@@ -7740,9 +7976,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -7751,10 +7987,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>83.799000000000007</v>
@@ -7771,21 +8007,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -7802,21 +8038,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -7833,21 +8069,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -7864,18 +8100,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -7895,21 +8131,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-1.5669999999999999</v>
@@ -7926,18 +8162,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -7957,18 +8193,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -7988,21 +8224,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -8019,18 +8255,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -8050,21 +8286,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>-1.431</v>
@@ -8081,21 +8317,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>11.089</v>
@@ -8112,21 +8348,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-1E-3</v>
@@ -8143,21 +8379,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -8174,18 +8410,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -8279,12 +8515,12 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -9275,7 +9511,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -9320,7 +9556,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9350,11 +9586,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -9387,7 +9623,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -9418,7 +9654,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9449,7 +9685,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -9480,7 +9716,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -9511,7 +9747,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -9542,7 +9778,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -9573,7 +9809,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -9604,18 +9840,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -9635,12 +9871,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -9649,7 +9885,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>-38.265000000000001</v>
@@ -9666,12 +9902,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -9680,7 +9916,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>-135.691</v>
@@ -9697,21 +9933,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>-135.691</v>
@@ -9728,21 +9964,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -9759,18 +9995,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -9790,18 +10026,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -9821,21 +10057,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -9852,21 +10088,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -9883,21 +10119,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>-2.1120000000000001</v>
@@ -9914,21 +10150,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>2.1120000000000001</v>
@@ -9945,21 +10181,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -9976,11 +10212,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -9989,7 +10225,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -10009,9 +10245,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -10020,7 +10256,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -10040,9 +10276,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -10051,7 +10287,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -10071,9 +10307,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -10082,7 +10318,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -10102,9 +10338,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -10113,10 +10349,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>-372.29399999999998</v>
@@ -10133,9 +10369,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -10144,10 +10380,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>417.12400000000002</v>
@@ -10164,9 +10400,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -10175,10 +10411,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>222.91499999999999</v>
@@ -10195,9 +10431,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -10206,10 +10442,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>-262.74</v>
@@ -10226,21 +10462,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -10257,21 +10493,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -10288,21 +10524,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -10319,18 +10555,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -10350,21 +10586,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-5.0049999999999999</v>
@@ -10381,18 +10617,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -10412,18 +10648,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -10443,21 +10679,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -10474,18 +10710,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -10505,21 +10741,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>-0.83</v>
@@ -10536,21 +10772,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>0.77900000000000003</v>
@@ -10567,21 +10803,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>5.0999999999999997E-2</v>
@@ -10598,21 +10834,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -10629,18 +10865,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -11629,7 +11865,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I47"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11669,7 +11905,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11699,11 +11935,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -11736,7 +11972,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -11767,7 +12003,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -11798,7 +12034,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -11829,7 +12065,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -11860,7 +12096,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -11891,7 +12127,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -11922,7 +12158,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -11953,18 +12189,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -11984,12 +12220,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -11998,7 +12234,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -12015,12 +12251,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -12029,97 +12265,97 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -12139,18 +12375,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -12170,166 +12406,166 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="C22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="12" t="s">
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -12338,7 +12574,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -12358,9 +12594,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -12369,7 +12605,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -12389,9 +12625,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -12400,7 +12636,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -12420,9 +12656,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -12431,7 +12667,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -12451,9 +12687,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -12462,10 +12698,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>229.267</v>
@@ -12482,9 +12718,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -12493,10 +12729,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-210.816</v>
@@ -12513,9 +12749,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -12524,10 +12760,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>16.137</v>
@@ -12544,9 +12780,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -12555,10 +12791,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>-25.887</v>
@@ -12575,21 +12811,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -12606,21 +12842,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -12637,21 +12873,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -12668,18 +12904,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -12699,21 +12935,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-8.6999999999999993</v>
@@ -12730,18 +12966,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -12761,18 +12997,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -12792,21 +13028,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -12823,18 +13059,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -12854,21 +13090,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>1.7999999999999999E-2</v>
@@ -12885,21 +13121,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>1E-3</v>
@@ -12916,21 +13152,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-0.02</v>
@@ -12947,21 +13183,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -12978,18 +13214,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -13071,7 +13307,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13101,11 +13337,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -13138,7 +13374,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -13169,7 +13405,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -13200,7 +13436,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -13231,7 +13467,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -13262,7 +13498,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -13293,7 +13529,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -13324,7 +13560,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -13355,18 +13591,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -13386,12 +13622,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -13400,7 +13636,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>100.93899999999999</v>
@@ -13417,12 +13653,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -13431,7 +13667,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -13448,21 +13684,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -13479,21 +13715,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -13510,18 +13746,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -13541,18 +13777,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -13572,21 +13808,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -13603,21 +13839,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -13634,21 +13870,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>-2E-3</v>
@@ -13665,21 +13901,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>2E-3</v>
@@ -13696,21 +13932,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -13727,11 +13963,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -13740,7 +13976,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -13760,9 +13996,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -13771,7 +14007,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -13791,9 +14027,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -13802,7 +14038,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -13822,9 +14058,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -13833,7 +14069,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -13853,9 +14089,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -13864,10 +14100,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>223.74</v>
@@ -13884,9 +14120,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -13895,10 +14131,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-156.50800000000001</v>
@@ -13915,9 +14151,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -13926,10 +14162,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>-322.49799999999999</v>
@@ -13946,9 +14182,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -13957,10 +14193,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>261.12099999999998</v>
@@ -13977,21 +14213,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -14008,21 +14244,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -14039,21 +14275,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -14070,18 +14306,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -14101,21 +14337,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-5.8540000000000001</v>
@@ -14132,18 +14368,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -14163,18 +14399,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -14194,21 +14430,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -14225,18 +14461,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -14256,21 +14492,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>3.0000000000000001E-3</v>
@@ -14287,21 +14523,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
@@ -14318,21 +14554,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-4.0000000000000001E-3</v>
@@ -14349,21 +14585,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -14380,18 +14616,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -15489,7 +15725,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -15522,14 +15758,14 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -15565,7 +15801,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -15599,7 +15835,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15633,7 +15869,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -15667,7 +15903,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -15701,7 +15937,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +15971,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -15769,7 +16005,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -15800,18 +16036,18 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -15831,12 +16067,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -15845,7 +16081,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>33.646000000000001</v>
@@ -15862,12 +16098,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -15876,7 +16112,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -15893,21 +16129,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -15924,21 +16160,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -15955,18 +16191,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -15986,18 +16222,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -16017,21 +16253,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -16048,21 +16284,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -16079,21 +16315,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>-1E-3</v>
@@ -16110,21 +16346,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>1E-3</v>
@@ -16141,21 +16377,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -16172,11 +16408,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -16185,7 +16421,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -16205,9 +16441,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -16216,7 +16452,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -16236,9 +16472,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -16247,7 +16483,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -16267,9 +16503,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -16278,7 +16514,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -16298,9 +16534,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -16309,10 +16545,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>74.58</v>
@@ -16329,9 +16565,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -16340,10 +16576,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-52.168999999999997</v>
@@ -16360,9 +16596,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -16371,10 +16607,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>-107.499</v>
@@ -16391,9 +16627,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -16402,10 +16638,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>87.04</v>
@@ -16422,21 +16658,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -16453,21 +16689,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -16484,21 +16720,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -16515,18 +16751,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -16546,21 +16782,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-1.9510000000000001</v>
@@ -16577,18 +16813,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -16608,18 +16844,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -16639,21 +16875,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -16670,18 +16906,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -16701,21 +16937,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>1E-3</v>
@@ -16732,21 +16968,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
@@ -16763,21 +16999,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-1E-3</v>
@@ -16794,21 +17030,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -16825,18 +17061,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -17895,7 +18131,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17925,11 +18161,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -17962,7 +18198,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -17993,7 +18229,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -18024,7 +18260,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -18055,7 +18291,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -18086,7 +18322,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -18117,7 +18353,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -18148,7 +18384,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -18179,18 +18415,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -18210,12 +18446,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -18224,7 +18460,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>-268.113</v>
@@ -18241,12 +18477,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -18255,7 +18491,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -18272,21 +18508,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -18303,21 +18539,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -18334,18 +18570,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -18365,18 +18601,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -18396,21 +18632,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -18427,21 +18663,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -18458,21 +18694,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>-7.3999999999999996E-2</v>
@@ -18489,21 +18725,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>7.3999999999999996E-2</v>
@@ -18520,21 +18756,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -18551,11 +18787,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -18564,7 +18800,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -18584,9 +18820,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -18595,7 +18831,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -18615,9 +18851,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -18626,7 +18862,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -18646,9 +18882,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -18657,7 +18893,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -18677,9 +18913,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -18688,10 +18924,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>-2006.864</v>
@@ -18708,9 +18944,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -18719,10 +18955,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-2325.09</v>
@@ -18739,9 +18975,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -18750,10 +18986,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>608.59900000000005</v>
@@ -18770,9 +19006,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -18781,10 +19017,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>1132.615</v>
@@ -18801,21 +19037,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -18832,21 +19068,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -18863,21 +19099,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -18894,18 +19130,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -18925,21 +19161,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-103.336</v>
@@ -18956,18 +19192,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -18987,18 +19223,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -19018,21 +19254,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -19049,18 +19285,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -19080,21 +19316,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>399.548</v>
@@ -19111,21 +19347,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>-3093.6410000000001</v>
@@ -19142,21 +19378,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>1.7000000000000001E-2</v>
@@ -19173,21 +19409,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -19204,18 +19440,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
@@ -20277,7 +20513,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20307,11 +20543,11 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -20344,7 +20580,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -20375,7 +20611,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -20406,7 +20642,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -20437,7 +20673,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -20468,7 +20704,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -20499,7 +20735,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20530,7 +20766,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -20561,18 +20797,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
@@ -20592,12 +20828,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
@@ -20606,7 +20842,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="9">
         <v>0.23699999999999999</v>
@@ -20623,12 +20859,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
@@ -20637,7 +20873,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -20654,21 +20890,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -20685,21 +20921,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -20716,18 +20952,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
@@ -20747,18 +20983,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>20</v>
@@ -20778,21 +21014,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -20809,52 +21045,52 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
@@ -20871,21 +21107,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -20902,21 +21138,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -20933,11 +21169,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>90</v>
+      <c r="A26" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>17</v>
@@ -20946,7 +21182,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>20</v>
@@ -20966,9 +21202,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>22</v>
@@ -20977,7 +21213,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>20</v>
@@ -20997,9 +21233,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>25</v>
@@ -21008,7 +21244,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
@@ -21028,9 +21264,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>29</v>
@@ -21039,7 +21275,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>20</v>
@@ -21059,9 +21295,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>32</v>
@@ -21070,10 +21306,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="9">
         <v>-214.50800000000001</v>
@@ -21090,9 +21326,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
@@ -21101,10 +21337,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="9">
         <v>-775.11099999999999</v>
@@ -21121,9 +21357,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -21132,10 +21368,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>192.09700000000001</v>
@@ -21152,9 +21388,9 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
@@ -21163,10 +21399,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9">
         <v>206.27199999999999</v>
@@ -21183,21 +21419,21 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -21214,21 +21450,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -21245,21 +21481,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -21276,18 +21512,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
@@ -21307,21 +21543,21 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="9">
         <v>-33.76</v>
@@ -21338,18 +21574,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>20</v>
@@ -21369,18 +21605,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -21400,21 +21636,21 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -21431,18 +21667,18 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
@@ -21462,21 +21698,21 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="9">
         <v>92.713999999999999</v>
@@ -21493,21 +21729,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="9">
         <v>-717.70500000000004</v>
@@ -21524,21 +21760,21 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G45" s="9">
         <v>-1.9E-2</v>
@@ -21555,21 +21791,21 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -21586,18 +21822,18 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D9F78-DC16-4548-B9AF-C1F459A1C805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="857" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -31,12 +32,19 @@
     <definedName name="DonnéesExternes_4" localSheetId="6">'Bump 3G'!#REF!</definedName>
     <definedName name="DonnéesExternes_5" localSheetId="4">'LEFT TURN 2,2 G'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="166">
   <si>
     <t xml:space="preserve">Pour les Rockers </t>
   </si>
@@ -529,11 +537,17 @@
   <si>
     <t>Y force on each interior wheel = 920</t>
   </si>
+  <si>
+    <t>03   542,9</t>
+  </si>
+  <si>
+    <t>16   173,439</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -631,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -941,11 +955,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1055,6 +1108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,204 +1122,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1696,66 +1555,12 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2248,6 +2053,258 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2694,32 +2751,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="6">
-    <tableStyle name="BRAKING 2G-style" pivot="0" count="3">
+    <tableStyle name="BRAKING 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="89"/>
       <tableStyleElement type="firstRowStripe" dxfId="88"/>
       <tableStyleElement type="secondRowStripe" dxfId="87"/>
     </tableStyle>
-    <tableStyle name="Left Turn 1G + Freinage 1-style" pivot="0" count="3">
+    <tableStyle name="Left Turn 1G + Freinage 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="86"/>
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="LEFT TURN 2G-style" pivot="0" count="3">
+    <tableStyle name="LEFT TURN 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="83"/>
       <tableStyleElement type="firstRowStripe" dxfId="82"/>
       <tableStyleElement type="secondRowStripe" dxfId="81"/>
     </tableStyle>
-    <tableStyle name="Bump 3G-style" pivot="0" count="3">
+    <tableStyle name="Bump 3G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="headerRow" dxfId="80"/>
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="INVERSE BRAKING 0.5G-style" pivot="0" count="3">
+    <tableStyle name="INVERSE BRAKING 0.5G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="headerRow" dxfId="77"/>
       <tableStyleElement type="firstRowStripe" dxfId="76"/>
       <tableStyleElement type="secondRowStripe" dxfId="75"/>
     </tableStyle>
-    <tableStyle name="Right Turn 1G + Freinage 1G-style" pivot="0" count="3">
+    <tableStyle name="Right Turn 1G + Freinage 1G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
       <tableStyleElement type="headerRow" dxfId="74"/>
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
@@ -2942,15 +2999,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="71" totalsRowDxfId="70">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="69"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="68"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="67"/>
-    <tableColumn id="4" name="Rx" dataDxfId="66"/>
-    <tableColumn id="5" name="Ry" dataDxfId="65"/>
-    <tableColumn id="6" name="Rz" dataDxfId="64"/>
-    <tableColumn id="10" name="F" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part 1" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part 2" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rx" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ry" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rz" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="F" dataDxfId="63">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2959,15 +3016,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_2291011" displayName="Table_2291011" ref="D5:J47" headerRowDxfId="32" totalsRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="30"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="29"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="28"/>
-    <tableColumn id="4" name="Rx" dataDxfId="5"/>
-    <tableColumn id="5" name="Ry" dataDxfId="4"/>
-    <tableColumn id="6" name="Rz" dataDxfId="3"/>
-    <tableColumn id="10" name="F" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="54">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2976,15 +3033,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="62" totalsRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="53" totalsRowDxfId="52">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="60"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="59"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="58"/>
-    <tableColumn id="4" name="Rx" dataDxfId="8"/>
-    <tableColumn id="5" name="Ry" dataDxfId="7"/>
-    <tableColumn id="6" name="Rz" dataDxfId="6"/>
-    <tableColumn id="10" name="F" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="45">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2993,15 +3050,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_229" displayName="Table_229" ref="D5:J47" headerRowDxfId="56" totalsRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="44" totalsRowDxfId="43">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="54"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="53"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="52"/>
-    <tableColumn id="4" name="Rx" dataDxfId="51"/>
-    <tableColumn id="5" name="Ry" dataDxfId="50"/>
-    <tableColumn id="6" name="Rz" dataDxfId="49"/>
-    <tableColumn id="10" name="F" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="36">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3010,15 +3067,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_226" displayName="Table_226" ref="D5:J47" headerRowDxfId="47" totalsRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J47" headerRowDxfId="35" totalsRowDxfId="34">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="45"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="44"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="43"/>
-    <tableColumn id="4" name="Rx" dataDxfId="42"/>
-    <tableColumn id="5" name="Ry" dataDxfId="41"/>
-    <tableColumn id="6" name="Rz" dataDxfId="40"/>
-    <tableColumn id="10" name="F" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="27">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3027,15 +3084,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="36"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="35"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="34"/>
-    <tableColumn id="4" name="Rx" dataDxfId="2"/>
-    <tableColumn id="5" name="Ry" dataDxfId="1"/>
-    <tableColumn id="6" name="Rz" dataDxfId="0"/>
-    <tableColumn id="10" name="F" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="18">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3044,15 +3101,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="24"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="23"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="22"/>
-    <tableColumn id="4" name="Rx" dataDxfId="21"/>
-    <tableColumn id="5" name="Ry" dataDxfId="20"/>
-    <tableColumn id="6" name="Rz" dataDxfId="19"/>
-    <tableColumn id="10" name="F" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="9">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3061,15 +3118,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" name="Part 1" dataDxfId="14"/>
-    <tableColumn id="3" name="Part 2" dataDxfId="13"/>
-    <tableColumn id="4" name="Rx" dataDxfId="12"/>
-    <tableColumn id="5" name="Ry" dataDxfId="11"/>
-    <tableColumn id="6" name="Rz" dataDxfId="10"/>
-    <tableColumn id="10" name="F" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3339,14 +3396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3632,22 +3689,26 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4613,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7054,14 +7115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7169,18 +7230,18 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
-        <v>371.86</v>
-      </c>
-      <c r="H6" s="9">
-        <v>509.81700000000001</v>
-      </c>
-      <c r="I6" s="9">
-        <v>162.86500000000001</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="G6">
+        <v>396</v>
+      </c>
+      <c r="H6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="16" t="e">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>651.70410564457859</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -7203,18 +7264,18 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
-        <v>-289.935</v>
-      </c>
-      <c r="H7" s="9">
-        <v>834.74599999999998</v>
-      </c>
-      <c r="I7" s="9">
-        <v>266.666</v>
+      <c r="G7">
+        <v>-396.09699999999998</v>
+      </c>
+      <c r="H7">
+        <v>1140.396</v>
+      </c>
+      <c r="I7">
+        <v>364.30799999999999</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>923.02434653534465</v>
+        <v>1260.998092420841</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -7237,18 +7298,18 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
-        <v>-26.193999999999999</v>
-      </c>
-      <c r="H8" s="9">
-        <v>99.578000000000003</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.10100000000000001</v>
+      <c r="G8">
+        <v>-68.251000000000005</v>
+      </c>
+      <c r="H8">
+        <v>259.45699999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.26300000000000001</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>102.96559581238775</v>
+        <v>268.28381057939367</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -7271,18 +7332,18 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9">
-        <v>36.585000000000001</v>
-      </c>
-      <c r="H9" s="9">
-        <v>66.227000000000004</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6.7000000000000004E-2</v>
+      <c r="G9">
+        <v>68.183999999999997</v>
+      </c>
+      <c r="H9">
+        <v>123.429</v>
+      </c>
+      <c r="I9">
+        <v>0.125</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>75.660308240186282</v>
+        <v>141.00989866672481</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -7305,18 +7366,18 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="9">
-        <v>371.86</v>
-      </c>
-      <c r="H10" s="9">
-        <v>509.81700000000001</v>
-      </c>
-      <c r="I10" s="9">
-        <v>162.86500000000001</v>
+      <c r="G10">
+        <v>396.00299999999999</v>
+      </c>
+      <c r="H10">
+        <v>542.91600000000005</v>
+      </c>
+      <c r="I10">
+        <v>173.43899999999999</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>651.70410564457859</v>
+        <v>694.01530659344974</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -7339,18 +7400,18 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9">
-        <v>-289.935</v>
-      </c>
-      <c r="H11" s="9">
-        <v>834.74599999999998</v>
-      </c>
-      <c r="I11" s="9">
-        <v>266.666</v>
+      <c r="G11">
+        <v>-396.09699999999998</v>
+      </c>
+      <c r="H11">
+        <v>1140.396</v>
+      </c>
+      <c r="I11">
+        <v>364.30799999999999</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>923.02434653534465</v>
+        <v>1260.998092420841</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -7373,18 +7434,18 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9">
-        <v>-26.193999999999999</v>
-      </c>
-      <c r="H12" s="9">
-        <v>99.578000000000003</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.10100000000000001</v>
+      <c r="G12">
+        <v>-68.251000000000005</v>
+      </c>
+      <c r="H12">
+        <v>259.45699999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.26300000000000001</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>102.96559581238775</v>
+        <v>268.28381057939367</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -7407,18 +7468,18 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9">
-        <v>36.585000000000001</v>
-      </c>
-      <c r="H13" s="9">
-        <v>66.227000000000004</v>
-      </c>
-      <c r="I13" s="9">
-        <v>6.7000000000000004E-2</v>
+      <c r="G13">
+        <v>68.183999999999997</v>
+      </c>
+      <c r="H13">
+        <v>123.429</v>
+      </c>
+      <c r="I13">
+        <v>0.125</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>75.660308240186282</v>
+        <v>141.00989866672481</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7438,18 +7499,18 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9">
-        <v>-20.280999999999999</v>
-      </c>
-      <c r="H14" s="9">
-        <v>142.03299999999999</v>
-      </c>
-      <c r="I14" s="9">
-        <v>8.2690000000000001</v>
+      <c r="G14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.246</v>
+      </c>
+      <c r="I14">
+        <v>-1.4E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>143.7117546027464</v>
+        <v>0.24887145276226438</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7469,18 +7530,18 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="9">
-        <v>-20.280999999999999</v>
-      </c>
-      <c r="H15" s="9">
-        <v>142.03299999999999</v>
-      </c>
-      <c r="I15" s="9">
-        <v>8.2690000000000001</v>
+      <c r="G15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.246</v>
+      </c>
+      <c r="I15">
+        <v>-1.4E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>143.7117546027464</v>
+        <v>0.24887145276226438</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7500,18 +7561,18 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H16" s="9">
-        <v>-1652.4</v>
-      </c>
-      <c r="I16" s="9">
-        <v>566.25199999999995</v>
+      <c r="G16">
+        <v>0.126</v>
+      </c>
+      <c r="H16">
+        <v>-2065.951</v>
+      </c>
+      <c r="I16">
+        <v>707.97</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1748.2151265587995</v>
+        <v>2183.8898944720177</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7531,18 +7592,18 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H17" s="9">
-        <v>-1652.4</v>
-      </c>
-      <c r="I17" s="9">
-        <v>566.25199999999995</v>
+      <c r="G17">
+        <v>0.126</v>
+      </c>
+      <c r="H17">
+        <v>-2065.951</v>
+      </c>
+      <c r="I17">
+        <v>707.97</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1748.2151265587995</v>
+        <v>2183.8898944720177</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7562,18 +7623,18 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>-1196.8879999999999</v>
-      </c>
-      <c r="I18" s="9">
-        <v>-319.84100000000001</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-1496.4380000000001</v>
+      </c>
+      <c r="I18">
+        <v>-399.88900000000001</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1238.8862537880545</v>
+        <v>1548.9473522896124</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7593,18 +7654,18 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>-1196.8879999999999</v>
-      </c>
-      <c r="I19" s="9">
-        <v>-319.84100000000001</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-1496.4380000000001</v>
+      </c>
+      <c r="I19">
+        <v>-399.88900000000001</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1238.8862537880545</v>
+        <v>1548.9473522896124</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,18 +7685,18 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-455.512</v>
-      </c>
-      <c r="I20" s="9">
-        <v>886.09299999999996</v>
+      <c r="G20">
+        <v>0.126</v>
+      </c>
+      <c r="H20">
+        <v>-569.51400000000001</v>
+      </c>
+      <c r="I20">
+        <v>1107.8589999999999</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>998.91993073419053</v>
+        <v>1245.6716164194318</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7655,18 +7716,18 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1004.22</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1246.0899999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1004.22</v>
+        <v>1246.0899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,18 +7747,18 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8.3000000000000004E-2</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>0.10100000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>8.3024092888751275E-2</v>
+        <v>0.10104454463255304</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7717,18 +7778,18 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>974.63599999999997</v>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1209.3810000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>974.63600003283273</v>
+        <v>1209.3810000413437</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7748,18 +7809,18 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="9">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>29.501000000000001</v>
+      <c r="G24">
+        <v>-0.01</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>36.606999999999999</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>29.501001084708975</v>
+        <v>36.607001365858963</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7779,18 +7840,18 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>-2E-3</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7812,18 +7873,18 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="9">
-        <v>-387.358</v>
-      </c>
-      <c r="H26" s="9">
-        <v>-829.12199999999996</v>
-      </c>
-      <c r="I26" s="9">
-        <v>44.585999999999999</v>
+      <c r="G26">
+        <v>695.428</v>
+      </c>
+      <c r="H26">
+        <v>2030.0129999999999</v>
+      </c>
+      <c r="I26">
+        <v>-109.16500000000001</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>916.23000520829908</v>
+        <v>2148.601843194313</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7843,18 +7904,18 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="9">
-        <v>356.19099999999997</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-762.00400000000002</v>
-      </c>
-      <c r="I27" s="9">
-        <v>40.976999999999997</v>
+      <c r="G27">
+        <v>868.72500000000002</v>
+      </c>
+      <c r="H27">
+        <v>-2534.04</v>
+      </c>
+      <c r="I27">
+        <v>136.26900000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>842.14086649799867</v>
+        <v>2682.2772204949288</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7874,18 +7935,18 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="9">
-        <v>-33</v>
-      </c>
-      <c r="H28" s="9">
-        <v>85.552000000000007</v>
-      </c>
-      <c r="I28" s="9">
-        <v>-9.4550000000000001</v>
+      <c r="G28">
+        <v>-2577.3200000000002</v>
+      </c>
+      <c r="H28">
+        <v>6681.7030000000004</v>
+      </c>
+      <c r="I28">
+        <v>-738.471</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>92.18211176253233</v>
+        <v>7199.5189270151941</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7905,18 +7966,18 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="9">
-        <v>63.709000000000003</v>
-      </c>
-      <c r="H29" s="9">
-        <v>172.137</v>
-      </c>
-      <c r="I29" s="9">
-        <v>-19.024999999999999</v>
+      <c r="G29">
+        <v>-2199.7260000000001</v>
+      </c>
+      <c r="H29">
+        <v>-5943.4790000000003</v>
+      </c>
+      <c r="I29">
+        <v>656.88099999999997</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>184.53166144323308</v>
+        <v>6371.4385931811348</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7936,18 +7997,18 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="9">
-        <v>63.709000000000003</v>
-      </c>
-      <c r="H30" s="9">
-        <v>172.137</v>
-      </c>
-      <c r="I30" s="9">
-        <v>-19.024999999999999</v>
+      <c r="G30">
+        <v>-2199.7260000000001</v>
+      </c>
+      <c r="H30">
+        <v>-5943.4790000000003</v>
+      </c>
+      <c r="I30">
+        <v>656.88099999999997</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>184.53166144323308</v>
+        <v>6371.4385931811348</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7967,18 +8028,18 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="9">
-        <v>-33</v>
-      </c>
-      <c r="H31" s="9">
-        <v>85.552000000000007</v>
-      </c>
-      <c r="I31" s="9">
-        <v>-9.4550000000000001</v>
+      <c r="G31">
+        <v>-2577.3200000000002</v>
+      </c>
+      <c r="H31">
+        <v>6681.7030000000004</v>
+      </c>
+      <c r="I31">
+        <v>-738.471</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>92.18211176253233</v>
+        <v>7199.5189270151941</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7998,18 +8059,18 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="9">
-        <v>356.19099999999997</v>
-      </c>
-      <c r="H32" s="9">
-        <v>-762.00400000000002</v>
-      </c>
-      <c r="I32" s="9">
-        <v>40.976999999999997</v>
+      <c r="G32">
+        <v>868.72500000000002</v>
+      </c>
+      <c r="H32">
+        <v>-2534.04</v>
+      </c>
+      <c r="I32">
+        <v>136.26900000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>842.14086649799867</v>
+        <v>2682.2772204949288</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,18 +8090,18 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="9">
-        <v>-387.358</v>
-      </c>
-      <c r="H33" s="9">
-        <v>-829.12199999999996</v>
-      </c>
-      <c r="I33" s="9">
-        <v>44.585999999999999</v>
+      <c r="G33">
+        <v>695.428</v>
+      </c>
+      <c r="H33">
+        <v>2030.0129999999999</v>
+      </c>
+      <c r="I33">
+        <v>-109.16500000000001</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>916.23000520829908</v>
+        <v>2148.601843194313</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8060,18 +8121,18 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1355.796</v>
-      </c>
-      <c r="I34" s="9">
-        <v>970.447</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>534.58799999999997</v>
+      </c>
+      <c r="I34">
+        <v>382.64600000000002</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>1667.3182579894578</v>
+        <v>657.42093901852559</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8091,18 +8152,18 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1355.796</v>
-      </c>
-      <c r="I35" s="9">
-        <v>970.447</v>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>534.58799999999997</v>
+      </c>
+      <c r="I35">
+        <v>382.64600000000002</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1667.3182579894578</v>
+        <v>657.42093901852559</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,18 +8183,18 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>-111.46599999999999</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1091.8140000000001</v>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>-44.561999999999998</v>
+      </c>
+      <c r="I36">
+        <v>436.48099999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1097.4891706764126</v>
+        <v>438.74985493444893</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8153,18 +8214,18 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>-111.46599999999999</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1091.8140000000001</v>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-44.561999999999998</v>
+      </c>
+      <c r="I37">
+        <v>436.48099999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1097.4891706764126</v>
+        <v>438.74985493444893</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,18 +8245,18 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H38" s="9">
-        <v>-22.359000000000002</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.749</v>
+      <c r="G38">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="H38">
+        <v>-768.78499999999997</v>
+      </c>
+      <c r="I38">
+        <v>25.75</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>22.376229485773514</v>
+        <v>769.3773055068624</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8215,18 +8276,18 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H39" s="9">
-        <v>-22.359000000000002</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.749</v>
+      <c r="G39">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="H39">
+        <v>-768.78499999999997</v>
+      </c>
+      <c r="I39">
+        <v>25.75</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>22.376229485773514</v>
+        <v>769.3773055068624</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8246,18 +8307,18 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1004.222</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1246.0909999999999</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1004.222</v>
+        <v>1246.0909999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,18 +8338,18 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1028.279</v>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>353.91</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1028.279</v>
+        <v>353.91</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8308,18 +8369,18 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>1028.279</v>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>353.91</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1028.279</v>
+        <v>353.91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8339,18 +8400,18 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H43" s="9">
-        <v>17.448</v>
-      </c>
-      <c r="I43" s="9">
-        <v>-373.62700000000001</v>
+      <c r="G43">
+        <v>531.92999999999995</v>
+      </c>
+      <c r="H43">
+        <v>64.48</v>
+      </c>
+      <c r="I43">
+        <v>-1380.3440000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>374.03418115728408</v>
+        <v>1480.694686164572</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8370,18 +8431,18 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="9">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="H44" s="9">
-        <v>-65.346000000000004</v>
-      </c>
-      <c r="I44" s="9">
-        <v>1399.3040000000001</v>
+      <c r="G44">
+        <v>-3729.0740000000001</v>
+      </c>
+      <c r="H44">
+        <v>-440.61399999999998</v>
+      </c>
+      <c r="I44">
+        <v>9432.27</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>1400.8289634573523</v>
+        <v>10152.233791012302</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8401,18 +8462,18 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="9">
-        <v>-2E-3</v>
-      </c>
-      <c r="H45" s="9">
-        <v>47.914999999999999</v>
-      </c>
-      <c r="I45" s="9">
-        <v>2.238</v>
+      <c r="G45">
+        <v>-1E-3</v>
+      </c>
+      <c r="H45">
+        <v>16.748000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.78200000000000003</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>47.967237496024303</v>
+        <v>16.766246717736202</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,18 +8493,18 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.36399999999999999</v>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>359.38600000000002</v>
+      </c>
+      <c r="I46">
+        <v>-7698.7969999999996</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>0.36439676178583147</v>
+        <v>7707.18064821404</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8454,46 +8515,70 @@
       <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>1467.2629999999999</v>
-      </c>
-      <c r="I47" s="9">
-        <v>-121.36799999999999</v>
-      </c>
-      <c r="J47" s="16">
-        <f t="shared" si="0"/>
-        <v>1472.2740582490069</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
+        <v>579.15</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-53.835999999999999</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="0"/>
+        <v>581.64683218943094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9467,14 +9552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9567,18 +9652,18 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
-        <v>371.86</v>
-      </c>
-      <c r="H6" s="9">
-        <v>509.81700000000001</v>
-      </c>
-      <c r="I6" s="9">
-        <v>162.86500000000001</v>
+      <c r="G6">
+        <v>67.117000000000004</v>
+      </c>
+      <c r="H6">
+        <v>92.016999999999996</v>
+      </c>
+      <c r="I6">
+        <v>29.395</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>651.70410564457859</v>
+        <v>117.62604304744761</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9598,18 +9683,18 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
-        <v>-289.935</v>
-      </c>
-      <c r="H7" s="9">
-        <v>834.74599999999998</v>
-      </c>
-      <c r="I7" s="9">
-        <v>266.666</v>
+      <c r="G7">
+        <v>-67.132999999999996</v>
+      </c>
+      <c r="H7">
+        <v>193.28100000000001</v>
+      </c>
+      <c r="I7">
+        <v>61.744999999999997</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>923.02434653534465</v>
+        <v>213.72138328908505</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9629,18 +9714,18 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
-        <v>-26.193999999999999</v>
-      </c>
-      <c r="H8" s="9">
-        <v>99.578000000000003</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.10100000000000001</v>
+      <c r="G8">
+        <v>-11.568</v>
+      </c>
+      <c r="H8">
+        <v>43.973999999999997</v>
+      </c>
+      <c r="I8">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>102.96559581238775</v>
+        <v>45.470136628341017</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9660,18 +9745,18 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9">
-        <v>36.585000000000001</v>
-      </c>
-      <c r="H9" s="9">
-        <v>66.227000000000004</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6.7000000000000004E-2</v>
+      <c r="G9">
+        <v>11.555999999999999</v>
+      </c>
+      <c r="H9">
+        <v>20.919</v>
+      </c>
+      <c r="I9">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>75.660308240186282</v>
+        <v>23.898663937550989</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9691,18 +9776,18 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="9">
-        <v>371.86</v>
-      </c>
-      <c r="H10" s="9">
-        <v>509.81700000000001</v>
-      </c>
-      <c r="I10" s="9">
-        <v>162.86500000000001</v>
+      <c r="G10">
+        <v>67.117000000000004</v>
+      </c>
+      <c r="H10">
+        <v>92.016999999999996</v>
+      </c>
+      <c r="I10">
+        <v>29.395</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>651.70410564457859</v>
+        <v>117.62604304744761</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9722,18 +9807,18 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9">
-        <v>-289.935</v>
-      </c>
-      <c r="H11" s="9">
-        <v>834.74599999999998</v>
-      </c>
-      <c r="I11" s="9">
-        <v>266.666</v>
+      <c r="G11">
+        <v>-67.132999999999996</v>
+      </c>
+      <c r="H11">
+        <v>193.28100000000001</v>
+      </c>
+      <c r="I11">
+        <v>61.744999999999997</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>923.02434653534465</v>
+        <v>213.72138328908505</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9753,18 +9838,18 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9">
-        <v>-26.193999999999999</v>
-      </c>
-      <c r="H12" s="9">
-        <v>99.578000000000003</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.10100000000000001</v>
+      <c r="G12">
+        <v>-11.568</v>
+      </c>
+      <c r="H12">
+        <v>43.973999999999997</v>
+      </c>
+      <c r="I12">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>102.96559581238775</v>
+        <v>45.470136628341017</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,18 +9869,18 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9">
-        <v>36.585000000000001</v>
-      </c>
-      <c r="H13" s="9">
-        <v>66.227000000000004</v>
-      </c>
-      <c r="I13" s="9">
-        <v>6.7000000000000004E-2</v>
+      <c r="G13">
+        <v>11.555999999999999</v>
+      </c>
+      <c r="H13">
+        <v>20.919</v>
+      </c>
+      <c r="I13">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>75.660308240186282</v>
+        <v>23.898663937550989</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9815,18 +9900,18 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9">
-        <v>-20.280999999999999</v>
-      </c>
-      <c r="H14" s="9">
-        <v>142.03299999999999</v>
-      </c>
-      <c r="I14" s="9">
-        <v>8.2690000000000001</v>
+      <c r="G14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="I14">
+        <v>-2E-3</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>143.7117546027464</v>
+        <v>4.2473521163190607E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,18 +9931,18 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="9">
-        <v>-20.280999999999999</v>
-      </c>
-      <c r="H15" s="9">
-        <v>142.03299999999999</v>
-      </c>
-      <c r="I15" s="9">
-        <v>8.2690000000000001</v>
+      <c r="G15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>-2E-3</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>143.7117546027464</v>
+        <v>4.2473521163190607E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9877,18 +9962,18 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H16" s="9">
-        <v>-1652.4</v>
-      </c>
-      <c r="I16" s="9">
-        <v>566.25199999999995</v>
+      <c r="G16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>-350.15</v>
+      </c>
+      <c r="I16">
+        <v>119.991</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1748.2151265587995</v>
+        <v>370.13897798259507</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9908,18 +9993,18 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H17" s="9">
-        <v>-1652.4</v>
-      </c>
-      <c r="I17" s="9">
-        <v>566.25199999999995</v>
+      <c r="G17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>-350.15</v>
+      </c>
+      <c r="I17">
+        <v>119.991</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1748.2151265587995</v>
+        <v>370.13897798259507</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9939,18 +10024,18 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>-1196.8879999999999</v>
-      </c>
-      <c r="I18" s="9">
-        <v>-319.84100000000001</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-253.626</v>
+      </c>
+      <c r="I18">
+        <v>-67.775999999999996</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1238.8862537880545</v>
+        <v>262.5256826521931</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9970,18 +10055,18 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>-1196.8879999999999</v>
-      </c>
-      <c r="I19" s="9">
-        <v>-319.84100000000001</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-253.626</v>
+      </c>
+      <c r="I19">
+        <v>-67.775999999999996</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1238.8862537880545</v>
+        <v>262.5256826521931</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10001,18 +10086,18 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="9">
-        <v>-72.034999999999997</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-455.512</v>
-      </c>
-      <c r="I20" s="9">
-        <v>886.09299999999996</v>
+      <c r="G20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>-96.525000000000006</v>
+      </c>
+      <c r="I20">
+        <v>187.767</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>998.91993073419053</v>
+        <v>211.12442387132759</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,18 +10117,18 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1004.22</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>211.19499999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1004.22</v>
+        <v>211.19499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10063,18 +10148,18 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8.3000000000000004E-2</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>8.3024092888751275E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10094,18 +10179,18 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>974.63599999999997</v>
+      <c r="G23">
+        <v>2E-3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>204.97300000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>974.63600003283273</v>
+        <v>204.97300000975741</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10125,18 +10210,18 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="9">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>29.501000000000001</v>
+      <c r="G24">
+        <v>-2E-3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>6.2039999999999997</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>29.501001084708975</v>
+        <v>6.2040003223726536</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10156,18 +10241,18 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>-2E-3</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10189,18 +10274,18 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="9">
-        <v>-387.358</v>
-      </c>
-      <c r="H26" s="9">
-        <v>-829.12199999999996</v>
-      </c>
-      <c r="I26" s="9">
-        <v>44.585999999999999</v>
+      <c r="G26">
+        <v>-892.68899999999996</v>
+      </c>
+      <c r="H26">
+        <v>-2605.8359999999998</v>
+      </c>
+      <c r="I26">
+        <v>140.13</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>916.23000520829908</v>
+        <v>2758.0629663800278</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10220,18 +10305,18 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="9">
-        <v>356.19099999999997</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-762.00400000000002</v>
-      </c>
-      <c r="I27" s="9">
-        <v>40.976999999999997</v>
+      <c r="G27">
+        <v>-147.148</v>
+      </c>
+      <c r="H27">
+        <v>429.22399999999999</v>
+      </c>
+      <c r="I27">
+        <v>-23.082000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>842.14086649799867</v>
+        <v>454.33308794759819</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10251,18 +10336,18 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="9">
-        <v>-33</v>
-      </c>
-      <c r="H28" s="9">
-        <v>85.552000000000007</v>
-      </c>
-      <c r="I28" s="9">
-        <v>-9.4550000000000001</v>
+      <c r="G28">
+        <v>1581.058</v>
+      </c>
+      <c r="H28">
+        <v>-4098.893</v>
+      </c>
+      <c r="I28">
+        <v>453.01499999999999</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>92.18211176253233</v>
+        <v>4416.5473862552408</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10282,18 +10367,18 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="9">
-        <v>63.709000000000003</v>
-      </c>
-      <c r="H29" s="9">
-        <v>172.137</v>
-      </c>
-      <c r="I29" s="9">
-        <v>-19.024999999999999</v>
+      <c r="G29">
+        <v>1493.5419999999999</v>
+      </c>
+      <c r="H29">
+        <v>4035.4270000000001</v>
+      </c>
+      <c r="I29">
+        <v>-446.00099999999998</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>184.53166144323308</v>
+        <v>4325.9976502645031</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,18 +10398,18 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="9">
-        <v>63.709000000000003</v>
-      </c>
-      <c r="H30" s="9">
-        <v>172.137</v>
-      </c>
-      <c r="I30" s="9">
-        <v>-19.024999999999999</v>
+      <c r="G30">
+        <v>1493.5419999999999</v>
+      </c>
+      <c r="H30">
+        <v>4035.4270000000001</v>
+      </c>
+      <c r="I30">
+        <v>-446.00099999999998</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>184.53166144323308</v>
+        <v>4325.9976502645031</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,18 +10429,18 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="9">
-        <v>-33</v>
-      </c>
-      <c r="H31" s="9">
-        <v>85.552000000000007</v>
-      </c>
-      <c r="I31" s="9">
-        <v>-9.4550000000000001</v>
+      <c r="G31">
+        <v>1581.058</v>
+      </c>
+      <c r="H31">
+        <v>-4098.893</v>
+      </c>
+      <c r="I31">
+        <v>453.01499999999999</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>92.18211176253233</v>
+        <v>4416.5473862552408</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10375,18 +10460,18 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="9">
-        <v>356.19099999999997</v>
-      </c>
-      <c r="H32" s="9">
-        <v>-762.00400000000002</v>
-      </c>
-      <c r="I32" s="9">
-        <v>40.976999999999997</v>
+      <c r="G32">
+        <v>-147.148</v>
+      </c>
+      <c r="H32">
+        <v>429.22399999999999</v>
+      </c>
+      <c r="I32">
+        <v>-23.082000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>842.14086649799867</v>
+        <v>454.33308794759819</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10406,18 +10491,18 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="9">
-        <v>-387.358</v>
-      </c>
-      <c r="H33" s="9">
-        <v>-829.12199999999996</v>
-      </c>
-      <c r="I33" s="9">
-        <v>44.585999999999999</v>
+      <c r="G33">
+        <v>-892.68899999999996</v>
+      </c>
+      <c r="H33">
+        <v>-2605.8359999999998</v>
+      </c>
+      <c r="I33">
+        <v>140.13</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>916.23000520829908</v>
+        <v>2758.0629663800278</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10437,18 +10522,18 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1355.796</v>
-      </c>
-      <c r="I34" s="9">
-        <v>970.447</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1788.0989999999999</v>
+      </c>
+      <c r="I34">
+        <v>1279.8789999999999</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>1667.3182579894578</v>
+        <v>2198.9516339478682</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10468,18 +10553,18 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1355.796</v>
-      </c>
-      <c r="I35" s="9">
-        <v>970.447</v>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1788.0989999999999</v>
+      </c>
+      <c r="I35">
+        <v>1279.8789999999999</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1667.3182579894578</v>
+        <v>2198.9516339478682</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10499,18 +10584,18 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>-111.46599999999999</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1091.8140000000001</v>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>-149.05000000000001</v>
+      </c>
+      <c r="I36">
+        <v>1459.951</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1097.4891706764126</v>
+        <v>1467.539718338485</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10530,18 +10615,18 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>-111.46599999999999</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1091.8140000000001</v>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-149.05000000000001</v>
+      </c>
+      <c r="I37">
+        <v>1459.951</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1097.4891706764126</v>
+        <v>1467.539718338485</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10561,18 +10646,18 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H38" s="9">
-        <v>-22.359000000000002</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.749</v>
+      <c r="G38">
+        <v>-9.2579999999999991</v>
+      </c>
+      <c r="H38">
+        <v>451.97800000000001</v>
+      </c>
+      <c r="I38">
+        <v>-15.138999999999999</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>22.376229485773514</v>
+        <v>452.32622339302861</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10592,18 +10677,18 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="9">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H39" s="9">
-        <v>-22.359000000000002</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0.749</v>
+      <c r="G39">
+        <v>-9.2579999999999991</v>
+      </c>
+      <c r="H39">
+        <v>451.97800000000001</v>
+      </c>
+      <c r="I39">
+        <v>-15.138999999999999</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>22.376229485773514</v>
+        <v>452.32622339302861</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10623,18 +10708,18 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1004.222</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>211.19900000000001</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1004.222</v>
+        <v>211.19900000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10654,18 +10739,18 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1028.279</v>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1388.8030000000001</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1028.279</v>
+        <v>1388.8030000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,18 +10770,18 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>1028.279</v>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1388.8030000000001</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1028.279</v>
+        <v>1388.8030000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10716,18 +10801,18 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H43" s="9">
-        <v>17.448</v>
-      </c>
-      <c r="I43" s="9">
-        <v>-373.62700000000001</v>
+      <c r="G43">
+        <v>-336.95100000000002</v>
+      </c>
+      <c r="H43">
+        <v>-13.481</v>
+      </c>
+      <c r="I43">
+        <v>288.40600000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>374.03418115728408</v>
+        <v>443.72934836226466</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10747,18 +10832,18 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="9">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="H44" s="9">
-        <v>-65.346000000000004</v>
-      </c>
-      <c r="I44" s="9">
-        <v>1399.3040000000001</v>
+      <c r="G44">
+        <v>2362.4580000000001</v>
+      </c>
+      <c r="H44">
+        <v>176.63900000000001</v>
+      </c>
+      <c r="I44">
+        <v>-3780.6489999999999</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>1400.8289634573523</v>
+        <v>4461.5822304745207</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10778,18 +10863,18 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45">
         <v>-2E-3</v>
       </c>
-      <c r="H45" s="9">
-        <v>47.914999999999999</v>
-      </c>
-      <c r="I45" s="9">
-        <v>2.238</v>
+      <c r="H45">
+        <v>64.552000000000007</v>
+      </c>
+      <c r="I45">
+        <v>3.0139999999999998</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>47.967237496024303</v>
+        <v>64.622325120657806</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10809,18 +10894,18 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.36399999999999999</v>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-227.71</v>
+      </c>
+      <c r="I46">
+        <v>4878.0320000000002</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>0.36439676178583147</v>
+        <v>4883.3439400808129</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,18 +10925,18 @@
       <c r="F47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>1467.2629999999999</v>
-      </c>
-      <c r="I47" s="9">
-        <v>-121.36799999999999</v>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1937.15</v>
+      </c>
+      <c r="I47">
+        <v>-180.071</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>1472.2740582490069</v>
+        <v>1945.5013974657022</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11919,14 +12004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12022,18 +12107,18 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
-        <v>1046.058</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1434.135</v>
-      </c>
-      <c r="I6" s="9">
-        <v>458.14600000000002</v>
+      <c r="G6">
+        <v>396.00299999999999</v>
+      </c>
+      <c r="H6">
+        <v>542.91600000000005</v>
+      </c>
+      <c r="I6">
+        <v>173.43899999999999</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1833.269836904813</v>
+        <v>694.01530659344974</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12053,18 +12138,18 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
-        <v>-891.71199999999999</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2567.3119999999999</v>
-      </c>
-      <c r="I7" s="9">
-        <v>820.14700000000005</v>
+      <c r="G7">
+        <v>-396.09699999999998</v>
+      </c>
+      <c r="H7">
+        <v>1140.396</v>
+      </c>
+      <c r="I7">
+        <v>364.30799999999999</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2838.8170596037003</v>
+        <v>1260.998092420841</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12084,18 +12169,18 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
-        <v>674.43</v>
-      </c>
-      <c r="H8" s="9">
-        <v>-2563.84</v>
-      </c>
-      <c r="I8" s="9">
-        <v>-2.5979999999999999</v>
+      <c r="G8">
+        <v>-68.251000000000005</v>
+      </c>
+      <c r="H8">
+        <v>259.45699999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.26300000000000001</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2651.0635828104919</v>
+        <v>268.28381057939367</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12115,18 +12200,18 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9">
-        <v>-654.82000000000005</v>
-      </c>
-      <c r="H9" s="9">
-        <v>-1185.3779999999999</v>
-      </c>
-      <c r="I9" s="9">
-        <v>-1.2010000000000001</v>
+      <c r="G9">
+        <v>68.183999999999997</v>
+      </c>
+      <c r="H9">
+        <v>123.429</v>
+      </c>
+      <c r="I9">
+        <v>0.125</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>1354.2199517378999</v>
+        <v>141.00989866672481</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12146,18 +12231,18 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="9">
-        <v>1046.058</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1434.135</v>
-      </c>
-      <c r="I10" s="9">
-        <v>458.14499999999998</v>
+      <c r="G10">
+        <v>396.00299999999999</v>
+      </c>
+      <c r="H10">
+        <v>542.91600000000005</v>
+      </c>
+      <c r="I10">
+        <v>173.43899999999999</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1833.2695869985951</v>
+        <v>694.01530659344974</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12177,18 +12262,18 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9">
-        <v>-891.71199999999999</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2567.3119999999999</v>
-      </c>
-      <c r="I11" s="9">
-        <v>820.14700000000005</v>
+      <c r="G11">
+        <v>-396.09699999999998</v>
+      </c>
+      <c r="H11">
+        <v>1140.396</v>
+      </c>
+      <c r="I11">
+        <v>364.30799999999999</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2838.8170596037003</v>
+        <v>1260.998092420841</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12208,18 +12293,18 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9">
-        <v>674.43</v>
-      </c>
-      <c r="H12" s="9">
-        <v>-2563.84</v>
-      </c>
-      <c r="I12" s="9">
-        <v>-2.5979999999999999</v>
+      <c r="G12">
+        <v>-68.251000000000005</v>
+      </c>
+      <c r="H12">
+        <v>259.45699999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.26300000000000001</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2651.0635828104919</v>
+        <v>268.28381057939367</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12239,18 +12324,18 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9">
-        <v>-654.82000000000005</v>
-      </c>
-      <c r="H13" s="9">
-        <v>-1185.3779999999999</v>
-      </c>
-      <c r="I13" s="9">
-        <v>-1.2010000000000001</v>
+      <c r="G13">
+        <v>68.183999999999997</v>
+      </c>
+      <c r="H13">
+        <v>123.429</v>
+      </c>
+      <c r="I13">
+        <v>0.125</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>1354.2199517378999</v>
+        <v>141.00989866672481</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12270,18 +12355,18 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="9">
-        <v>-38.265000000000001</v>
-      </c>
-      <c r="H14" s="9">
-        <v>267.97899999999998</v>
-      </c>
-      <c r="I14" s="9">
-        <v>15.602</v>
+      <c r="G14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.246</v>
+      </c>
+      <c r="I14">
+        <v>-1.4E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>271.1464126076537</v>
+        <v>0.24887145276226438</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12301,18 +12386,18 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="9">
-        <v>-38.265000000000001</v>
-      </c>
-      <c r="H15" s="9">
-        <v>267.97899999999998</v>
-      </c>
-      <c r="I15" s="9">
-        <v>15.602</v>
+      <c r="G15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.246</v>
+      </c>
+      <c r="I15">
+        <v>-1.4E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>271.1464126076537</v>
+        <v>0.24887145276226438</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12332,18 +12417,18 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9">
-        <v>-135.691</v>
-      </c>
-      <c r="H16" s="9">
-        <v>-3112.6039999999998</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1066.6410000000001</v>
+      <c r="G16">
+        <v>0.126</v>
+      </c>
+      <c r="H16">
+        <v>-2065.951</v>
+      </c>
+      <c r="I16">
+        <v>707.97</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>3293.0895419314061</v>
+        <v>2183.8898944720177</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12363,18 +12448,18 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="9">
-        <v>-135.691</v>
-      </c>
-      <c r="H17" s="9">
-        <v>-3112.6039999999998</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1066.6410000000001</v>
+      <c r="G17">
+        <v>0.126</v>
+      </c>
+      <c r="H17">
+        <v>-2065.951</v>
+      </c>
+      <c r="I17">
+        <v>707.97</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>3293.0895419314061</v>
+        <v>2183.8898944720177</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12394,18 +12479,18 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>-2254.5610000000001</v>
-      </c>
-      <c r="I18" s="9">
-        <v>-602.48</v>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-1496.4380000000001</v>
+      </c>
+      <c r="I18">
+        <v>-399.88900000000001</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>2333.6725248245521</v>
+        <v>1548.9473522896124</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12425,18 +12510,18 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>-2254.5610000000001</v>
-      </c>
-      <c r="I19" s="9">
-        <v>-602.48</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-1496.4380000000001</v>
+      </c>
+      <c r="I19">
+        <v>-399.88900000000001</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>2333.6725248245521</v>
+        <v>1548.9473522896124</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12456,18 +12541,18 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="9">
-        <v>-135.691</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-858.04200000000003</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1669.1210000000001</v>
+      <c r="G20">
+        <v>0.126</v>
+      </c>
+      <c r="H20">
+        <v>-569.51400000000001</v>
+      </c>
+      <c r="I20">
+        <v>1107.8589999999999</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1881.6516770874466</v>
+        <v>1245.6716164194318</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12487,18 +12572,18 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2356.7359999999999</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1246.0899999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>2356.7359999999999</v>
+        <v>1246.0899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12518,18 +12603,18 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>-0.153</v>
-      </c>
-      <c r="I22" s="9">
-        <v>-5.5540000000000003</v>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>0.10100000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>5.5561070004095496</v>
+        <v>0.10104454463255304</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12549,18 +12634,18 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="9">
-        <v>-2.1120000000000001</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>-19317.184000000001</v>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1209.3810000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>19317.184115455337</v>
+        <v>1209.3810000413437</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12580,18 +12665,18 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="9">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>21679.473000000002</v>
+      <c r="G24">
+        <v>-0.01</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>36.606999999999999</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>21679.473102874825</v>
+        <v>36.607001365858963</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12611,18 +12696,18 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>-2592.2420000000002</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>2592.2420000000002</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12644,18 +12729,18 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="9">
-        <v>-262.74</v>
-      </c>
-      <c r="H26" s="9">
-        <v>-562.38400000000001</v>
-      </c>
-      <c r="I26" s="9">
-        <v>30.242000000000001</v>
+      <c r="G26">
+        <v>695.428</v>
+      </c>
+      <c r="H26">
+        <v>2030.0129999999999</v>
+      </c>
+      <c r="I26">
+        <v>-109.16500000000001</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>621.46814047061173</v>
+        <v>2148.601843194313</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12675,18 +12760,18 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="9">
-        <v>222.91499999999999</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-476.88600000000002</v>
-      </c>
-      <c r="I27" s="9">
-        <v>25.645</v>
+      <c r="G27">
+        <v>868.72500000000002</v>
+      </c>
+      <c r="H27">
+        <v>-2534.04</v>
+      </c>
+      <c r="I27">
+        <v>136.26900000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>527.03796850511628</v>
+        <v>2682.2772204949288</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12706,18 +12791,18 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="9">
-        <v>417.12400000000002</v>
-      </c>
-      <c r="H28" s="9">
-        <v>-1081.394</v>
-      </c>
-      <c r="I28" s="9">
-        <v>119.517</v>
+      <c r="G28">
+        <v>-2577.3200000000002</v>
+      </c>
+      <c r="H28">
+        <v>6681.7030000000004</v>
+      </c>
+      <c r="I28">
+        <v>-738.471</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>1165.1994369639044</v>
+        <v>7199.5189270151941</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12737,18 +12822,18 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="9">
-        <v>-372.29399999999998</v>
-      </c>
-      <c r="H29" s="9">
-        <v>-1005.908</v>
-      </c>
-      <c r="I29" s="9">
-        <v>111.17400000000001</v>
+      <c r="G29">
+        <v>-2199.7260000000001</v>
+      </c>
+      <c r="H29">
+        <v>-5943.4790000000003</v>
+      </c>
+      <c r="I29">
+        <v>656.88099999999997</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1078.3382517447853</v>
+        <v>6371.4385931811348</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,18 +12853,18 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="9">
-        <v>-372.29399999999998</v>
-      </c>
-      <c r="H30" s="9">
-        <v>-1005.908</v>
-      </c>
-      <c r="I30" s="9">
-        <v>111.17400000000001</v>
+      <c r="G30">
+        <v>-2199.7260000000001</v>
+      </c>
+      <c r="H30">
+        <v>-5943.4790000000003</v>
+      </c>
+      <c r="I30">
+        <v>656.88099999999997</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1078.3382517447853</v>
+        <v>6371.4385931811348</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12799,18 +12884,18 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="9">
-        <v>417.12400000000002</v>
-      </c>
-      <c r="H31" s="9">
-        <v>-1081.394</v>
-      </c>
-      <c r="I31" s="9">
-        <v>119.517</v>
+      <c r="G31">
+        <v>-2577.3200000000002</v>
+      </c>
+      <c r="H31">
+        <v>6681.7030000000004</v>
+      </c>
+      <c r="I31">
+        <v>-738.471</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1165.1994369639044</v>
+        <v>7199.5189270151941</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12830,18 +12915,18 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="9">
-        <v>222.91499999999999</v>
-      </c>
-      <c r="H32" s="9">
-        <v>-476.88600000000002</v>
-      </c>
-      <c r="I32" s="9">
-        <v>25.645</v>
+      <c r="G32">
+        <v>868.72500000000002</v>
+      </c>
+      <c r="H32">
+        <v>-2534.04</v>
+      </c>
+      <c r="I32">
+        <v>136.26900000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>527.03796850511628</v>
+        <v>2682.2772204949288</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12861,18 +12946,18 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="9">
-        <v>-262.74</v>
-      </c>
-      <c r="H33" s="9">
-        <v>-562.38400000000001</v>
-      </c>
-      <c r="I33" s="9">
-        <v>30.242000000000001</v>
+      <c r="G33">
+        <v>695.428</v>
+      </c>
+      <c r="H33">
+        <v>2030.0129999999999</v>
+      </c>
+      <c r="I33">
+        <v>-109.16500000000001</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>621.46814047061173</v>
+        <v>2148.601843194313</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12892,18 +12977,18 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1441.24</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1031.605</v>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>534.58799999999997</v>
+      </c>
+      <c r="I34">
+        <v>382.64600000000002</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>1772.3943166307547</v>
+        <v>657.42093901852559</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12923,18 +13008,18 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1441.24</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1031.605</v>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>534.58799999999997</v>
+      </c>
+      <c r="I35">
+        <v>382.64600000000002</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>1772.3943166307547</v>
+        <v>657.42093901852559</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12954,18 +13039,18 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>-118.491</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1160.6210000000001</v>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>-44.561999999999998</v>
+      </c>
+      <c r="I36">
+        <v>436.48099999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1166.6538572867275</v>
+        <v>438.74985493444893</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12985,18 +13070,18 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>-118.491</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1160.6210000000001</v>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>-44.561999999999998</v>
+      </c>
+      <c r="I37">
+        <v>436.48099999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1166.6538572867275</v>
+        <v>438.74985493444893</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13016,18 +13101,18 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="9">
-        <v>-5.0049999999999999</v>
-      </c>
-      <c r="H38" s="9">
-        <v>244.333</v>
-      </c>
-      <c r="I38" s="9">
-        <v>-8.1839999999999993</v>
+      <c r="G38">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="H38">
+        <v>-768.78499999999997</v>
+      </c>
+      <c r="I38">
+        <v>25.75</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>244.52125218475385</v>
+        <v>769.3773055068624</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13047,18 +13132,18 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="9">
-        <v>-5.0049999999999999</v>
-      </c>
-      <c r="H39" s="9">
-        <v>244.333</v>
-      </c>
-      <c r="I39" s="9">
-        <v>-8.1839999999999993</v>
+      <c r="G39">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="H39">
+        <v>-768.78499999999997</v>
+      </c>
+      <c r="I39">
+        <v>25.75</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>244.52125218475385</v>
+        <v>769.3773055068624</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13078,18 +13163,18 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>-181.91800000000001</v>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1246.0909999999999</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>181.91800000000001</v>
+        <v>1246.0909999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13109,18 +13194,18 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1310</v>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>353.91</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>353.91</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13140,18 +13225,18 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>915.18100000000004</v>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>353.91</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>915.18100000000004</v>
+        <v>353.91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13171,18 +13256,18 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="9">
-        <v>-0.83</v>
-      </c>
-      <c r="H43" s="9">
-        <v>-261.80700000000002</v>
-      </c>
-      <c r="I43" s="9">
-        <v>5606.2920000000004</v>
+      <c r="G43">
+        <v>531.92999999999995</v>
+      </c>
+      <c r="H43">
+        <v>64.48</v>
+      </c>
+      <c r="I43">
+        <v>-1380.3440000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>5612.4017660368008</v>
+        <v>1480.694686164572</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13202,18 +13287,18 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="9">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="H44" s="9">
-        <v>197.64500000000001</v>
-      </c>
-      <c r="I44" s="9">
-        <v>-4232.3329999999996</v>
+      <c r="G44">
+        <v>-3729.0740000000001</v>
+      </c>
+      <c r="H44">
+        <v>-440.61399999999998</v>
+      </c>
+      <c r="I44">
+        <v>9432.27</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>4236.9454534788383</v>
+        <v>10152.233791012302</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13233,18 +13318,18 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H45" s="9">
-        <v>-1376.8219999999999</v>
-      </c>
-      <c r="I45" s="9">
-        <v>-64.296000000000006</v>
+      <c r="G45">
+        <v>-1E-3</v>
+      </c>
+      <c r="H45">
+        <v>16.748000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.78200000000000003</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>1378.3224578816814</v>
+        <v>16.766246717736202</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13264,18 +13349,18 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0.33700000000000002</v>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>359.38600000000002</v>
+      </c>
+      <c r="I46">
+        <v>-7698.7969999999996</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>0.33737960815674684</v>
+        <v>7707.18064821404</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,37 +13380,52 @@
       <c r="F47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>1559.73</v>
-      </c>
-      <c r="I47" s="9">
-        <v>-129.01599999999999</v>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>579.15</v>
+      </c>
+      <c r="I47">
+        <v>-53.835999999999999</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>1565.0568044502411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>581.64683218943094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="61"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="J48" s="62"/>
+    </row>
+    <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="61"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="61"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="J50" s="62"/>
+    </row>
+    <row r="51" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14275,7 +14375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -15671,13 +15771,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
@@ -18082,7 +18182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -20465,7 +20565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D9F78-DC16-4548-B9AF-C1F459A1C805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C3AFF9-A210-4937-AA17-40D4C4C051B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
     <definedName name="DonnéesExternes_5" localSheetId="4">'LEFT TURN 2,2 G'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -645,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -956,32 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -998,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1053,6 +1028,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,10 +1086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2750,7 +2724,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="6">
+  <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="BRAKING 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="89"/>
       <tableStyleElement type="firstRowStripe" dxfId="88"/>
@@ -3427,13 +3401,13 @@
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,34 +3432,34 @@
       <c r="A13" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="58" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3493,12 +3467,12 @@
       <c r="A16" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
@@ -3613,14 +3587,14 @@
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -4771,7 +4745,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4807,7 +4781,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -4841,7 +4815,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -4875,7 +4849,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4909,7 +4883,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4943,7 +4917,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -4977,7 +4951,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -5011,7 +4985,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -5042,7 +5016,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -5073,7 +5047,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -5104,7 +5078,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5109,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -5166,7 +5140,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -5197,7 +5171,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -5228,7 +5202,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -5259,7 +5233,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -5290,7 +5264,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -5321,7 +5295,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -5352,7 +5326,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -5383,7 +5357,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -5414,7 +5388,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5447,7 +5421,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -5478,7 +5452,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -5509,7 +5483,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -5540,7 +5514,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -5571,7 +5545,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -5602,7 +5576,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5633,7 +5607,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5664,7 +5638,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -5695,7 +5669,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -5726,7 +5700,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -5757,7 +5731,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -5788,7 +5762,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -5819,7 +5793,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -5850,7 +5824,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -5881,7 +5855,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -5912,7 +5886,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -5943,7 +5917,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -5974,7 +5948,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -6005,7 +5979,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -6036,7 +6010,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -6067,7 +6041,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -7212,7 +7186,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7248,7 +7222,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -7282,7 +7256,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -7316,7 +7290,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -7350,7 +7324,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -7384,7 +7358,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -7418,7 +7392,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7452,7 +7426,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -7483,7 +7457,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -7514,7 +7488,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -7545,7 +7519,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -7576,7 +7550,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -7607,7 +7581,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -7638,7 +7612,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -7669,7 +7643,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -7700,7 +7674,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -7731,7 +7705,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -7762,7 +7736,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -7793,7 +7767,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -7824,7 +7798,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -7855,7 +7829,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -7888,7 +7862,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -7919,7 +7893,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -7950,7 +7924,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -7981,7 +7955,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -8012,7 +7986,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -8043,7 +8017,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -8074,7 +8048,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -8105,7 +8079,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -8136,7 +8110,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -8167,7 +8141,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -8198,7 +8172,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -8229,7 +8203,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -8260,7 +8234,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -8291,7 +8265,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -8322,7 +8296,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -8353,7 +8327,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -8384,7 +8358,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -8415,7 +8389,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -8446,7 +8420,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -8477,7 +8451,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -8508,20 +8482,20 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="43" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="8">
@@ -8533,7 +8507,7 @@
       <c r="I47" s="8">
         <v>-53.835999999999999</v>
       </c>
-      <c r="J47" s="64">
+      <c r="J47" s="44">
         <f t="shared" si="0"/>
         <v>581.64683218943094</v>
       </c>
@@ -9634,7 +9608,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -9667,7 +9641,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -9698,7 +9672,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9729,7 +9703,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -9760,7 +9734,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -9791,7 +9765,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -9822,7 +9796,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -9853,7 +9827,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -9884,7 +9858,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -9915,7 +9889,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -9946,7 +9920,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -9977,7 +9951,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -10008,7 +9982,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -10039,7 +10013,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -10070,7 +10044,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -10101,7 +10075,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -10132,7 +10106,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -10163,7 +10137,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -10194,7 +10168,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -10225,7 +10199,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -10256,7 +10230,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -10289,7 +10263,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -10320,7 +10294,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -10351,7 +10325,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -10382,7 +10356,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -10413,7 +10387,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -10444,7 +10418,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -10475,7 +10449,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -10506,7 +10480,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -10537,7 +10511,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -10568,7 +10542,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -10599,7 +10573,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -10630,7 +10604,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -10661,7 +10635,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -10692,7 +10666,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -10723,7 +10697,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -10754,7 +10728,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -10785,7 +10759,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -10816,7 +10790,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -10847,7 +10821,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -10878,7 +10852,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -10909,7 +10883,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -11014,12 +10988,12 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -12010,8 +11984,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12075,13 +12049,13 @@
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="42" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -12089,7 +12063,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -12107,13 +12081,13 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>396.00299999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>542.91600000000005</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>173.43899999999999</v>
       </c>
       <c r="J6" s="16">
@@ -12122,7 +12096,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -12138,13 +12112,13 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>-396.09699999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>1140.396</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>364.30799999999999</v>
       </c>
       <c r="J7" s="16">
@@ -12153,7 +12127,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -12169,13 +12143,13 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>-68.251000000000005</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>259.45699999999999</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
         <v>0.26300000000000001</v>
       </c>
       <c r="J8" s="16">
@@ -12184,7 +12158,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -12200,13 +12174,13 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>68.183999999999997</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>123.429</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>0.125</v>
       </c>
       <c r="J9" s="16">
@@ -12215,7 +12189,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -12231,13 +12205,13 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>396.00299999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>542.91600000000005</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>173.43899999999999</v>
       </c>
       <c r="J10" s="16">
@@ -12246,7 +12220,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -12262,13 +12236,13 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>-396.09699999999998</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>1140.396</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>364.30799999999999</v>
       </c>
       <c r="J11" s="16">
@@ -12277,7 +12251,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -12293,13 +12267,13 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>-68.251000000000005</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>259.45699999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>0.26300000000000001</v>
       </c>
       <c r="J12" s="16">
@@ -12308,7 +12282,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -12324,13 +12298,13 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>68.183999999999997</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>123.429</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>0.125</v>
       </c>
       <c r="J13" s="16">
@@ -12339,7 +12313,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -12355,13 +12329,13 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>-0.246</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>-1.4E-2</v>
       </c>
       <c r="J14" s="16">
@@ -12370,7 +12344,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -12386,13 +12360,13 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>-0.246</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>-1.4E-2</v>
       </c>
       <c r="J15" s="16">
@@ -12401,7 +12375,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -12417,13 +12391,13 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>0.126</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>-2065.951</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>707.97</v>
       </c>
       <c r="J16" s="16">
@@ -12432,7 +12406,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -12448,13 +12422,13 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>0.126</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>-2065.951</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>707.97</v>
       </c>
       <c r="J17" s="16">
@@ -12463,7 +12437,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -12479,13 +12453,13 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <v>-1496.4380000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>-399.88900000000001</v>
       </c>
       <c r="J18" s="16">
@@ -12494,7 +12468,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -12510,13 +12484,13 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
         <v>-1496.4380000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>-399.88900000000001</v>
       </c>
       <c r="J19" s="16">
@@ -12525,7 +12499,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -12541,13 +12515,13 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>0.126</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>-569.51400000000001</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="9">
         <v>1107.8589999999999</v>
       </c>
       <c r="J20" s="16">
@@ -12556,7 +12530,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -12572,13 +12546,13 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>1246.0899999999999</v>
       </c>
       <c r="J21" s="16">
@@ -12587,7 +12561,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -12603,13 +12577,13 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="9">
         <v>0.10100000000000001</v>
       </c>
       <c r="J22" s="16">
@@ -12618,7 +12592,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -12634,13 +12608,13 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>0.01</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
         <v>1209.3810000000001</v>
       </c>
       <c r="J23" s="16">
@@ -12649,7 +12623,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -12665,13 +12639,13 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>-0.01</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
         <v>36.606999999999999</v>
       </c>
       <c r="J24" s="16">
@@ -12680,7 +12654,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -12696,13 +12670,13 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
@@ -12711,7 +12685,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -12729,13 +12703,13 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="9">
         <v>695.428</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="9">
         <v>2030.0129999999999</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="9">
         <v>-109.16500000000001</v>
       </c>
       <c r="J26" s="16">
@@ -12744,7 +12718,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -12760,13 +12734,13 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>868.72500000000002</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="9">
         <v>-2534.04</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <v>136.26900000000001</v>
       </c>
       <c r="J27" s="16">
@@ -12775,7 +12749,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -12791,13 +12765,13 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>-2577.3200000000002</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="9">
         <v>6681.7030000000004</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="9">
         <v>-738.471</v>
       </c>
       <c r="J28" s="16">
@@ -12806,7 +12780,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -12822,13 +12796,13 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="9">
         <v>-2199.7260000000001</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="9">
         <v>-5943.4790000000003</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="9">
         <v>656.88099999999997</v>
       </c>
       <c r="J29" s="16">
@@ -12837,7 +12811,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -12853,13 +12827,13 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="9">
         <v>-2199.7260000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="9">
         <v>-5943.4790000000003</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="9">
         <v>656.88099999999997</v>
       </c>
       <c r="J30" s="16">
@@ -12868,7 +12842,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -12884,13 +12858,13 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>-2577.3200000000002</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="9">
         <v>6681.7030000000004</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="9">
         <v>-738.471</v>
       </c>
       <c r="J31" s="16">
@@ -12899,7 +12873,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -12915,13 +12889,13 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="9">
         <v>868.72500000000002</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="9">
         <v>-2534.04</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="9">
         <v>136.26900000000001</v>
       </c>
       <c r="J32" s="16">
@@ -12930,7 +12904,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -12946,13 +12920,13 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>695.428</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="9">
         <v>2030.0129999999999</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="9">
         <v>-109.16500000000001</v>
       </c>
       <c r="J33" s="16">
@@ -12961,7 +12935,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -12977,13 +12951,13 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
         <v>534.58799999999997</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="9">
         <v>382.64600000000002</v>
       </c>
       <c r="J34" s="16">
@@ -12992,7 +12966,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -13008,13 +12982,13 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
         <v>534.58799999999997</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>382.64600000000002</v>
       </c>
       <c r="J35" s="16">
@@ -13023,7 +12997,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -13039,13 +13013,13 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
         <v>-44.561999999999998</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="9">
         <v>436.48099999999999</v>
       </c>
       <c r="J36" s="16">
@@ -13054,7 +13028,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -13070,13 +13044,13 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
         <v>-44.561999999999998</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="9">
         <v>436.48099999999999</v>
       </c>
       <c r="J37" s="16">
@@ -13085,7 +13059,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -13101,13 +13075,13 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>15.747999999999999</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="9">
         <v>-768.78499999999997</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="9">
         <v>25.75</v>
       </c>
       <c r="J38" s="16">
@@ -13116,7 +13090,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -13132,13 +13106,13 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>15.747999999999999</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="9">
         <v>-768.78499999999997</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="9">
         <v>25.75</v>
       </c>
       <c r="J39" s="16">
@@ -13147,7 +13121,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -13163,13 +13137,13 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>1246.0909999999999</v>
       </c>
       <c r="J40" s="16">
@@ -13178,7 +13152,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -13194,13 +13168,13 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>353.91</v>
       </c>
       <c r="J41" s="16">
@@ -13209,7 +13183,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -13225,13 +13199,13 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>353.91</v>
       </c>
       <c r="J42" s="16">
@@ -13240,7 +13214,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -13256,13 +13230,13 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>531.92999999999995</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="9">
         <v>64.48</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="9">
         <v>-1380.3440000000001</v>
       </c>
       <c r="J43" s="16">
@@ -13271,7 +13245,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -13287,13 +13261,13 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>-3729.0740000000001</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="9">
         <v>-440.61399999999998</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="9">
         <v>9432.27</v>
       </c>
       <c r="J44" s="16">
@@ -13302,7 +13276,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -13318,13 +13292,13 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>-1E-3</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="9">
         <v>16.748000000000001</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="9">
         <v>0.78200000000000003</v>
       </c>
       <c r="J45" s="16">
@@ -13333,7 +13307,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -13349,13 +13323,13 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
         <v>359.38600000000002</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="9">
         <v>-7698.7969999999996</v>
       </c>
       <c r="J46" s="16">
@@ -13364,53 +13338,62 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="G47" s="43">
+        <v>0</v>
+      </c>
+      <c r="H47" s="43">
         <v>579.15</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="43">
         <v>-53.835999999999999</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="44">
         <f t="shared" si="0"/>
         <v>581.64683218943094</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="61"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="J48" s="62"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="61"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="J49" s="62"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="61"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="J50" s="62"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14453,7 +14436,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -14486,7 +14469,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -14517,7 +14500,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -14548,7 +14531,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -14579,7 +14562,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -14610,7 +14593,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -14641,7 +14624,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -14672,7 +14655,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -14703,7 +14686,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -14734,7 +14717,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -14765,7 +14748,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -14796,7 +14779,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -14827,7 +14810,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -14858,7 +14841,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -14889,7 +14872,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -14920,7 +14903,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -14951,7 +14934,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -14982,7 +14965,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -15013,7 +14996,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -15044,7 +15027,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -15075,7 +15058,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -15108,7 +15091,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -15139,7 +15122,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -15170,7 +15153,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -15201,7 +15184,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -15232,7 +15215,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -15263,7 +15246,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -15294,7 +15277,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -15325,7 +15308,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -15356,7 +15339,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -15387,7 +15370,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -15418,7 +15401,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -15449,7 +15432,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -15480,7 +15463,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -15511,7 +15494,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -15542,7 +15525,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -15573,7 +15556,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -15604,7 +15587,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -15635,7 +15618,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -15666,7 +15649,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -15697,7 +15680,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -15728,7 +15711,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -15855,7 +15838,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -15888,7 +15871,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -15919,7 +15902,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15950,7 +15933,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -15981,7 +15964,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -16012,7 +15995,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -16043,7 +16026,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -16074,7 +16057,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -16105,7 +16088,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -16136,7 +16119,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -16167,7 +16150,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -16198,7 +16181,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -16229,7 +16212,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -16260,7 +16243,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -16291,7 +16274,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -16322,7 +16305,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -16353,7 +16336,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -16384,7 +16367,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -16415,7 +16398,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -16446,7 +16429,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -16477,7 +16460,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -16510,7 +16493,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -16541,7 +16524,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -16572,7 +16555,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -16603,7 +16586,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -16634,7 +16617,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -16665,7 +16648,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -16696,7 +16679,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -16727,7 +16710,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -16758,7 +16741,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -16789,7 +16772,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -16820,7 +16803,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -16851,7 +16834,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -16882,7 +16865,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -16913,7 +16896,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -16944,7 +16927,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -16975,7 +16958,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -17006,7 +16989,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -17037,7 +17020,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -17068,7 +17051,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -17099,7 +17082,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -17130,7 +17113,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -18266,7 +18249,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -18299,7 +18282,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -18330,7 +18313,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -18361,7 +18344,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -18392,7 +18375,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -18423,7 +18406,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -18454,7 +18437,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -18485,7 +18468,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -18516,7 +18499,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -18547,7 +18530,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -18578,7 +18561,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -18609,7 +18592,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -18640,7 +18623,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -18671,7 +18654,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -18702,7 +18685,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -18733,7 +18716,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -18764,7 +18747,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -18795,7 +18778,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -18826,7 +18809,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -18857,7 +18840,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -18888,7 +18871,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -18921,7 +18904,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -18952,7 +18935,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -18983,7 +18966,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -19014,7 +18997,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -19045,7 +19028,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -19076,7 +19059,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -19107,7 +19090,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -19138,7 +19121,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -19169,7 +19152,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -19200,7 +19183,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -19231,7 +19214,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -19262,7 +19245,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -19293,7 +19276,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -19324,7 +19307,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -19355,7 +19338,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -19386,7 +19369,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -19417,7 +19400,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -19448,7 +19431,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -19479,7 +19462,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -19510,7 +19493,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -19541,7 +19524,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -20648,7 +20631,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -20681,7 +20664,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -20712,7 +20695,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -20743,7 +20726,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -20774,7 +20757,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -20805,7 +20788,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -20836,7 +20819,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20867,7 +20850,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -20898,7 +20881,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -20929,7 +20912,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -20960,7 +20943,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -20991,7 +20974,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -21022,7 +21005,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -21053,7 +21036,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -21084,7 +21067,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -21115,7 +21098,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -21146,7 +21129,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -21177,7 +21160,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -21208,7 +21191,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -21239,7 +21222,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -21270,7 +21253,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -21303,7 +21286,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -21334,7 +21317,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -21365,7 +21348,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -21396,7 +21379,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -21427,7 +21410,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -21458,7 +21441,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -21489,7 +21472,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -21520,7 +21503,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -21551,7 +21534,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -21582,7 +21565,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -21613,7 +21596,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -21644,7 +21627,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -21675,7 +21658,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -21706,7 +21689,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -21737,7 +21720,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -21768,7 +21751,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -21799,7 +21782,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -21830,7 +21813,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -21861,7 +21844,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -21892,7 +21875,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -21923,7 +21906,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C3AFF9-A210-4937-AA17-40D4C4C051B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7597E-B1A5-4F8A-9BF9-9706A45AD47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ACCEL 1,5G" sheetId="6" r:id="rId3"/>
     <sheet name="BRAKING 1,9G" sheetId="3" r:id="rId4"/>
     <sheet name="LEFT TURN 2,2 G" sheetId="4" r:id="rId5"/>
-    <sheet name="RIGHT TURN 2G" sheetId="8" r:id="rId6"/>
+    <sheet name="RIGHT TURN 2,2G" sheetId="8" r:id="rId6"/>
     <sheet name="Bump 3G" sheetId="5" r:id="rId7"/>
     <sheet name="Left Turn 1G + Freinage 1" sheetId="2" r:id="rId8"/>
     <sheet name="Right Turn 1G + Freinage 1G" sheetId="7" r:id="rId9"/>
@@ -33,7 +33,6 @@
     <definedName name="DonnéesExternes_5" localSheetId="4">'LEFT TURN 2,2 G'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -646,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -969,11 +968,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1086,6 +1111,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3041,7 +3068,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J47" headerRowDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="35" totalsRowDxfId="34">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="32"/>
@@ -3376,8 +3403,8 @@
   </sheetPr>
   <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11984,8 +12011,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12082,17 +12109,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>396.00299999999999</v>
+        <v>514.05799999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>542.91600000000005</v>
+        <v>822.23199999999997</v>
       </c>
       <c r="I6" s="9">
-        <v>173.43899999999999</v>
+        <v>262.66800000000001</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>694.01530659344974</v>
+        <v>1004.6469864643998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12113,17 +12140,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-396.09699999999998</v>
+        <v>-514.14599999999996</v>
       </c>
       <c r="H7" s="9">
-        <v>1140.396</v>
+        <v>2467.114</v>
       </c>
       <c r="I7" s="9">
-        <v>364.30799999999999</v>
+        <v>788.13800000000003</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>1260.998092420841</v>
+        <v>2640.4846345616179</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12144,17 +12171,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-68.251000000000005</v>
+        <v>388.24299999999999</v>
       </c>
       <c r="H8" s="9">
-        <v>259.45699999999999</v>
+        <v>-2588.2869999999998</v>
       </c>
       <c r="I8" s="9">
-        <v>0.26300000000000001</v>
+        <v>-19.411999999999999</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>268.28381057939367</v>
+        <v>2617.3152364898651</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12175,17 +12202,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>68.183999999999997</v>
+        <v>-388.29500000000002</v>
       </c>
       <c r="H9" s="9">
-        <v>123.429</v>
+        <v>-739.61</v>
       </c>
       <c r="I9" s="9">
-        <v>0.125</v>
+        <v>-5.5469999999999997</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>141.00989866672481</v>
+        <v>835.36023865994491</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12206,17 +12233,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>396.00299999999999</v>
+        <v>514.05799999999999</v>
       </c>
       <c r="H10" s="9">
-        <v>542.91600000000005</v>
+        <v>822.23199999999997</v>
       </c>
       <c r="I10" s="9">
-        <v>173.43899999999999</v>
+        <v>262.66800000000001</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>694.01530659344974</v>
+        <v>1004.6469864643998</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12237,17 +12264,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-396.09699999999998</v>
+        <v>-514.14599999999996</v>
       </c>
       <c r="H11" s="9">
-        <v>1140.396</v>
+        <v>2467.114</v>
       </c>
       <c r="I11" s="9">
-        <v>364.30799999999999</v>
+        <v>788.13800000000003</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>1260.998092420841</v>
+        <v>2640.4846345616179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12268,17 +12295,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-68.251000000000005</v>
+        <v>388.24299999999999</v>
       </c>
       <c r="H12" s="9">
-        <v>259.45699999999999</v>
+        <v>-2588.2869999999998</v>
       </c>
       <c r="I12" s="9">
-        <v>0.26300000000000001</v>
+        <v>-19.411999999999999</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>268.28381057939367</v>
+        <v>2617.3152364898651</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12299,17 +12326,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>68.183999999999997</v>
+        <v>-388.29500000000002</v>
       </c>
       <c r="H13" s="9">
-        <v>123.429</v>
+        <v>-739.61</v>
       </c>
       <c r="I13" s="9">
-        <v>0.125</v>
+        <v>-5.5469999999999997</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>141.00989866672481</v>
+        <v>835.36023865994491</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12330,17 +12357,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>3.5000000000000003E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="9">
-        <v>-0.246</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>-1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0.24887145276226438</v>
+        <v>9.3134311615000409E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12361,17 +12388,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>3.5000000000000003E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H15" s="9">
-        <v>-0.246</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>-1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0.24887145276226438</v>
+        <v>9.3134311615000409E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12392,17 +12419,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.126</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H16" s="9">
-        <v>-2065.951</v>
+        <v>-2335.6489999999999</v>
       </c>
       <c r="I16" s="9">
-        <v>707.97</v>
+        <v>800.39099999999996</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>2183.8898944720177</v>
+        <v>2468.9840066527363</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12423,17 +12450,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.126</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H17" s="9">
-        <v>-2065.951</v>
+        <v>-2335.6489999999999</v>
       </c>
       <c r="I17" s="9">
-        <v>707.97</v>
+        <v>800.39099999999996</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>2183.8898944720177</v>
+        <v>2468.9840066527363</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12457,14 +12484,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-1496.4380000000001</v>
+        <v>-1691.789</v>
       </c>
       <c r="I18" s="9">
-        <v>-399.88900000000001</v>
+        <v>-452.09199999999998</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1548.9473522896124</v>
+        <v>1751.1531049525624</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12488,14 +12515,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-1496.4380000000001</v>
+        <v>-1691.789</v>
       </c>
       <c r="I19" s="9">
-        <v>-399.88900000000001</v>
+        <v>-452.09199999999998</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1548.9473522896124</v>
+        <v>1751.1531049525624</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12516,17 +12543,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.126</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H20" s="9">
-        <v>-569.51400000000001</v>
+        <v>-643.86</v>
       </c>
       <c r="I20" s="9">
-        <v>1107.8589999999999</v>
+        <v>1252.482</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1245.6716164194318</v>
+        <v>1408.2850851120309</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12553,11 +12580,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>1246.0899999999999</v>
+        <v>1826.2370000000001</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1246.0899999999999</v>
+        <v>1826.2370000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12581,14 +12608,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0.10100000000000001</v>
+        <v>-1.9930000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0.10104454463255304</v>
+        <v>1.9930000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12609,17 +12636,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>0.01</v>
+        <v>-0.439</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>1209.3810000000001</v>
+        <v>-10587.276</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>1209.3810000413437</v>
+        <v>10587.276009101537</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12640,17 +12667,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>-0.01</v>
+        <v>0.439</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>36.606999999999999</v>
+        <v>12415.505999999999</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>36.607001365858963</v>
+        <v>12415.506007761302</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12674,14 +12701,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2374.1080000000002</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2374.1080000000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12704,17 +12731,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>695.428</v>
+        <v>-267.23899999999998</v>
       </c>
       <c r="H26" s="9">
-        <v>2030.0129999999999</v>
+        <v>-686.452</v>
       </c>
       <c r="I26" s="9">
-        <v>-109.16500000000001</v>
+        <v>36.914000000000001</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2148.601843194313</v>
+        <v>737.5606245055385</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12735,17 +12762,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>868.72500000000002</v>
+        <v>219.00800000000001</v>
       </c>
       <c r="H27" s="9">
-        <v>-2534.04</v>
+        <v>-562.202</v>
       </c>
       <c r="I27" s="9">
-        <v>136.26900000000001</v>
+        <v>30.233000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>2682.2772204949288</v>
+        <v>604.11060837978994</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12766,17 +12793,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>-2577.3200000000002</v>
+        <v>691.56899999999996</v>
       </c>
       <c r="H28" s="9">
-        <v>6681.7030000000004</v>
+        <v>-1792.8920000000001</v>
       </c>
       <c r="I28" s="9">
-        <v>-738.471</v>
+        <v>198.15299999999999</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>7199.5189270151941</v>
+        <v>1931.8369539984476</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12797,17 +12824,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>-2199.7260000000001</v>
+        <v>-634.91099999999994</v>
       </c>
       <c r="H29" s="9">
-        <v>-5943.4790000000003</v>
+        <v>-1715.4770000000001</v>
       </c>
       <c r="I29" s="9">
-        <v>656.88099999999997</v>
+        <v>189.59700000000001</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>6371.4385931811348</v>
+        <v>1838.9998199725305</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12828,17 +12855,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>-2199.7260000000001</v>
+        <v>-634.91099999999994</v>
       </c>
       <c r="H30" s="9">
-        <v>-5943.4790000000003</v>
+        <v>-1715.4770000000001</v>
       </c>
       <c r="I30" s="9">
-        <v>656.88099999999997</v>
+        <v>189.59700000000001</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>6371.4385931811348</v>
+        <v>1838.9998199725305</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12859,17 +12886,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>-2577.3200000000002</v>
+        <v>691.56899999999996</v>
       </c>
       <c r="H31" s="9">
-        <v>6681.7030000000004</v>
+        <v>-1792.8920000000001</v>
       </c>
       <c r="I31" s="9">
-        <v>-738.471</v>
+        <v>198.15299999999999</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>7199.5189270151941</v>
+        <v>1931.8369539984476</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12890,17 +12917,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>868.72500000000002</v>
+        <v>219.00800000000001</v>
       </c>
       <c r="H32" s="9">
-        <v>-2534.04</v>
+        <v>-562.202</v>
       </c>
       <c r="I32" s="9">
-        <v>136.26900000000001</v>
+        <v>30.233000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>2682.2772204949288</v>
+        <v>604.11060837978994</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,17 +12948,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>695.428</v>
+        <v>-267.23899999999998</v>
       </c>
       <c r="H33" s="9">
-        <v>2030.0129999999999</v>
+        <v>-686.452</v>
       </c>
       <c r="I33" s="9">
-        <v>-109.16500000000001</v>
+        <v>36.914000000000001</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2148.601843194313</v>
+        <v>737.5606245055385</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12955,14 +12982,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>534.58799999999997</v>
+        <v>1971.529</v>
       </c>
       <c r="I34" s="9">
-        <v>382.64600000000002</v>
+        <v>1411.174</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>657.42093901852559</v>
+        <v>2424.5285430608978</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12986,14 +13013,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>534.58799999999997</v>
+        <v>1971.529</v>
       </c>
       <c r="I35" s="9">
-        <v>382.64600000000002</v>
+        <v>1411.174</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>657.42093901852559</v>
+        <v>2424.5285430608978</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13017,14 +13044,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-44.561999999999998</v>
+        <v>-164.34</v>
       </c>
       <c r="I36" s="9">
-        <v>436.48099999999999</v>
+        <v>1609.7180000000001</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>438.74985493444893</v>
+        <v>1618.085187845189</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13048,14 +13075,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-44.561999999999998</v>
+        <v>-164.34</v>
       </c>
       <c r="I37" s="9">
-        <v>436.48099999999999</v>
+        <v>1609.7180000000001</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>438.74985493444893</v>
+        <v>1618.085187845189</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13076,17 +13103,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>15.747999999999999</v>
+        <v>-8.4269999999999996</v>
       </c>
       <c r="H38" s="9">
-        <v>-768.78499999999997</v>
+        <v>411.38499999999999</v>
       </c>
       <c r="I38" s="9">
-        <v>25.75</v>
+        <v>-39.834000000000003</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>769.3773055068624</v>
+        <v>413.39494446594284</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,17 +13134,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>15.747999999999999</v>
+        <v>-8.4269999999999996</v>
       </c>
       <c r="H39" s="9">
-        <v>-768.78499999999997</v>
+        <v>411.38499999999999</v>
       </c>
       <c r="I39" s="9">
-        <v>25.75</v>
+        <v>-39.834000000000003</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>769.3773055068624</v>
+        <v>413.39494446594284</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,11 +13171,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>1246.0909999999999</v>
+        <v>271.95499999999998</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1246.0909999999999</v>
+        <v>271.95499999999998</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13175,11 +13202,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>353.91</v>
+        <v>1826.2370000000001</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>353.91</v>
+        <v>1826.2370000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13206,11 +13233,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>353.91</v>
+        <v>315.572</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>353.91</v>
+        <v>315.572</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13231,17 +13258,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>531.92999999999995</v>
+        <v>-1.679</v>
       </c>
       <c r="H43" s="9">
-        <v>64.48</v>
+        <v>-584.06200000000001</v>
       </c>
       <c r="I43" s="9">
-        <v>-1380.3440000000001</v>
+        <v>12506.994000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>1480.694686164572</v>
+        <v>12520.62419190517</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,17 +13289,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>-3729.0740000000001</v>
+        <v>1.595</v>
       </c>
       <c r="H44" s="9">
-        <v>-440.61399999999998</v>
+        <v>493.839</v>
       </c>
       <c r="I44" s="9">
-        <v>9432.27</v>
+        <v>-10574.959000000001</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>10152.233791012302</v>
+        <v>10586.48371054464</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13293,17 +13320,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>-1E-3</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H45" s="9">
-        <v>16.748000000000001</v>
+        <v>-2283.884</v>
       </c>
       <c r="I45" s="9">
-        <v>0.78200000000000003</v>
+        <v>-106.655</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>16.766246717736202</v>
+        <v>2286.3729839433463</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13327,14 +13354,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>359.38600000000002</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>-7698.7969999999996</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>7707.18064821404</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13354,18 +13381,18 @@
       <c r="F47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="H47" s="43">
-        <v>579.15</v>
-      </c>
-      <c r="I47" s="43">
-        <v>-53.835999999999999</v>
+      <c r="H47" s="9">
+        <v>2135.87</v>
+      </c>
+      <c r="I47" s="9">
+        <v>-198.54400000000001</v>
       </c>
       <c r="J47" s="44">
         <f t="shared" si="0"/>
-        <v>581.64683218943094</v>
+        <v>2145.0781749940957</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14359,10 +14386,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14455,17 +14482,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>41.043999999999997</v>
       </c>
       <c r="H6" s="9">
-        <v>-1E-3</v>
+        <v>65.652000000000001</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>20.972000000000001</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1E-3</v>
+        <v>80.216082078346361</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -14486,17 +14513,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>-41.075000000000003</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>197.09899999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>62.965000000000003</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210.94966852545656</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -14517,17 +14544,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>-93.638000000000005</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>624.25599999999997</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>631.25711853728819</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -14548,17 +14575,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>93.596000000000004</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>178.27699999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201.35711438635585</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -14579,17 +14606,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>41.043999999999997</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>65.652000000000001</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>20.972000000000001</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80.216082078346361</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -14610,17 +14637,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>-41.075000000000003</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>197.09899999999999</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>62.965000000000003</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210.94966852545656</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -14641,17 +14668,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>-93.638000000000005</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>624.25599999999997</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>631.25711853728819</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -14672,17 +14699,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>93.596000000000004</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>178.27699999999999</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201.35711438635585</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -14703,17 +14730,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>-0.65800000000000003</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.65893095237665078</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -14734,17 +14761,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>-0.65800000000000003</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.65893095237665078</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -14765,17 +14792,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>-634.35199999999998</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>217.38300000000001</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>670.56530637515095</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -14796,17 +14823,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>-634.35199999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>0</v>
+        <v>217.38300000000001</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>670.56530637515095</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -14830,14 +14857,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>-459.483</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>-122.786</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>475.60595989222003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -14861,14 +14888,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>-459.483</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>-122.786</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>475.60595989222003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -14889,17 +14916,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>-174.87</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
+        <v>340.16899999999998</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>382.48459705195972</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -14926,11 +14953,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>0</v>
+        <v>307.33800000000002</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>307.33800000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -14957,11 +14984,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -14982,17 +15009,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>0</v>
+        <v>2547.277</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2547.2770769205695</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -15013,17 +15040,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>-0.626</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>0</v>
+        <v>-2240.355</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2240.3550874584589</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -15047,14 +15074,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>430.27300000000002</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>430.27300000000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -15077,17 +15104,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-25.887</v>
+        <v>-153.41499999999999</v>
       </c>
       <c r="H26" s="9">
-        <v>-40.508000000000003</v>
+        <v>-394.07499999999999</v>
       </c>
       <c r="I26" s="9">
-        <v>-9.6229999999999993</v>
+        <v>21.192</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>49.026900391519753</v>
+        <v>423.41512575013189</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -15108,17 +15135,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>16.137</v>
+        <v>142.56100000000001</v>
       </c>
       <c r="H27" s="9">
-        <v>-25.236999999999998</v>
+        <v>-365.959</v>
       </c>
       <c r="I27" s="9">
-        <v>-5.9950000000000001</v>
+        <v>19.68</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>30.549123768121401</v>
+        <v>393.23902502422112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -15139,17 +15166,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>-210.816</v>
+        <v>-145.66900000000001</v>
       </c>
       <c r="H28" s="9">
-        <v>525.20299999999997</v>
+        <v>377.64600000000002</v>
       </c>
       <c r="I28" s="9">
-        <v>27.716999999999999</v>
+        <v>-41.738</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>566.6125741227421</v>
+        <v>406.91279105110476</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -15170,17 +15197,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>229.267</v>
+        <v>154.71</v>
       </c>
       <c r="H29" s="9">
-        <v>595.27499999999998</v>
+        <v>418.01299999999998</v>
       </c>
       <c r="I29" s="9">
-        <v>31.414999999999999</v>
+        <v>-46.198999999999998</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>638.67251791430635</v>
+        <v>448.11203941648341</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -15201,17 +15228,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>229.267</v>
+        <v>154.71</v>
       </c>
       <c r="H30" s="9">
-        <v>595.27499999999998</v>
+        <v>418.01299999999998</v>
       </c>
       <c r="I30" s="9">
-        <v>31.414999999999999</v>
+        <v>-46.198999999999998</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>638.67251791430635</v>
+        <v>448.11203941648341</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -15232,17 +15259,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>-210.816</v>
+        <v>-145.66900000000001</v>
       </c>
       <c r="H31" s="9">
-        <v>525.20299999999997</v>
+        <v>377.64600000000002</v>
       </c>
       <c r="I31" s="9">
-        <v>27.716999999999999</v>
+        <v>-41.738</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>566.6125741227421</v>
+        <v>406.91279105110476</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -15263,17 +15290,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>16.137</v>
+        <v>142.56100000000001</v>
       </c>
       <c r="H32" s="9">
-        <v>-25.236999999999998</v>
+        <v>-365.959</v>
       </c>
       <c r="I32" s="9">
-        <v>-5.9950000000000001</v>
+        <v>19.68</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>30.549123768121401</v>
+        <v>393.23902502422112</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -15294,17 +15321,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-25.887</v>
+        <v>-153.41499999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>-40.508000000000003</v>
+        <v>-394.07499999999999</v>
       </c>
       <c r="I33" s="9">
-        <v>-9.6229999999999993</v>
+        <v>21.192</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>49.026900391519753</v>
+        <v>423.41512575013189</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -15328,14 +15355,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>-417.71600000000001</v>
+        <v>483.15899999999999</v>
       </c>
       <c r="I34" s="9">
-        <v>430.25799999999998</v>
+        <v>345.834</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>599.67374731598852</v>
+        <v>594.17486890392797</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -15359,14 +15386,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>-417.71600000000001</v>
+        <v>483.15899999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>430.25799999999998</v>
+        <v>345.834</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>599.67374731598852</v>
+        <v>594.17486890392797</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -15390,14 +15417,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-538.15</v>
+        <v>-40.274999999999999</v>
       </c>
       <c r="I36" s="9">
-        <v>-74.346999999999994</v>
+        <v>394.49099999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>543.26135414641817</v>
+        <v>396.54158004678396</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -15421,14 +15448,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-538.15</v>
+        <v>-40.274999999999999</v>
       </c>
       <c r="I37" s="9">
-        <v>-74.346999999999994</v>
+        <v>394.49099999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>543.26135414641817</v>
+        <v>396.54158004678396</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -15449,17 +15476,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>-8.6999999999999993</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="H38" s="9">
-        <v>-129.40899999999999</v>
+        <v>-88.512</v>
       </c>
       <c r="I38" s="9">
-        <v>-12.308999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>130.28388527365922</v>
+        <v>88.944398435202203</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -15480,17 +15507,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>-8.6999999999999993</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="H39" s="9">
-        <v>-129.40899999999999</v>
+        <v>-88.512</v>
       </c>
       <c r="I39" s="9">
-        <v>-12.308999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>130.28388527365922</v>
+        <v>88.944398435202203</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -15517,11 +15544,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>1395.192</v>
+        <v>1784.232</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1395.192</v>
+        <v>1784.232</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -15548,11 +15575,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>461.46199999999999</v>
+        <v>307.33800000000002</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>461.46199999999999</v>
+        <v>307.33800000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -15579,11 +15606,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>943.346</v>
+        <v>1841.0920000000001</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>943.346</v>
+        <v>1841.0920000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -15604,17 +15631,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>1.7999999999999999E-2</v>
+        <v>0.307</v>
       </c>
       <c r="H43" s="9">
-        <v>120.468</v>
+        <v>105.88</v>
       </c>
       <c r="I43" s="9">
-        <v>-2579.6729999999998</v>
+        <v>-2267.2979999999998</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>2582.484332242308</v>
+        <v>2269.768906618689</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -15635,17 +15662,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>1E-3</v>
+        <v>-0.29099999999999998</v>
       </c>
       <c r="H44" s="9">
-        <v>-140.863</v>
+        <v>-119.26300000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>3016.415</v>
+        <v>2553.875</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>3019.7022762178062</v>
+        <v>2556.6582218738195</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -15666,17 +15693,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>-0.02</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="H45" s="9">
-        <v>528.00699999999995</v>
+        <v>443.65600000000001</v>
       </c>
       <c r="I45" s="9">
-        <v>24.657</v>
+        <v>20.718</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>528.58240615631541</v>
+        <v>444.13948497741109</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -15700,14 +15727,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>6.3E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>6.3071388124885913E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -15731,15 +15758,33 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>120.435</v>
+        <v>523.43399999999997</v>
       </c>
       <c r="I47" s="9">
-        <v>504.60599999999999</v>
+        <v>-48.656999999999996</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>518.77914805917169</v>
-      </c>
+        <v>525.69064667825319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="64"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="J48" s="65"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="64"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="J49" s="65"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="64"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="J50" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7597E-B1A5-4F8A-9BF9-9706A45AD47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B400E-58AC-4A67-8BF2-1307AA2BB638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20790" yWindow="105" windowWidth="14010" windowHeight="15315" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="164">
   <si>
     <t xml:space="preserve">Pour les Rockers </t>
   </si>
@@ -537,12 +538,6 @@
   <si>
     <t>Y force on each interior wheel = 920</t>
   </si>
-  <si>
-    <t>03   542,9</t>
-  </si>
-  <si>
-    <t>16   173,439</t>
-  </si>
 </sst>
 </file>
 
@@ -998,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1056,6 +1051,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,8 +1109,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,42 +1271,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -2376,6 +2338,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -3019,13 +3017,13 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3034,15 +3032,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="60" totalsRowDxfId="59">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="52">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3051,15 +3049,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="51" totalsRowDxfId="50">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="43">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3068,15 +3066,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="42" totalsRowDxfId="41">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="34">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3085,15 +3083,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="33" totalsRowDxfId="32">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="25">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3102,15 +3100,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="24" totalsRowDxfId="23">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="16">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3119,15 +3117,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="7">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3403,7 +3401,7 @@
   </sheetPr>
   <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3428,13 +3426,13 @@
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,34 +3457,34 @@
       <c r="A13" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="56" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="61" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3494,12 +3492,12 @@
       <c r="A16" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="59"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
@@ -3614,14 +3612,14 @@
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -4772,7 +4770,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4808,7 +4806,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -4842,7 +4840,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -4876,7 +4874,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4910,7 +4908,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4944,7 +4942,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -4978,7 +4976,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -5012,7 +5010,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -5043,7 +5041,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -5074,7 +5072,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -5105,7 +5103,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -5136,7 +5134,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -5167,7 +5165,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -5198,7 +5196,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -5229,7 +5227,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -5260,7 +5258,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -5291,7 +5289,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -5322,7 +5320,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -5353,7 +5351,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -5384,7 +5382,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -5415,7 +5413,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5448,7 +5446,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -5479,7 +5477,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -5510,7 +5508,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -5541,7 +5539,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -5572,7 +5570,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -5603,7 +5601,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5634,7 +5632,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5665,7 +5663,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -5696,7 +5694,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -5727,7 +5725,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5756,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -5789,7 +5787,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -5820,7 +5818,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -5851,7 +5849,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -5882,7 +5880,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -5913,7 +5911,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -5944,7 +5942,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -5975,7 +5973,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -6006,7 +6004,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -6037,7 +6035,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -6068,7 +6066,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -7122,8 +7120,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7187,25 +7185,25 @@
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="45" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="8"/>
@@ -7213,7 +7211,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7231,25 +7229,25 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>396</v>
-      </c>
-      <c r="H6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="16" t="e">
+      <c r="G6" s="9">
+        <v>244.64</v>
+      </c>
+      <c r="H6" s="9">
+        <v>391.29899999999998</v>
+      </c>
+      <c r="I6" s="9">
+        <v>125.004</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>#VALUE!</v>
+        <v>478.11048620271862</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -7265,25 +7263,25 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>-396.09699999999998</v>
-      </c>
-      <c r="H7">
-        <v>1140.396</v>
-      </c>
-      <c r="I7">
-        <v>364.30799999999999</v>
+      <c r="G7" s="9">
+        <v>-244.726</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1174.31</v>
+      </c>
+      <c r="I7" s="9">
+        <v>375.142</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>1260.998092420841</v>
+        <v>1256.8318548397792</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -7299,25 +7297,25 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>-68.251000000000005</v>
-      </c>
-      <c r="H8">
-        <v>259.45699999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.26300000000000001</v>
+      <c r="G8" s="9">
+        <v>-42.201999999999998</v>
+      </c>
+      <c r="H8" s="9">
+        <v>281.34500000000003</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2.11</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>268.28381057939367</v>
+        <v>284.50038651819091</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -7333,25 +7331,25 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
-        <v>68.183999999999997</v>
-      </c>
-      <c r="H9">
-        <v>123.429</v>
-      </c>
-      <c r="I9">
-        <v>0.125</v>
+      <c r="G9" s="9">
+        <v>42.155000000000001</v>
+      </c>
+      <c r="H9" s="9">
+        <v>80.293999999999997</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.60199999999999998</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>141.00989866672481</v>
+        <v>90.689210300895212</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -7367,25 +7365,25 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10">
-        <v>396.00299999999999</v>
-      </c>
-      <c r="H10">
-        <v>542.91600000000005</v>
-      </c>
-      <c r="I10">
-        <v>173.43899999999999</v>
+      <c r="G10" s="9">
+        <v>244.64</v>
+      </c>
+      <c r="H10" s="9">
+        <v>391.29899999999998</v>
+      </c>
+      <c r="I10" s="9">
+        <v>125.004</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>694.01530659344974</v>
+        <v>478.11048620271862</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -7401,25 +7399,25 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11">
-        <v>-396.09699999999998</v>
-      </c>
-      <c r="H11">
-        <v>1140.396</v>
-      </c>
-      <c r="I11">
-        <v>364.30799999999999</v>
+      <c r="G11" s="9">
+        <v>-244.726</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1174.31</v>
+      </c>
+      <c r="I11" s="9">
+        <v>375.142</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>1260.998092420841</v>
+        <v>1256.8318548397792</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7435,25 +7433,25 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>-68.251000000000005</v>
-      </c>
-      <c r="H12">
-        <v>259.45699999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.26300000000000001</v>
+      <c r="G12" s="9">
+        <v>-42.201999999999998</v>
+      </c>
+      <c r="H12" s="9">
+        <v>281.34500000000003</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2.11</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>268.28381057939367</v>
+        <v>284.50038651819091</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -7469,22 +7467,22 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13">
-        <v>68.183999999999997</v>
-      </c>
-      <c r="H13">
-        <v>123.429</v>
-      </c>
-      <c r="I13">
-        <v>0.125</v>
+      <c r="G13" s="9">
+        <v>42.155000000000001</v>
+      </c>
+      <c r="H13" s="9">
+        <v>80.293999999999997</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.60199999999999998</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>141.00989866672481</v>
+        <v>90.689210300895212</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -7500,22 +7498,22 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H14">
-        <v>-0.246</v>
-      </c>
-      <c r="I14">
-        <v>-1.4E-2</v>
+      <c r="G14" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-0.251</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0.24887145276226438</v>
+        <v>0.25133642792082489</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -7531,22 +7529,22 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H15">
-        <v>-0.246</v>
-      </c>
-      <c r="I15">
-        <v>-1.4E-2</v>
+      <c r="G15" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-1926.998</v>
+      </c>
+      <c r="I15" s="9">
+        <v>660.35199999999998</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0.24887145276226438</v>
+        <v>2037.0041899979001</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -7562,22 +7560,22 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
-        <v>0.126</v>
-      </c>
-      <c r="H16">
-        <v>-2065.951</v>
-      </c>
-      <c r="I16">
-        <v>707.97</v>
+      <c r="G16" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-1926.998</v>
+      </c>
+      <c r="I16" s="9">
+        <v>660.35199999999998</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>2183.8898944720177</v>
+        <v>2037.0041899979001</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -7593,22 +7591,22 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
-        <v>0.126</v>
-      </c>
-      <c r="H17">
-        <v>-2065.951</v>
-      </c>
-      <c r="I17">
-        <v>707.97</v>
+      <c r="G17" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-1926.998</v>
+      </c>
+      <c r="I17" s="9">
+        <v>660.35199999999998</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>2183.8898944720177</v>
+        <v>2037.0041899979001</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -7624,22 +7622,22 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>-1496.4380000000001</v>
-      </c>
-      <c r="I18">
-        <v>-399.88900000000001</v>
+      <c r="H18" s="9">
+        <v>-1395.789</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-372.99299999999999</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1548.9473522896124</v>
+        <v>1444.7666630186343</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -7655,22 +7653,22 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>-1496.4380000000001</v>
-      </c>
-      <c r="I19">
-        <v>-399.88900000000001</v>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1163.21</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1548.9473522896124</v>
+        <v>1163.21</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -7686,22 +7684,22 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20">
-        <v>0.126</v>
-      </c>
-      <c r="H20">
-        <v>-569.51400000000001</v>
-      </c>
-      <c r="I20">
-        <v>1107.8589999999999</v>
+      <c r="G20" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-531.20899999999995</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1033.345</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1245.6716164194318</v>
+        <v>1161.8885079330978</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -7717,22 +7715,22 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1246.0899999999999</v>
+      <c r="I21" s="9">
+        <v>1163.21</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1246.0899999999999</v>
+        <v>1163.21</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -7748,22 +7746,22 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I22">
-        <v>0.10100000000000001</v>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.1</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0.10104454463255304</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -7779,22 +7777,22 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23">
-        <v>0.01</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>1209.3810000000001</v>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1141.6949999999999</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>1209.3810000413437</v>
+        <v>1141.6949999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -7810,22 +7808,22 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24">
-        <v>-0.01</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>36.606999999999999</v>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>21.414999999999999</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>36.607001365858963</v>
+        <v>21.414999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -7841,22 +7839,22 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -7874,22 +7872,22 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26">
-        <v>695.428</v>
-      </c>
-      <c r="H26">
-        <v>2030.0129999999999</v>
-      </c>
-      <c r="I26">
-        <v>-109.16500000000001</v>
+      <c r="G26" s="9">
+        <v>-282.577</v>
+      </c>
+      <c r="H26" s="9">
+        <v>-725.851</v>
+      </c>
+      <c r="I26" s="9">
+        <v>39.033000000000001</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2148.601843194313</v>
+        <v>779.89294792234148</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -7905,22 +7903,22 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27">
-        <v>868.72500000000002</v>
-      </c>
-      <c r="H27">
-        <v>-2534.04</v>
-      </c>
-      <c r="I27">
-        <v>136.26900000000001</v>
+      <c r="G27" s="9">
+        <v>-115.099</v>
+      </c>
+      <c r="H27" s="9">
+        <v>295.46300000000002</v>
+      </c>
+      <c r="I27" s="9">
+        <v>-15.888999999999999</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>2682.2772204949288</v>
+        <v>317.48799109730123</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -7936,22 +7934,22 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28">
-        <v>-2577.3200000000002</v>
-      </c>
-      <c r="H28">
-        <v>6681.7030000000004</v>
-      </c>
-      <c r="I28">
-        <v>-738.471</v>
+      <c r="G28" s="9">
+        <v>630.13800000000003</v>
+      </c>
+      <c r="H28" s="9">
+        <v>-1633.633</v>
+      </c>
+      <c r="I28" s="9">
+        <v>180.55099999999999</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>7199.5189270151941</v>
+        <v>1760.2355925653817</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -7967,22 +7965,22 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29">
-        <v>-2199.7260000000001</v>
-      </c>
-      <c r="H29">
-        <v>-5943.4790000000003</v>
-      </c>
-      <c r="I29">
-        <v>656.88099999999997</v>
+      <c r="G29" s="9">
+        <v>569.38099999999997</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1538.421</v>
+      </c>
+      <c r="I29" s="9">
+        <v>-170.02799999999999</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>6371.4385931811348</v>
+        <v>1649.1947784255199</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -7998,22 +7996,22 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30">
-        <v>-2199.7260000000001</v>
-      </c>
-      <c r="H30">
-        <v>-5943.4790000000003</v>
-      </c>
-      <c r="I30">
-        <v>656.88099999999997</v>
+      <c r="G30" s="9">
+        <v>569.38099999999997</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1538.421</v>
+      </c>
+      <c r="I30" s="9">
+        <v>-170.02799999999999</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>6371.4385931811348</v>
+        <v>1649.1947784255199</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -8029,22 +8027,22 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31">
-        <v>-2577.3200000000002</v>
-      </c>
-      <c r="H31">
-        <v>6681.7030000000004</v>
-      </c>
-      <c r="I31">
-        <v>-738.471</v>
+      <c r="G31" s="9">
+        <v>630.13800000000003</v>
+      </c>
+      <c r="H31" s="9">
+        <v>-1633.633</v>
+      </c>
+      <c r="I31" s="9">
+        <v>180.55099999999999</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>7199.5189270151941</v>
+        <v>1760.2355925653817</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -8060,22 +8058,22 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32">
-        <v>868.72500000000002</v>
-      </c>
-      <c r="H32">
-        <v>-2534.04</v>
-      </c>
-      <c r="I32">
-        <v>136.26900000000001</v>
+      <c r="G32" s="9">
+        <v>-115.099</v>
+      </c>
+      <c r="H32" s="9">
+        <v>295.46300000000002</v>
+      </c>
+      <c r="I32" s="9">
+        <v>-15.888999999999999</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>2682.2772204949288</v>
+        <v>317.48799109730123</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -8091,22 +8089,22 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33">
-        <v>695.428</v>
-      </c>
-      <c r="H33">
-        <v>2030.0129999999999</v>
-      </c>
-      <c r="I33">
-        <v>-109.16500000000001</v>
+      <c r="G33" s="9">
+        <v>-282.577</v>
+      </c>
+      <c r="H33" s="9">
+        <v>-725.851</v>
+      </c>
+      <c r="I33" s="9">
+        <v>39.033000000000001</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2148.601843194313</v>
+        <v>779.89294792234148</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -8122,22 +8120,22 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>534.58799999999997</v>
-      </c>
-      <c r="I34">
-        <v>382.64600000000002</v>
+      <c r="H34" s="9">
+        <v>340.28300000000002</v>
+      </c>
+      <c r="I34" s="9">
+        <v>243.56700000000001</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>657.42093901852559</v>
+        <v>418.4703138551169</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -8153,22 +8151,22 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>534.58799999999997</v>
-      </c>
-      <c r="I35">
-        <v>382.64600000000002</v>
+      <c r="H35" s="9">
+        <v>340.28300000000002</v>
+      </c>
+      <c r="I35" s="9">
+        <v>243.56700000000001</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>657.42093901852559</v>
+        <v>418.4703138551169</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -8184,22 +8182,22 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>-44.561999999999998</v>
-      </c>
-      <c r="I36">
-        <v>436.48099999999999</v>
+      <c r="H36" s="9">
+        <v>-28.364999999999998</v>
+      </c>
+      <c r="I36" s="9">
+        <v>277.83499999999998</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>438.74985493444893</v>
+        <v>279.27918012268657</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -8215,22 +8213,22 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>-44.561999999999998</v>
-      </c>
-      <c r="I37">
-        <v>436.48099999999999</v>
+      <c r="H37" s="9">
+        <v>-28.364999999999998</v>
+      </c>
+      <c r="I37" s="9">
+        <v>277.83499999999998</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>438.74985493444893</v>
+        <v>279.27918012268657</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -8246,22 +8244,22 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38">
-        <v>15.747999999999999</v>
-      </c>
-      <c r="H38">
-        <v>-768.78499999999997</v>
-      </c>
-      <c r="I38">
-        <v>25.75</v>
+      <c r="G38" s="9">
+        <v>-3.7959999999999998</v>
+      </c>
+      <c r="H38" s="9">
+        <v>185.31700000000001</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-17.943999999999999</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>769.3773055068624</v>
+        <v>186.22241336906791</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -8277,22 +8275,22 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39">
-        <v>15.747999999999999</v>
-      </c>
-      <c r="H39">
-        <v>-768.78499999999997</v>
-      </c>
-      <c r="I39">
-        <v>25.75</v>
+      <c r="G39" s="9">
+        <v>-3.7959999999999998</v>
+      </c>
+      <c r="H39" s="9">
+        <v>185.31700000000001</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-17.943999999999999</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>769.3773055068624</v>
+        <v>186.22241336906791</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -8308,22 +8306,22 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>1246.0909999999999</v>
+      <c r="I40" s="9">
+        <v>1163.21</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1246.0909999999999</v>
+        <v>1163.21</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -8339,22 +8337,22 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>353.91</v>
+      <c r="I41" s="9">
+        <v>259.29000000000002</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>353.91</v>
+        <v>259.29000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -8370,22 +8368,22 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="9">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>353.91</v>
+      <c r="I42" s="9">
+        <v>259.29000000000002</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>353.91</v>
+        <v>259.29000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -8401,22 +8399,22 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43">
-        <v>531.92999999999995</v>
-      </c>
-      <c r="H43">
-        <v>64.48</v>
-      </c>
-      <c r="I43">
-        <v>-1380.3440000000001</v>
+      <c r="G43" s="9">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="H43" s="9">
+        <v>22.361999999999998</v>
+      </c>
+      <c r="I43" s="9">
+        <v>-478.85199999999998</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>1480.694686164572</v>
+        <v>479.37504007196702</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -8432,22 +8430,22 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44">
-        <v>-3729.0740000000001</v>
-      </c>
-      <c r="H44">
-        <v>-440.61399999999998</v>
-      </c>
-      <c r="I44">
-        <v>9432.27</v>
+      <c r="G44" s="9">
+        <v>796.98099999999999</v>
+      </c>
+      <c r="H44" s="9">
+        <v>55.094999999999999</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-1179.154</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>10152.233791012302</v>
+        <v>1424.2957309147562</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -8463,22 +8461,22 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45">
-        <v>-1E-3</v>
-      </c>
-      <c r="H45">
-        <v>16.748000000000001</v>
-      </c>
-      <c r="I45">
-        <v>0.78200000000000003</v>
+      <c r="G45" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H45" s="9">
+        <v>-77.456999999999994</v>
+      </c>
+      <c r="I45" s="9">
+        <v>-3.617</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>16.766246717736202</v>
+        <v>77.541405371581959</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -8494,26 +8492,26 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>359.38600000000002</v>
-      </c>
-      <c r="I46">
-        <v>-7698.7969999999996</v>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1920.912</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>7707.18064821404</v>
+        <v>1920.912</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="67" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="43" t="s">
@@ -8525,61 +8523,73 @@
       <c r="F47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="43">
         <v>0</v>
       </c>
-      <c r="H47" s="8">
-        <v>579.15</v>
-      </c>
-      <c r="I47" s="8">
-        <v>-53.835999999999999</v>
+      <c r="H47" s="43">
+        <v>368.64800000000002</v>
+      </c>
+      <c r="I47" s="43">
+        <v>-34.268000000000001</v>
       </c>
       <c r="J47" s="44">
         <f t="shared" si="0"/>
-        <v>581.64683218943094</v>
+        <v>370.23728030548199</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+    </row>
+    <row r="49" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+    </row>
+    <row r="50" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+    </row>
+    <row r="51" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+    </row>
+    <row r="52" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9546,8 +9556,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9635,7 +9646,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -9668,7 +9679,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -9699,7 +9710,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9730,7 +9741,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -9761,7 +9772,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -9792,7 +9803,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -9823,7 +9834,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -9854,7 +9865,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -9885,7 +9896,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -9916,7 +9927,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -9947,7 +9958,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -9978,7 +9989,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -10009,7 +10020,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -10040,7 +10051,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -10071,7 +10082,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -10102,7 +10113,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -10133,7 +10144,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -10164,7 +10175,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -10195,7 +10206,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -10226,7 +10237,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -10257,7 +10268,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -10290,7 +10301,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -10321,7 +10332,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -10352,7 +10363,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -10383,7 +10394,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -10414,7 +10425,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -10445,7 +10456,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -10476,7 +10487,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -10507,7 +10518,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -10538,7 +10549,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -10569,7 +10580,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -10600,7 +10611,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -10631,7 +10642,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -10662,7 +10673,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -10693,7 +10704,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -10724,7 +10735,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -10755,7 +10766,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -10786,7 +10797,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -10817,7 +10828,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -10848,7 +10859,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -10879,7 +10890,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -10910,7 +10921,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -11015,12 +11026,12 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -12090,7 +12101,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -12123,7 +12134,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -12154,7 +12165,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -12185,7 +12196,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -12216,7 +12227,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -12247,7 +12258,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -12278,7 +12289,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -12309,7 +12320,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -12340,7 +12351,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -12371,7 +12382,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -12402,7 +12413,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -12433,7 +12444,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -12464,7 +12475,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -12495,7 +12506,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -12526,7 +12537,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -12557,7 +12568,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -12588,7 +12599,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -12619,7 +12630,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -12650,7 +12661,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -12681,7 +12692,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -12712,7 +12723,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -12745,7 +12756,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -12776,7 +12787,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -12807,7 +12818,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -12838,7 +12849,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -12869,7 +12880,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -12900,7 +12911,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -12931,7 +12942,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -12962,7 +12973,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -12993,7 +13004,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -13024,7 +13035,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -13055,7 +13066,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -13086,7 +13097,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -13117,7 +13128,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -13148,7 +13159,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -13179,7 +13190,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -13210,7 +13221,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -13241,7 +13252,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -13272,7 +13283,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -13303,7 +13314,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -13334,7 +13345,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -13365,7 +13376,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -14463,7 +14474,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -14496,7 +14507,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -14527,7 +14538,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -14558,7 +14569,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -14589,7 +14600,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -14620,7 +14631,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -14651,7 +14662,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -14682,7 +14693,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -14713,7 +14724,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -14744,7 +14755,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -14775,7 +14786,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -14806,7 +14817,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -14837,7 +14848,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -14868,7 +14879,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -14899,7 +14910,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -14930,7 +14941,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -14961,7 +14972,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -14992,7 +15003,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -15023,7 +15034,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -15054,7 +15065,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -15085,7 +15096,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -15118,7 +15129,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -15149,7 +15160,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -15180,7 +15191,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -15211,7 +15222,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -15242,7 +15253,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -15273,7 +15284,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -15304,7 +15315,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -15335,7 +15346,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -15366,7 +15377,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -15397,7 +15408,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -15428,7 +15439,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -15459,7 +15470,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -15490,7 +15501,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -15521,7 +15532,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -15552,7 +15563,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -15583,7 +15594,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -15614,7 +15625,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -15645,7 +15656,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -15676,7 +15687,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -15707,7 +15718,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -15738,7 +15749,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -15769,22 +15780,22 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="64"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="J48" s="65"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="64"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="J49" s="65"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D50" s="64"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="J50" s="65"/>
+      <c r="J50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15883,7 +15894,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -15916,7 +15927,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -15947,7 +15958,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15978,7 +15989,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -16009,7 +16020,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -16040,7 +16051,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -16071,7 +16082,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -16102,7 +16113,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -16133,7 +16144,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -16164,7 +16175,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -16195,7 +16206,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -16226,7 +16237,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -16257,7 +16268,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -16288,7 +16299,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -16319,7 +16330,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -16350,7 +16361,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -16381,7 +16392,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -16412,7 +16423,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -16443,7 +16454,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -16474,7 +16485,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -16505,7 +16516,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -16538,7 +16549,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -16569,7 +16580,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -16600,7 +16611,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -16631,7 +16642,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -16662,7 +16673,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -16693,7 +16704,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -16724,7 +16735,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -16755,7 +16766,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -16786,7 +16797,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -16817,7 +16828,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -16848,7 +16859,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -16879,7 +16890,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -16910,7 +16921,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -16941,7 +16952,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -16972,7 +16983,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -17003,7 +17014,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -17034,7 +17045,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -17065,7 +17076,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -17096,7 +17107,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -17127,7 +17138,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -17158,7 +17169,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -18294,7 +18305,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -18327,7 +18338,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -18358,7 +18369,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -18389,7 +18400,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -18420,7 +18431,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -18451,7 +18462,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -18482,7 +18493,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -18513,7 +18524,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -18544,7 +18555,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -18575,7 +18586,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -18606,7 +18617,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -18637,7 +18648,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -18668,7 +18679,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -18699,7 +18710,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -18730,7 +18741,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -18761,7 +18772,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -18792,7 +18803,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -18823,7 +18834,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -18854,7 +18865,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -18885,7 +18896,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -18916,7 +18927,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -18949,7 +18960,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -18980,7 +18991,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -19011,7 +19022,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -19042,7 +19053,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -19073,7 +19084,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -19104,7 +19115,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -19135,7 +19146,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -19166,7 +19177,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -19197,7 +19208,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -19228,7 +19239,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -19259,7 +19270,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -19290,7 +19301,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -19321,7 +19332,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -19352,7 +19363,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -19383,7 +19394,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -19414,7 +19425,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -19445,7 +19456,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -19476,7 +19487,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -19507,7 +19518,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -19538,7 +19549,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -19569,7 +19580,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -20676,7 +20687,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -20709,7 +20720,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -20740,7 +20751,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -20771,7 +20782,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -20802,7 +20813,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -20833,7 +20844,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -20864,7 +20875,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20895,7 +20906,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -20926,7 +20937,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -20957,7 +20968,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -20988,7 +20999,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -21019,7 +21030,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -21050,7 +21061,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -21081,7 +21092,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -21112,7 +21123,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -21143,7 +21154,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -21174,7 +21185,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -21205,7 +21216,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -21236,7 +21247,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -21267,7 +21278,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -21298,7 +21309,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -21331,7 +21342,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -21362,7 +21373,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -21393,7 +21404,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -21424,7 +21435,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -21455,7 +21466,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -21486,7 +21497,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -21517,7 +21528,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -21548,7 +21559,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -21579,7 +21590,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -21610,7 +21621,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -21641,7 +21652,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -21672,7 +21683,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -21703,7 +21714,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -21734,7 +21745,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -21765,7 +21776,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -21796,7 +21807,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -21827,7 +21838,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -21858,7 +21869,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -21889,7 +21900,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -21920,7 +21931,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -21951,7 +21962,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B400E-58AC-4A67-8BF2-1307AA2BB638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B970A-4257-423D-A46D-C4F51BFEA420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20790" yWindow="105" windowWidth="14010" windowHeight="15315" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21720" yWindow="810" windowWidth="12825" windowHeight="14055" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="162">
   <si>
     <t xml:space="preserve">Pour les Rockers </t>
   </si>
@@ -476,19 +476,10 @@
     <t>PO-Z_1</t>
   </si>
   <si>
-    <t>CAS DE CHARGES OPTIMUS STUF 2019</t>
-  </si>
-  <si>
     <t>Normal Force on FR Wheel = Normal Force on FL Wheel</t>
   </si>
   <si>
     <t xml:space="preserve">IMPORTANT: TOUTES LES FORCES SONT POUR LE COTE DROIT DU VÉHICULE </t>
-  </si>
-  <si>
-    <t>FR Wheel</t>
-  </si>
-  <si>
-    <t>RR Wheel</t>
   </si>
   <si>
     <t>MAX SPEED</t>
@@ -537,6 +528,9 @@
   </si>
   <si>
     <t>Y force on each interior wheel = 920</t>
+  </si>
+  <si>
+    <t>CAS DE CHARGES INVICTUS STUF 2020</t>
   </si>
 </sst>
 </file>
@@ -1054,6 +1048,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,8 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,6 +1115,72 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1271,6 +1331,42 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -2076,6 +2172,126 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2152,228 +2368,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2894,106 +2888,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>169516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>254377</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>170545</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10E624F-40D5-407C-BD67-2071133DD121}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="591671" y="3907798"/>
-          <a:ext cx="3039038" cy="2869734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1525903</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>168885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>283085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171676</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101CF925-EDEF-4055-BA65-8C9844247F93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3650538" y="3907167"/>
-          <a:ext cx="3008215" cy="2871496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3017,13 +2911,13 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="54">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3032,15 +2926,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="60" totalsRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="53" totalsRowDxfId="52">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="48">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3049,15 +2943,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="51" totalsRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="47" totalsRowDxfId="46">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="39">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3066,15 +2960,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="42" totalsRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="38" totalsRowDxfId="37">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="30">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3083,15 +2977,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="33" totalsRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="29" totalsRowDxfId="28">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="21">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3100,15 +2994,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="24" totalsRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="20" totalsRowDxfId="19">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="12">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3117,15 +3011,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="11" totalsRowDxfId="10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="3">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3401,8 +3295,8 @@
   </sheetPr>
   <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F50" sqref="A35:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3426,18 +3320,18 @@
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -3455,49 +3349,49 @@
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="58"/>
+        <v>156</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="60"/>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="58"/>
+        <v>146</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="60"/>
       <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>160</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
@@ -3508,18 +3402,18 @@
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" s="39">
         <v>0</v>
@@ -3533,7 +3427,7 @@
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" s="33">
         <v>5400</v>
@@ -3547,7 +3441,7 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B21" s="33">
         <v>-4265</v>
@@ -3561,7 +3455,7 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="33">
         <v>0</v>
@@ -3575,7 +3469,7 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B23" s="33">
         <v>0</v>
@@ -3589,7 +3483,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="33">
         <v>0</v>
@@ -3612,14 +3506,14 @@
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -3681,33 +3575,25 @@
     <row r="46" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B48" s="32"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4770,7 +4656,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4806,7 +4692,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -4840,7 +4726,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -4874,7 +4760,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -4908,7 +4794,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -4942,7 +4828,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -4976,7 +4862,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -5010,7 +4896,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -5041,7 +4927,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -5072,7 +4958,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -5103,7 +4989,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -5134,7 +5020,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -5165,7 +5051,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -5196,7 +5082,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -5227,7 +5113,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -5258,7 +5144,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -5289,7 +5175,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -5320,7 +5206,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -5351,7 +5237,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -5382,7 +5268,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -5413,7 +5299,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5446,7 +5332,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -5477,7 +5363,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -5508,7 +5394,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -5539,7 +5425,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -5570,7 +5456,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -5601,7 +5487,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5632,7 +5518,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5663,7 +5549,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -5694,7 +5580,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -5725,7 +5611,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -5756,7 +5642,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -5787,7 +5673,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -5818,7 +5704,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -5849,7 +5735,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -5880,7 +5766,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -5911,7 +5797,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -5942,7 +5828,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -5973,7 +5859,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -6004,7 +5890,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -6035,7 +5921,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -6066,7 +5952,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -7120,7 +7006,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -7211,7 +7097,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7247,7 +7133,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -7281,7 +7167,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7201,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -7349,7 +7235,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -7383,7 +7269,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -7417,7 +7303,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -7451,7 +7337,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -7482,7 +7368,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -7513,7 +7399,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -7544,7 +7430,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -7575,7 +7461,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -7606,7 +7492,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -7637,7 +7523,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -7668,7 +7554,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -7699,7 +7585,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -7730,7 +7616,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -7761,7 +7647,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -7792,7 +7678,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -7823,7 +7709,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -7854,7 +7740,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -7887,7 +7773,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -7918,7 +7804,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -7949,7 +7835,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -7980,7 +7866,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -8011,7 +7897,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -8042,7 +7928,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -8073,7 +7959,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -8104,7 +7990,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -8135,7 +8021,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -8166,7 +8052,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -8197,7 +8083,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -8228,7 +8114,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -8259,7 +8145,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -8290,7 +8176,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -8321,7 +8207,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -8352,7 +8238,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -8383,7 +8269,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -8414,7 +8300,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -8445,7 +8331,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -8476,7 +8362,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -8507,11 +8393,11 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="43" t="s">
@@ -8538,44 +8424,44 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
     </row>
     <row r="49" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
     </row>
     <row r="50" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
     </row>
     <row r="52" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9570,8 +9456,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9646,7 +9532,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -9664,13 +9550,13 @@
       <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>67.117000000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>92.016999999999996</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>29.395</v>
       </c>
       <c r="J6" s="16">
@@ -9679,7 +9565,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -9695,13 +9581,13 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>-67.132999999999996</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>193.28100000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>61.744999999999997</v>
       </c>
       <c r="J7" s="16">
@@ -9710,7 +9596,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9726,13 +9612,13 @@
       <c r="F8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>-11.568</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>43.973999999999997</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J8" s="16">
@@ -9741,7 +9627,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -9757,13 +9643,13 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>11.555999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>20.919</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J9" s="16">
@@ -9772,7 +9658,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -9788,13 +9674,13 @@
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>67.117000000000004</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>92.016999999999996</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>29.395</v>
       </c>
       <c r="J10" s="16">
@@ -9803,7 +9689,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -9819,13 +9705,13 @@
       <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>-67.132999999999996</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>193.28100000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>61.744999999999997</v>
       </c>
       <c r="J11" s="16">
@@ -9834,7 +9720,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -9850,13 +9736,13 @@
       <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>-11.568</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>43.973999999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J12" s="16">
@@ -9865,7 +9751,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -9881,13 +9767,13 @@
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>11.555999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>20.919</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J13" s="16">
@@ -9896,7 +9782,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -9912,13 +9798,13 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>-2E-3</v>
       </c>
       <c r="J14" s="16">
@@ -9927,7 +9813,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -9943,13 +9829,13 @@
       <c r="F15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>-2E-3</v>
       </c>
       <c r="J15" s="16">
@@ -9958,7 +9844,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -9974,13 +9860,13 @@
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>-350.15</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>119.991</v>
       </c>
       <c r="J16" s="16">
@@ -9989,7 +9875,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -10005,13 +9891,13 @@
       <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>-350.15</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>119.991</v>
       </c>
       <c r="J17" s="16">
@@ -10020,7 +9906,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -10036,13 +9922,13 @@
       <c r="F18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>-253.626</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>-67.775999999999996</v>
       </c>
       <c r="J18" s="16">
@@ -10051,7 +9937,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -10067,13 +9953,13 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>-253.626</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>-67.775999999999996</v>
       </c>
       <c r="J19" s="16">
@@ -10082,7 +9968,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -10098,13 +9984,13 @@
       <c r="F20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>-96.525000000000006</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="9">
         <v>187.767</v>
       </c>
       <c r="J20" s="16">
@@ -10113,7 +9999,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -10129,13 +10015,13 @@
       <c r="F21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="9">
         <v>211.19499999999999</v>
       </c>
       <c r="J21" s="16">
@@ -10144,7 +10030,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -10160,13 +10046,13 @@
       <c r="F22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="J22" s="16">
@@ -10175,7 +10061,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -10191,13 +10077,13 @@
       <c r="F23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>2E-3</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="9">
         <v>204.97300000000001</v>
       </c>
       <c r="J23" s="16">
@@ -10206,7 +10092,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -10222,13 +10108,13 @@
       <c r="F24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>-2E-3</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="9">
         <v>6.2039999999999997</v>
       </c>
       <c r="J24" s="16">
@@ -10237,7 +10123,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -10253,13 +10139,13 @@
       <c r="F25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="9">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
@@ -10268,7 +10154,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -10286,13 +10172,13 @@
       <c r="F26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="9">
         <v>-892.68899999999996</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="9">
         <v>-2605.8359999999998</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="9">
         <v>140.13</v>
       </c>
       <c r="J26" s="16">
@@ -10301,7 +10187,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -10317,13 +10203,13 @@
       <c r="F27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>-147.148</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="9">
         <v>429.22399999999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <v>-23.082000000000001</v>
       </c>
       <c r="J27" s="16">
@@ -10332,7 +10218,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -10348,13 +10234,13 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>1581.058</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="9">
         <v>-4098.893</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="9">
         <v>453.01499999999999</v>
       </c>
       <c r="J28" s="16">
@@ -10363,7 +10249,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -10379,13 +10265,13 @@
       <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="9">
         <v>1493.5419999999999</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="9">
         <v>4035.4270000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="9">
         <v>-446.00099999999998</v>
       </c>
       <c r="J29" s="16">
@@ -10394,7 +10280,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -10410,13 +10296,13 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="9">
         <v>1493.5419999999999</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="9">
         <v>4035.4270000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="9">
         <v>-446.00099999999998</v>
       </c>
       <c r="J30" s="16">
@@ -10425,7 +10311,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -10441,13 +10327,13 @@
       <c r="F31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>1581.058</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="9">
         <v>-4098.893</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="9">
         <v>453.01499999999999</v>
       </c>
       <c r="J31" s="16">
@@ -10456,7 +10342,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -10472,13 +10358,13 @@
       <c r="F32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="9">
         <v>-147.148</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="9">
         <v>429.22399999999999</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="9">
         <v>-23.082000000000001</v>
       </c>
       <c r="J32" s="16">
@@ -10487,7 +10373,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -10503,13 +10389,13 @@
       <c r="F33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>-892.68899999999996</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="9">
         <v>-2605.8359999999998</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="9">
         <v>140.13</v>
       </c>
       <c r="J33" s="16">
@@ -10518,7 +10404,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -10534,13 +10420,13 @@
       <c r="F34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="9">
         <v>1788.0989999999999</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="9">
         <v>1279.8789999999999</v>
       </c>
       <c r="J34" s="16">
@@ -10549,7 +10435,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -10565,13 +10451,13 @@
       <c r="F35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="9">
         <v>1788.0989999999999</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="9">
         <v>1279.8789999999999</v>
       </c>
       <c r="J35" s="16">
@@ -10580,7 +10466,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -10596,13 +10482,13 @@
       <c r="F36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="9">
         <v>-149.05000000000001</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="9">
         <v>1459.951</v>
       </c>
       <c r="J36" s="16">
@@ -10611,7 +10497,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -10627,13 +10513,13 @@
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="9">
         <v>-149.05000000000001</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="9">
         <v>1459.951</v>
       </c>
       <c r="J37" s="16">
@@ -10642,7 +10528,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -10658,13 +10544,13 @@
       <c r="F38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>-9.2579999999999991</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="9">
         <v>451.97800000000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="9">
         <v>-15.138999999999999</v>
       </c>
       <c r="J38" s="16">
@@ -10673,7 +10559,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -10689,13 +10575,13 @@
       <c r="F39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>-9.2579999999999991</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="9">
         <v>451.97800000000001</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="9">
         <v>-15.138999999999999</v>
       </c>
       <c r="J39" s="16">
@@ -10704,7 +10590,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -10720,13 +10606,13 @@
       <c r="F40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="9">
         <v>211.19900000000001</v>
       </c>
       <c r="J40" s="16">
@@ -10735,7 +10621,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -10751,13 +10637,13 @@
       <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="9">
         <v>1388.8030000000001</v>
       </c>
       <c r="J41" s="16">
@@ -10766,7 +10652,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -10782,13 +10668,13 @@
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="9">
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="9">
         <v>1388.8030000000001</v>
       </c>
       <c r="J42" s="16">
@@ -10797,7 +10683,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -10813,13 +10699,13 @@
       <c r="F43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>-336.95100000000002</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="9">
         <v>-13.481</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="9">
         <v>288.40600000000001</v>
       </c>
       <c r="J43" s="16">
@@ -10828,7 +10714,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -10844,13 +10730,13 @@
       <c r="F44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>2362.4580000000001</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="9">
         <v>176.63900000000001</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="9">
         <v>-3780.6489999999999</v>
       </c>
       <c r="J44" s="16">
@@ -10859,7 +10745,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -10875,13 +10761,13 @@
       <c r="F45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>-2E-3</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="9">
         <v>64.552000000000007</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="9">
         <v>3.0139999999999998</v>
       </c>
       <c r="J45" s="16">
@@ -10890,7 +10776,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -10906,13 +10792,13 @@
       <c r="F46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>0</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="9">
         <v>-227.71</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="9">
         <v>4878.0320000000002</v>
       </c>
       <c r="J46" s="16">
@@ -10921,7 +10807,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -10937,13 +10823,13 @@
       <c r="F47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="9">
         <v>1937.15</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="9">
         <v>-180.071</v>
       </c>
       <c r="J47" s="16">
@@ -11026,12 +10912,12 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -12022,8 +11908,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12101,7 +11987,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -12134,7 +12020,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -12165,7 +12051,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -12196,7 +12082,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -12227,7 +12113,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -12258,7 +12144,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -12289,7 +12175,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -12320,7 +12206,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -12351,7 +12237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -12382,7 +12268,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -12413,7 +12299,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -12444,7 +12330,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -12475,7 +12361,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -12506,7 +12392,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -12537,7 +12423,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -12568,7 +12454,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -12599,7 +12485,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -12630,7 +12516,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -12661,7 +12547,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -12692,7 +12578,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -12723,7 +12609,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -12756,7 +12642,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -12787,7 +12673,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -12818,7 +12704,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -12849,7 +12735,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -12880,7 +12766,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -12911,7 +12797,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -12942,7 +12828,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -12973,7 +12859,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -13004,7 +12890,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -13035,7 +12921,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -13066,7 +12952,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -13097,7 +12983,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -13128,7 +13014,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -13159,7 +13045,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -13190,7 +13076,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -13221,7 +13107,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -13252,7 +13138,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -13283,7 +13169,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -13314,7 +13200,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -13345,7 +13231,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -13376,7 +13262,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -14474,7 +14360,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -14507,7 +14393,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -14538,7 +14424,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -14569,7 +14455,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -14600,7 +14486,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -14631,7 +14517,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -14662,7 +14548,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -14693,7 +14579,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -14724,7 +14610,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -14755,7 +14641,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -14786,7 +14672,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -14817,7 +14703,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -14848,7 +14734,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -14879,7 +14765,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -14910,7 +14796,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -14941,7 +14827,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -14972,7 +14858,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -15003,7 +14889,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -15034,7 +14920,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -15065,7 +14951,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -15096,7 +14982,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -15129,7 +15015,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -15160,7 +15046,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -15191,7 +15077,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -15222,7 +15108,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -15253,7 +15139,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -15284,7 +15170,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -15315,7 +15201,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -15346,7 +15232,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -15377,7 +15263,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -15408,7 +15294,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -15439,7 +15325,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -15470,7 +15356,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -15501,7 +15387,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -15532,7 +15418,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -15563,7 +15449,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -15594,7 +15480,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -15625,7 +15511,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -15656,7 +15542,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -15687,7 +15573,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -15718,7 +15604,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -15749,7 +15635,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -15894,7 +15780,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -15927,7 +15813,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -15958,7 +15844,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15989,7 +15875,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -16020,7 +15906,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -16051,7 +15937,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -16082,7 +15968,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -16113,7 +15999,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -16144,7 +16030,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -16175,7 +16061,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -16206,7 +16092,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -16237,7 +16123,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -16268,7 +16154,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -16299,7 +16185,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -16330,7 +16216,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -16361,7 +16247,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -16392,7 +16278,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -16423,7 +16309,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -16454,7 +16340,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -16485,7 +16371,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -16516,7 +16402,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -16549,7 +16435,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -16580,7 +16466,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -16611,7 +16497,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -16642,7 +16528,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -16673,7 +16559,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -16704,7 +16590,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -16735,7 +16621,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -16766,7 +16652,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -16797,7 +16683,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -16828,7 +16714,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -16859,7 +16745,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -16890,7 +16776,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -16921,7 +16807,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -16952,7 +16838,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -16983,7 +16869,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -17014,7 +16900,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -17045,7 +16931,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -17076,7 +16962,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -17107,7 +16993,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -17138,7 +17024,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -17169,7 +17055,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -18305,7 +18191,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -18338,7 +18224,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -18369,7 +18255,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -18400,7 +18286,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -18431,7 +18317,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -18462,7 +18348,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -18493,7 +18379,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -18524,7 +18410,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -18555,7 +18441,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -18586,7 +18472,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -18617,7 +18503,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -18648,7 +18534,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -18679,7 +18565,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -18710,7 +18596,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -18741,7 +18627,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -18772,7 +18658,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -18803,7 +18689,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -18834,7 +18720,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -18865,7 +18751,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -18896,7 +18782,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -18927,7 +18813,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -18960,7 +18846,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -18991,7 +18877,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -19022,7 +18908,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -19053,7 +18939,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -19084,7 +18970,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -19115,7 +19001,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -19146,7 +19032,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -19177,7 +19063,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -19208,7 +19094,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -19239,7 +19125,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -19270,7 +19156,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -19301,7 +19187,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -19332,7 +19218,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -19363,7 +19249,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -19394,7 +19280,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -19425,7 +19311,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -19456,7 +19342,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -19487,7 +19373,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -19518,7 +19404,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -19549,7 +19435,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -19580,7 +19466,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -20687,7 +20573,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -20720,7 +20606,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
@@ -20751,7 +20637,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -20782,7 +20668,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
@@ -20813,7 +20699,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -20844,7 +20730,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
@@ -20875,7 +20761,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
@@ -20906,7 +20792,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -20937,7 +20823,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
@@ -20968,7 +20854,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
@@ -20999,7 +20885,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
@@ -21030,7 +20916,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13" t="s">
         <v>54</v>
       </c>
@@ -21061,7 +20947,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
@@ -21092,7 +20978,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
@@ -21123,7 +21009,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
@@ -21154,7 +21040,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="9" t="s">
         <v>71</v>
       </c>
@@ -21185,7 +21071,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12" t="s">
         <v>75</v>
       </c>
@@ -21216,7 +21102,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
@@ -21247,7 +21133,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
@@ -21278,7 +21164,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
@@ -21309,7 +21195,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -21342,7 +21228,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
@@ -21373,7 +21259,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
@@ -21404,7 +21290,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="11" t="s">
         <v>95</v>
       </c>
@@ -21435,7 +21321,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="9" t="s">
         <v>97</v>
       </c>
@@ -21466,7 +21352,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="9" t="s">
         <v>100</v>
       </c>
@@ -21497,7 +21383,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
@@ -21528,7 +21414,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
@@ -21559,7 +21445,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12" t="s">
         <v>106</v>
       </c>
@@ -21590,7 +21476,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
@@ -21621,7 +21507,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="13" t="s">
         <v>113</v>
       </c>
@@ -21652,7 +21538,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="11" t="s">
         <v>116</v>
       </c>
@@ -21683,7 +21569,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
       </c>
@@ -21714,7 +21600,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
@@ -21745,7 +21631,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="9" t="s">
         <v>136</v>
       </c>
@@ -21776,7 +21662,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="9" t="s">
         <v>123</v>
       </c>
@@ -21807,7 +21693,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>140</v>
       </c>
@@ -21838,7 +21724,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="12" t="s">
         <v>124</v>
       </c>
@@ -21869,7 +21755,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="12" t="s">
         <v>127</v>
       </c>
@@ -21900,7 +21786,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="12" t="s">
         <v>128</v>
       </c>
@@ -21931,7 +21817,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="12" t="s">
         <v>142</v>
       </c>
@@ -21962,7 +21848,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97693C0-C33E-4834-BBF1-48311B44CD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93648634-3012-4684-A98A-1BDBE1B121C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -1291,18 +1291,762 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
         <vertical style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
@@ -1663,762 +2407,18 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top/>
         <bottom/>
         <vertical style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </horizontal>
       </border>
     </dxf>
@@ -3867,15 +3867,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="35" totalsRowDxfId="34">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="27">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3884,15 +3884,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J47" headerRowDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="26" totalsRowDxfId="25">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="18">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3901,15 +3901,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="9">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3918,15 +3918,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3986,15 +3986,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="80" totalsRowDxfId="79">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="72">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4003,15 +4003,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="71" totalsRowDxfId="70">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="63">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4020,15 +4020,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="80" totalsRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="54">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4037,15 +4037,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="53" totalsRowDxfId="52">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="45">
       <calculatedColumnFormula>SQRT(G3*G3+H3*H3+I3*I3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4054,15 +4054,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="44" totalsRowDxfId="43">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="36">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4339,7 +4339,7 @@
   <dimension ref="A1:F1010"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5617,8 +5617,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="C16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5715,17 +5715,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>514.05799999999999</v>
+        <v>538.45699999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>822.23199999999997</v>
+        <v>861.33900000000006</v>
       </c>
       <c r="I6" s="9">
-        <v>262.66800000000001</v>
+        <v>275.154</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1004.6469864643998</v>
+        <v>1052.4022698027595</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,17 +5746,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-514.14599999999996</v>
+        <v>-538.53700000000003</v>
       </c>
       <c r="H7" s="9">
-        <v>2467.114</v>
+        <v>2584.1469999999999</v>
       </c>
       <c r="I7" s="9">
-        <v>788.13800000000003</v>
+        <v>825.52499999999998</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2640.4846345616179</v>
+        <v>2765.7420963645541</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,17 +5777,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>388.24299999999999</v>
+        <v>419.28300000000002</v>
       </c>
       <c r="H8" s="9">
-        <v>-2588.2869999999998</v>
+        <v>-2795.2150000000001</v>
       </c>
       <c r="I8" s="9">
-        <v>-19.411999999999999</v>
+        <v>-20.963999999999999</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2617.3152364898651</v>
+        <v>2826.5641014507351</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,17 +5808,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>-388.29500000000002</v>
+        <v>-419.33699999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>-739.61</v>
+        <v>-931.86099999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>-5.5469999999999997</v>
+        <v>-6.9889999999999999</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>835.36023865994491</v>
+        <v>1021.8890786239963</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,17 +5839,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>514.05799999999999</v>
+        <v>538.45699999999999</v>
       </c>
       <c r="H10" s="9">
-        <v>822.23199999999997</v>
+        <v>861.32899999999995</v>
       </c>
       <c r="I10" s="9">
-        <v>262.66800000000001</v>
+        <v>275.15199999999999</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1004.6469864643998</v>
+        <v>1052.3935624061942</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5870,17 +5870,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-514.14599999999996</v>
+        <v>-538.53700000000003</v>
       </c>
       <c r="H11" s="9">
-        <v>2467.114</v>
+        <v>2584.1469999999999</v>
       </c>
       <c r="I11" s="9">
-        <v>788.13800000000003</v>
+        <v>825.52499999999998</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2640.4846345616179</v>
+        <v>2765.7420963645541</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5901,17 +5901,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>388.24299999999999</v>
+        <v>419.28300000000002</v>
       </c>
       <c r="H12" s="9">
-        <v>-2588.2869999999998</v>
+        <v>-2795.2150000000001</v>
       </c>
       <c r="I12" s="9">
-        <v>-19.411999999999999</v>
+        <v>-20.963999999999999</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2617.3152364898651</v>
+        <v>2826.5641014507351</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,17 +5932,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>-388.29500000000002</v>
+        <v>-419.33699999999999</v>
       </c>
       <c r="H13" s="9">
-        <v>-739.61</v>
+        <v>-931.86099999999999</v>
       </c>
       <c r="I13" s="9">
-        <v>-5.5469999999999997</v>
+        <v>-6.9889999999999999</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>835.36023865994491</v>
+        <v>1021.8890786239963</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5963,17 +5963,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="H14" s="9">
-        <v>9.2999999999999999E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>9.3134311615000409E-2</v>
+        <v>6.6037867924396226E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,17 +5994,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="H15" s="9">
-        <v>9.2999999999999999E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>9.3134311615000409E-2</v>
+        <v>6.6037867924396226E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,17 +6025,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H16" s="9">
-        <v>-2335.6489999999999</v>
+        <v>-2345.3339999999998</v>
       </c>
       <c r="I16" s="9">
-        <v>800.39099999999996</v>
+        <v>803.70899999999995</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>2468.9840066527363</v>
+        <v>2479.2216014251326</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,17 +6056,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H17" s="9">
-        <v>-2335.6489999999999</v>
+        <v>-2345.3339999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>800.39099999999996</v>
+        <v>803.70899999999995</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>2468.9840066527363</v>
+        <v>2479.2216014251326</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6090,14 +6090,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-1691.789</v>
+        <v>-1698.8030000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>-452.09199999999998</v>
+        <v>-453.96600000000001</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1751.1531049525624</v>
+        <v>1758.4131374523454</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,14 +6121,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-1691.789</v>
+        <v>-1698.8030000000001</v>
       </c>
       <c r="I19" s="9">
-        <v>-452.09199999999998</v>
+        <v>-453.96600000000001</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1751.1531049525624</v>
+        <v>1758.4131374523454</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6149,17 +6149,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H20" s="9">
-        <v>-643.86</v>
+        <v>-646.53</v>
       </c>
       <c r="I20" s="9">
-        <v>1252.482</v>
+        <v>1257.6759999999999</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1408.2850851120309</v>
+        <v>1414.1251651151676</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6186,11 +6186,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>1826.2370000000001</v>
+        <v>1876.4269999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1826.2370000000001</v>
+        <v>1876.4269999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,11 +6217,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>-1.9930000000000001</v>
+        <v>-1.45</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.9930000000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6242,17 +6242,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>-0.439</v>
+        <v>-0.315</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>-10587.276</v>
+        <v>-7410.1450000000004</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>10587.276009101537</v>
+        <v>7410.1450066952139</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,17 +6273,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>0.439</v>
+        <v>0.315</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>12415.505999999999</v>
+        <v>9288.0210000000006</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>12415.506007761302</v>
+        <v>9288.0210053415576</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6307,14 +6307,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>-2374.1080000000002</v>
+        <v>-2626.998</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>2374.1080000000002</v>
+        <v>2626.998</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,17 +6337,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-267.23899999999998</v>
+        <v>-219.291</v>
       </c>
       <c r="H26" s="9">
-        <v>-686.452</v>
+        <v>-563.29</v>
       </c>
       <c r="I26" s="9">
-        <v>36.914000000000001</v>
+        <v>30.291</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>737.5606245055385</v>
+        <v>605.22864395367139</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,17 +6368,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>219.00800000000001</v>
+        <v>168.32</v>
       </c>
       <c r="H27" s="9">
-        <v>-562.202</v>
+        <v>-432.084</v>
       </c>
       <c r="I27" s="9">
-        <v>30.233000000000001</v>
+        <v>23.236000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>604.11060837978994</v>
+        <v>464.29313709336691</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,17 +6399,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>691.56899999999996</v>
+        <v>607.81500000000005</v>
       </c>
       <c r="H28" s="9">
-        <v>-1792.8920000000001</v>
+        <v>-1575.76</v>
       </c>
       <c r="I28" s="9">
-        <v>198.15299999999999</v>
+        <v>174.155</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>1931.8369539984476</v>
+        <v>1697.8776798845081</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,17 +6430,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>-634.91099999999994</v>
+        <v>-562.32000000000005</v>
       </c>
       <c r="H29" s="9">
-        <v>-1715.4770000000001</v>
+        <v>-1519.3409999999999</v>
       </c>
       <c r="I29" s="9">
-        <v>189.59700000000001</v>
+        <v>167.92</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1838.9998199725305</v>
+        <v>1628.7412265553419</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6461,17 +6461,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>-634.91099999999994</v>
+        <v>-562.32000000000005</v>
       </c>
       <c r="H30" s="9">
-        <v>-1715.4770000000001</v>
+        <v>-1519.3409999999999</v>
       </c>
       <c r="I30" s="9">
-        <v>189.59700000000001</v>
+        <v>167.92</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1838.9998199725305</v>
+        <v>1628.7412265553419</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6492,17 +6492,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>691.56899999999996</v>
+        <v>607.81500000000005</v>
       </c>
       <c r="H31" s="9">
-        <v>-1792.8920000000001</v>
+        <v>-1575.76</v>
       </c>
       <c r="I31" s="9">
-        <v>198.15299999999999</v>
+        <v>174.155</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1931.8369539984476</v>
+        <v>1697.8776798845081</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6523,17 +6523,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>219.00800000000001</v>
+        <v>168.32</v>
       </c>
       <c r="H32" s="9">
-        <v>-562.202</v>
+        <v>-432.084</v>
       </c>
       <c r="I32" s="9">
-        <v>30.233000000000001</v>
+        <v>23.236000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>604.11060837978994</v>
+        <v>464.29313709336691</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,17 +6554,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-267.23899999999998</v>
+        <v>-219.291</v>
       </c>
       <c r="H33" s="9">
-        <v>-686.452</v>
+        <v>-563.29</v>
       </c>
       <c r="I33" s="9">
-        <v>36.914000000000001</v>
+        <v>30.291</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>737.5606245055385</v>
+        <v>605.22864395367139</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,14 +6588,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>1971.529</v>
+        <v>1995.001</v>
       </c>
       <c r="I34" s="9">
-        <v>1411.174</v>
+        <v>1427.9739999999999</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2424.5285430608978</v>
+        <v>2453.3933102291203</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,14 +6619,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>1971.529</v>
+        <v>1995.001</v>
       </c>
       <c r="I35" s="9">
-        <v>1411.174</v>
+        <v>1427.9739999999999</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2424.5285430608978</v>
+        <v>2453.3933102291203</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6650,14 +6650,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-164.34</v>
+        <v>-166.298</v>
       </c>
       <c r="I36" s="9">
-        <v>1609.7180000000001</v>
+        <v>1628.886</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1618.085187845189</v>
+        <v>1637.3529325713498</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,14 +6681,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-164.34</v>
+        <v>-166.298</v>
       </c>
       <c r="I37" s="9">
-        <v>1609.7180000000001</v>
+        <v>1628.886</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1618.085187845189</v>
+        <v>1637.3529325713498</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,17 +6709,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>-8.4269999999999996</v>
+        <v>5.476</v>
       </c>
       <c r="H38" s="9">
-        <v>411.38499999999999</v>
+        <v>-531.52300000000002</v>
       </c>
       <c r="I38" s="9">
-        <v>-39.834000000000003</v>
+        <v>52.850999999999999</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>413.39494446594284</v>
+        <v>534.17217664906514</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6740,17 +6740,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>-8.4269999999999996</v>
+        <v>5.476</v>
       </c>
       <c r="H39" s="9">
-        <v>411.38499999999999</v>
+        <v>-531.52300000000002</v>
       </c>
       <c r="I39" s="9">
-        <v>-39.834000000000003</v>
+        <v>52.850999999999999</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>413.39494446594284</v>
+        <v>534.17217664906514</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6777,11 +6777,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>271.95499999999998</v>
+        <v>221.98400000000001</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>271.95499999999998</v>
+        <v>221.98400000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,11 +6808,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>1826.2370000000001</v>
+        <v>1876.4269999999999</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1826.2370000000001</v>
+        <v>1876.4269999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6839,11 +6839,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>315.572</v>
+        <v>265.16199999999998</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>315.572</v>
+        <v>265.16199999999998</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,17 +6864,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>-1.679</v>
+        <v>-1.238</v>
       </c>
       <c r="H43" s="9">
-        <v>-584.06200000000001</v>
+        <v>-438.64699999999999</v>
       </c>
       <c r="I43" s="9">
-        <v>12506.994000000001</v>
+        <v>9393.0910000000003</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>12520.62419190517</v>
+        <v>9403.3276693697117</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6895,17 +6895,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>1.595</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="H44" s="9">
-        <v>493.839</v>
+        <v>345.53100000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>-10574.959000000001</v>
+        <v>-7399.1329999999998</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>10586.48371054464</v>
+        <v>7407.1966446413453</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6926,17 +6926,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>8.5000000000000006E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H45" s="9">
-        <v>-2283.884</v>
+        <v>-2533.8820000000001</v>
       </c>
       <c r="I45" s="9">
-        <v>-106.655</v>
+        <v>-118.32899999999999</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>2286.3729839433463</v>
+        <v>2536.6434024121327</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6963,11 +6963,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>0.85599999999999998</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>0.85599999999999998</v>
+        <v>0.79900000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6991,14 +6991,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>2135.87</v>
+        <v>2161.299</v>
       </c>
       <c r="I47" s="9">
-        <v>-198.54400000000001</v>
+        <v>-200.91399999999999</v>
       </c>
       <c r="J47" s="44">
         <f t="shared" si="0"/>
-        <v>2145.0781749940957</v>
+        <v>2170.6173782583146</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7994,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,17 +8088,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>41.043999999999997</v>
+        <v>591.23699999999997</v>
       </c>
       <c r="H6" s="9">
-        <v>65.652000000000001</v>
+        <v>945.678</v>
       </c>
       <c r="I6" s="9">
-        <v>20.972000000000001</v>
+        <v>302.10399999999998</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>80.216082078346361</v>
+        <v>1155.4803748523814</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8119,17 +8119,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-41.075000000000003</v>
+        <v>-591.46600000000001</v>
       </c>
       <c r="H7" s="9">
-        <v>197.09899999999999</v>
+        <v>2838.1260000000002</v>
       </c>
       <c r="I7" s="9">
-        <v>62.965000000000003</v>
+        <v>906.66</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>210.94966852545656</v>
+        <v>3037.5686949651031</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8150,17 +8150,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-93.638000000000005</v>
+        <v>-98.260999999999996</v>
       </c>
       <c r="H8" s="9">
-        <v>624.25599999999997</v>
+        <v>655.07299999999998</v>
       </c>
       <c r="I8" s="9">
-        <v>4.6820000000000004</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>631.25711853728819</v>
+        <v>662.41980421708399</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8181,17 +8181,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>93.596000000000004</v>
+        <v>98.156999999999996</v>
       </c>
       <c r="H9" s="9">
-        <v>178.27699999999999</v>
+        <v>218.12700000000001</v>
       </c>
       <c r="I9" s="9">
-        <v>1.337</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>201.35711438635585</v>
+        <v>239.20046252881704</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8212,17 +8212,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>41.043999999999997</v>
+        <v>591.23699999999997</v>
       </c>
       <c r="H10" s="9">
-        <v>65.652000000000001</v>
+        <v>945.678</v>
       </c>
       <c r="I10" s="9">
-        <v>20.972000000000001</v>
+        <v>302.10399999999998</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>80.216082078346361</v>
+        <v>1155.4803748523814</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8243,17 +8243,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-41.075000000000003</v>
+        <v>-591.46600000000001</v>
       </c>
       <c r="H11" s="9">
-        <v>197.09899999999999</v>
+        <v>2838.1260000000002</v>
       </c>
       <c r="I11" s="9">
-        <v>62.965000000000003</v>
+        <v>906.66</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>210.94966852545656</v>
+        <v>3037.5686949651031</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8274,17 +8274,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-93.638000000000005</v>
+        <v>-98.260999999999996</v>
       </c>
       <c r="H12" s="9">
-        <v>624.25599999999997</v>
+        <v>655.07299999999998</v>
       </c>
       <c r="I12" s="9">
-        <v>4.6820000000000004</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>631.25711853728819</v>
+        <v>662.41980421708399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8305,17 +8305,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>93.596000000000004</v>
+        <v>98.156999999999996</v>
       </c>
       <c r="H13" s="9">
-        <v>178.27699999999999</v>
+        <v>218.12700000000001</v>
       </c>
       <c r="I13" s="9">
-        <v>1.337</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>201.35711438635585</v>
+        <v>239.20046252881704</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8336,17 +8336,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>3.5000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H14" s="9">
-        <v>-0.65800000000000003</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I14" s="9">
-        <v>-1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0.65893095237665078</v>
+        <v>0.29567211569574831</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8367,17 +8367,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>3.5000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>-0.65800000000000003</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I15" s="9">
-        <v>-1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0.65893095237665078</v>
+        <v>0.29567211569574831</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8398,17 +8398,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>3.9E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H16" s="9">
-        <v>-634.35199999999998</v>
+        <v>-4657.2939999999999</v>
       </c>
       <c r="I16" s="9">
-        <v>217.38300000000001</v>
+        <v>1595.982</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>670.56530637515095</v>
+        <v>4923.1642292895331</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8429,17 +8429,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>3.9E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H17" s="9">
-        <v>-634.35199999999998</v>
+        <v>-4657.2939999999999</v>
       </c>
       <c r="I17" s="9">
-        <v>217.38300000000001</v>
+        <v>1595.982</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>670.56530637515095</v>
+        <v>4923.1642292895331</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -8463,14 +8463,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-459.483</v>
+        <v>-3373.4340000000002</v>
       </c>
       <c r="I18" s="9">
-        <v>-122.786</v>
+        <v>-901.47299999999996</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>475.60595989222003</v>
+        <v>3491.8061976697677</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -8494,14 +8494,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-459.483</v>
+        <v>-3373.4340000000002</v>
       </c>
       <c r="I19" s="9">
-        <v>-122.786</v>
+        <v>-901.47299999999996</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>475.60595989222003</v>
+        <v>3491.8061976697677</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8522,17 +8522,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>3.9E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H20" s="9">
-        <v>-174.87</v>
+        <v>-1283.8599999999999</v>
       </c>
       <c r="I20" s="9">
-        <v>340.16899999999998</v>
+        <v>2497.4560000000001</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>382.48459705195972</v>
+        <v>2808.1280336430532</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8559,11 +8559,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>307.33800000000002</v>
+        <v>2811.3209999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>307.33800000000002</v>
+        <v>2811.3209999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -8590,11 +8590,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0.41599999999999998</v>
+        <v>0.159</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0.41599999999999998</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -8615,17 +8615,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>2547.277</v>
+        <v>2288.8910000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>2547.2770769205695</v>
+        <v>2288.8910000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8646,17 +8646,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>-0.626</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>-2240.355</v>
+        <v>522.27099999999996</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>2240.3550874584589</v>
+        <v>522.27099999999996</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8680,14 +8680,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>430.27300000000002</v>
+        <v>0</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>430.27300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,17 +8710,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-153.41499999999999</v>
+        <v>-914.51700000000005</v>
       </c>
       <c r="H26" s="9">
-        <v>-394.07499999999999</v>
+        <v>-2349.105</v>
       </c>
       <c r="I26" s="9">
-        <v>21.192</v>
+        <v>126.324</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>423.41512575013189</v>
+        <v>2524.0034463704683</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8741,17 +8741,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>142.56100000000001</v>
+        <v>826.42499999999995</v>
       </c>
       <c r="H27" s="9">
-        <v>-365.959</v>
+        <v>-2121.4659999999999</v>
       </c>
       <c r="I27" s="9">
-        <v>19.68</v>
+        <v>114.083</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>393.23902502422112</v>
+        <v>2279.6076856928694</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8772,17 +8772,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>-145.66900000000001</v>
+        <v>-69.448999999999998</v>
       </c>
       <c r="H28" s="9">
-        <v>377.64600000000002</v>
+        <v>180.04499999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>-41.738</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>406.91279105110476</v>
+        <v>193.99828820636534</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8803,17 +8803,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>154.71</v>
+        <v>158.292</v>
       </c>
       <c r="H29" s="9">
-        <v>418.01299999999998</v>
+        <v>427.69299999999998</v>
       </c>
       <c r="I29" s="9">
-        <v>-46.198999999999998</v>
+        <v>-47.268999999999998</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>448.11203941648341</v>
+        <v>458.48884160249742</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8834,17 +8834,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>154.71</v>
+        <v>158.292</v>
       </c>
       <c r="H30" s="9">
-        <v>418.01299999999998</v>
+        <v>427.69299999999998</v>
       </c>
       <c r="I30" s="9">
-        <v>-46.198999999999998</v>
+        <v>-47.268999999999998</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>448.11203941648341</v>
+        <v>458.48884160249742</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8865,17 +8865,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>-145.66900000000001</v>
+        <v>-69.448999999999998</v>
       </c>
       <c r="H31" s="9">
-        <v>377.64600000000002</v>
+        <v>180.04499999999999</v>
       </c>
       <c r="I31" s="9">
-        <v>-41.738</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>406.91279105110476</v>
+        <v>193.99828820636534</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8896,17 +8896,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>142.56100000000001</v>
+        <v>826.42499999999995</v>
       </c>
       <c r="H32" s="9">
-        <v>-365.959</v>
+        <v>-2121.4659999999999</v>
       </c>
       <c r="I32" s="9">
-        <v>19.68</v>
+        <v>114.083</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>393.23902502422112</v>
+        <v>2279.6076856928694</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8927,17 +8927,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-153.41499999999999</v>
+        <v>-914.51700000000005</v>
       </c>
       <c r="H33" s="9">
-        <v>-394.07499999999999</v>
+        <v>-2349.105</v>
       </c>
       <c r="I33" s="9">
-        <v>21.192</v>
+        <v>126.324</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>423.41512575013189</v>
+        <v>2524.0034463704683</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -8961,14 +8961,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>483.15899999999999</v>
+        <v>3789.8609999999999</v>
       </c>
       <c r="I34" s="9">
-        <v>345.834</v>
+        <v>2712.692</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>594.17486890392797</v>
+        <v>4660.6592115477615</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -8992,14 +8992,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>483.15899999999999</v>
+        <v>3789.8609999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>345.834</v>
+        <v>2712.692</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>594.17486890392797</v>
+        <v>4660.6592115477615</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9023,14 +9023,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-40.274999999999999</v>
+        <v>-315.911</v>
       </c>
       <c r="I36" s="9">
-        <v>394.49099999999999</v>
+        <v>3094.3519999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>396.54158004678396</v>
+        <v>3110.4363134172991</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9054,14 +9054,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-40.274999999999999</v>
+        <v>-315.911</v>
       </c>
       <c r="I37" s="9">
-        <v>394.49099999999999</v>
+        <v>3094.3519999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>396.54158004678396</v>
+        <v>3110.4363134172991</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9082,17 +9082,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>1.8129999999999999</v>
+        <v>-0.752</v>
       </c>
       <c r="H38" s="9">
-        <v>-88.512</v>
+        <v>72.971000000000004</v>
       </c>
       <c r="I38" s="9">
-        <v>8.57</v>
+        <v>-7.2560000000000002</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>88.944398435202203</v>
+        <v>73.334724933008374</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -9113,17 +9113,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>1.8129999999999999</v>
+        <v>-0.752</v>
       </c>
       <c r="H39" s="9">
-        <v>-88.512</v>
+        <v>72.971000000000004</v>
       </c>
       <c r="I39" s="9">
-        <v>8.57</v>
+        <v>-7.2560000000000002</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>88.944398435202203</v>
+        <v>73.334724933008374</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -9150,11 +9150,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>1784.232</v>
+        <v>2811.3290000000002</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1784.232</v>
+        <v>2811.3290000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -9181,11 +9181,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>307.33800000000002</v>
+        <v>2878.6750000000002</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>307.33800000000002</v>
+        <v>2878.6750000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -9212,11 +9212,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>1841.0920000000001</v>
+        <v>2878.6750000000002</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1841.0920000000001</v>
+        <v>2878.6750000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -9237,17 +9237,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>0.307</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H43" s="9">
-        <v>105.88</v>
+        <v>-23.19</v>
       </c>
       <c r="I43" s="9">
-        <v>-2267.2979999999998</v>
+        <v>496.589</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>2269.768906618689</v>
+        <v>497.13017520766124</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9268,17 +9268,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>-0.29099999999999998</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="H44" s="9">
-        <v>-119.26300000000001</v>
+        <v>-110.90600000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>2553.875</v>
+        <v>2374.922</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>2556.6582218738195</v>
+        <v>2377.5101780930399</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9299,17 +9299,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>-1.6E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H45" s="9">
-        <v>443.65600000000001</v>
+        <v>134.096</v>
       </c>
       <c r="I45" s="9">
-        <v>20.718</v>
+        <v>6.2619999999999996</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>444.13948497741109</v>
+        <v>134.24213155712332</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -9336,11 +9336,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>4.2000000000000003E-2</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -9364,14 +9364,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>523.43399999999997</v>
+        <v>4105.7719999999999</v>
       </c>
       <c r="I47" s="9">
-        <v>-48.656999999999996</v>
+        <v>-381.65899999999999</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>525.69064667825319</v>
+        <v>4123.472724326547</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -9412,7 +9412,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9508,17 +9508,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>1041.0250000000001</v>
+        <v>591.23699999999997</v>
       </c>
       <c r="H6" s="9">
-        <v>1427.2360000000001</v>
+        <v>945.678</v>
       </c>
       <c r="I6" s="9">
-        <v>455.94099999999997</v>
+        <v>302.10399999999998</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1824.4500118671381</v>
+        <v>1155.4803748523814</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9539,17 +9539,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-811.67499999999995</v>
+        <v>-591.46600000000001</v>
       </c>
       <c r="H7" s="9">
-        <v>2336.877</v>
+        <v>2838.1260000000002</v>
       </c>
       <c r="I7" s="9">
-        <v>746.53300000000002</v>
+        <v>906.66</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2584.0127590325478</v>
+        <v>3037.5686949651031</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9570,17 +9570,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-73.331000000000003</v>
+        <v>-98.260999999999996</v>
       </c>
       <c r="H8" s="9">
-        <v>278.76900000000001</v>
+        <v>655.07299999999998</v>
       </c>
       <c r="I8" s="9">
-        <v>0.28199999999999997</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>288.25278913828396</v>
+        <v>662.41980421708399</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9601,17 +9601,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>102.419</v>
+        <v>98.156999999999996</v>
       </c>
       <c r="H9" s="9">
-        <v>185.40199999999999</v>
+        <v>218.12700000000001</v>
       </c>
       <c r="I9" s="9">
-        <v>0.188</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>211.81026535321652</v>
+        <v>239.20046252881704</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9632,17 +9632,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>1041.0250000000001</v>
+        <v>591.23699999999997</v>
       </c>
       <c r="H10" s="9">
-        <v>1427.2360000000001</v>
+        <v>945.678</v>
       </c>
       <c r="I10" s="9">
-        <v>455.94099999999997</v>
+        <v>302.10399999999998</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1824.4500118671381</v>
+        <v>1155.4803748523814</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9663,17 +9663,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-811.67499999999995</v>
+        <v>-591.46600000000001</v>
       </c>
       <c r="H11" s="9">
-        <v>2336.877</v>
+        <v>2838.1260000000002</v>
       </c>
       <c r="I11" s="9">
-        <v>746.53300000000002</v>
+        <v>906.66</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2584.0127590325478</v>
+        <v>3037.5686949651031</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9694,17 +9694,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-73.331000000000003</v>
+        <v>-98.260999999999996</v>
       </c>
       <c r="H12" s="9">
-        <v>278.76900000000001</v>
+        <v>655.07299999999998</v>
       </c>
       <c r="I12" s="9">
-        <v>0.28199999999999997</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>288.25278913828396</v>
+        <v>662.41980421708399</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,17 +9725,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>102.419</v>
+        <v>98.156999999999996</v>
       </c>
       <c r="H13" s="9">
-        <v>185.40199999999999</v>
+        <v>218.12700000000001</v>
       </c>
       <c r="I13" s="9">
-        <v>0.188</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>211.81026535321652</v>
+        <v>239.20046252881704</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9756,17 +9756,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>-56.777000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H14" s="9">
-        <v>397.62400000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I14" s="9">
-        <v>23.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>402.32374476906034</v>
+        <v>0.29567211569574831</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9787,17 +9787,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>-56.777000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>397.62400000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I15" s="9">
-        <v>23.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>402.32374476906034</v>
+        <v>0.29567211569574831</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9818,17 +9818,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>-201.66200000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H16" s="9">
-        <v>-4625.9070000000002</v>
+        <v>-4657.2939999999999</v>
       </c>
       <c r="I16" s="9">
-        <v>1585.2260000000001</v>
+        <v>1595.982</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>4894.1418661466078</v>
+        <v>4923.1642292895331</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9849,17 +9849,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>-201.66200000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H17" s="9">
-        <v>-4625.9070000000002</v>
+        <v>-4657.2939999999999</v>
       </c>
       <c r="I17" s="9">
-        <v>1585.2260000000001</v>
+        <v>1595.982</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>4894.1418661466078</v>
+        <v>4923.1642292895331</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9883,14 +9883,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-3350.6970000000001</v>
+        <v>-3373.4340000000002</v>
       </c>
       <c r="I18" s="9">
-        <v>-895.39700000000005</v>
+        <v>-901.47299999999996</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>3468.2713523336088</v>
+        <v>3491.8061976697677</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9914,14 +9914,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-3350.6970000000001</v>
+        <v>-3373.4340000000002</v>
       </c>
       <c r="I19" s="9">
-        <v>-895.39700000000005</v>
+        <v>-901.47299999999996</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>3468.2713523336088</v>
+        <v>3491.8061976697677</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,17 +9942,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>-201.66200000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H20" s="9">
-        <v>-1275.21</v>
+        <v>-1283.8599999999999</v>
       </c>
       <c r="I20" s="9">
-        <v>2480.6239999999998</v>
+        <v>2497.4560000000001</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>2796.4841382922232</v>
+        <v>2808.1280336430532</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10007,14 +10007,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>0.23300000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0.23307724041613331</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10035,17 +10035,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>2728.5</v>
+        <v>2288.8910000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>2728.5000000886935</v>
+        <v>2288.8910000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10066,17 +10066,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>82.587000000000003</v>
+        <v>522.27099999999996</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>82.587002930243216</v>
+        <v>522.27099999999996</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10100,14 +10100,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10130,17 +10130,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-1084.4110000000001</v>
+        <v>-914.51700000000005</v>
       </c>
       <c r="H26" s="9">
-        <v>-2321.134</v>
+        <v>-2349.105</v>
       </c>
       <c r="I26" s="9">
-        <v>124.82</v>
+        <v>126.324</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2564.9932349378623</v>
+        <v>2524.0034463704683</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10161,17 +10161,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>997.15800000000002</v>
+        <v>826.42499999999995</v>
       </c>
       <c r="H27" s="9">
-        <v>-2133.2350000000001</v>
+        <v>-2121.4659999999999</v>
       </c>
       <c r="I27" s="9">
-        <v>114.71599999999999</v>
+        <v>114.083</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>2357.5782919862918</v>
+        <v>2279.6076856928694</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10192,17 +10192,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>-92.382999999999996</v>
+        <v>-69.448999999999998</v>
       </c>
       <c r="H28" s="9">
-        <v>239.50399999999999</v>
+        <v>180.04499999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>-26.47</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>258.06480892403755</v>
+        <v>193.99828820636534</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10223,17 +10223,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>178.35400000000001</v>
+        <v>158.292</v>
       </c>
       <c r="H29" s="9">
-        <v>481.89800000000002</v>
+        <v>427.69299999999998</v>
       </c>
       <c r="I29" s="9">
-        <v>-53.26</v>
+        <v>-47.268999999999998</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>516.59699894598691</v>
+        <v>458.48884160249742</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10254,17 +10254,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>178.35400000000001</v>
+        <v>158.292</v>
       </c>
       <c r="H30" s="9">
-        <v>481.89800000000002</v>
+        <v>427.69299999999998</v>
       </c>
       <c r="I30" s="9">
-        <v>-53.26</v>
+        <v>-47.268999999999998</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>516.59699894598691</v>
+        <v>458.48884160249742</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10285,17 +10285,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>-92.382999999999996</v>
+        <v>-69.448999999999998</v>
       </c>
       <c r="H31" s="9">
-        <v>239.50399999999999</v>
+        <v>180.04499999999999</v>
       </c>
       <c r="I31" s="9">
-        <v>-26.47</v>
+        <v>-19.899000000000001</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>258.06480892403755</v>
+        <v>193.99828820636534</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10316,17 +10316,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>997.15800000000002</v>
+        <v>826.42499999999995</v>
       </c>
       <c r="H32" s="9">
-        <v>-2133.2350000000001</v>
+        <v>-2121.4659999999999</v>
       </c>
       <c r="I32" s="9">
-        <v>114.71599999999999</v>
+        <v>114.083</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>2357.5782919862918</v>
+        <v>2279.6076856928694</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10347,17 +10347,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-1084.4110000000001</v>
+        <v>-914.51700000000005</v>
       </c>
       <c r="H33" s="9">
-        <v>-2321.134</v>
+        <v>-2349.105</v>
       </c>
       <c r="I33" s="9">
-        <v>124.82</v>
+        <v>126.324</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2564.9932349378623</v>
+        <v>2524.0034463704683</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10381,14 +10381,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>3795.5630000000001</v>
+        <v>3789.8609999999999</v>
       </c>
       <c r="I34" s="9">
-        <v>2716.7739999999999</v>
+        <v>2712.692</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>4667.6717380343916</v>
+        <v>4660.6592115477615</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10412,14 +10412,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>3795.5630000000001</v>
+        <v>3789.8609999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>2716.7739999999999</v>
+        <v>2712.692</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>4667.6717380343916</v>
+        <v>4660.6592115477615</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10443,14 +10443,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-312.05099999999999</v>
+        <v>-315.911</v>
       </c>
       <c r="I36" s="9">
-        <v>3056.5430000000001</v>
+        <v>3094.3519999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>3072.4307864376701</v>
+        <v>3110.4363134172991</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10474,14 +10474,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-312.05099999999999</v>
+        <v>-315.911</v>
       </c>
       <c r="I37" s="9">
-        <v>3056.5430000000001</v>
+        <v>3094.3519999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>3072.4307864376701</v>
+        <v>3110.4363134172991</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10502,17 +10502,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>1.282</v>
+        <v>-0.752</v>
       </c>
       <c r="H38" s="9">
-        <v>-62.594999999999999</v>
+        <v>72.971000000000004</v>
       </c>
       <c r="I38" s="9">
-        <v>2.097</v>
+        <v>-7.2560000000000002</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>62.643235532657478</v>
+        <v>73.334724933008374</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10533,17 +10533,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>1.282</v>
+        <v>-0.752</v>
       </c>
       <c r="H39" s="9">
-        <v>-62.594999999999999</v>
+        <v>72.971000000000004</v>
       </c>
       <c r="I39" s="9">
-        <v>2.097</v>
+        <v>-7.2560000000000002</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>62.643235532657478</v>
+        <v>73.334724933008374</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10601,11 +10601,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>2878.6759999999999</v>
+        <v>2878.6750000000002</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>2878.6759999999999</v>
+        <v>2878.6750000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10632,11 +10632,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>2878.6759999999999</v>
+        <v>2878.6750000000002</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>2878.6759999999999</v>
+        <v>2878.6750000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10657,17 +10657,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>8.1000000000000003E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H43" s="9">
-        <v>48.845999999999997</v>
+        <v>-23.19</v>
       </c>
       <c r="I43" s="9">
-        <v>-1045.971</v>
+        <v>496.589</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>1047.1109163398116</v>
+        <v>497.13017520766124</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10688,17 +10688,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>-7.5999999999999998E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="H44" s="9">
-        <v>-182.93600000000001</v>
+        <v>-110.90600000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>3917.3620000000001</v>
+        <v>2374.922</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>3921.6311179043855</v>
+        <v>2377.5101780930399</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10722,14 +10722,14 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H45" s="9">
-        <v>134.13800000000001</v>
+        <v>134.096</v>
       </c>
       <c r="I45" s="9">
-        <v>6.2640000000000002</v>
+        <v>6.2619999999999996</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>134.28417913142263</v>
+        <v>134.24213155712332</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10753,14 +10753,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>-4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>1.02</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>1.0211287871762309</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10784,17 +10784,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>4107.6130000000003</v>
+        <v>4105.7719999999999</v>
       </c>
       <c r="I47" s="9">
-        <v>-339.77</v>
+        <v>-381.65899999999999</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>4121.641446155767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>4123.472724326547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="46"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="47"/>
+    </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11822,8 +11830,8 @@
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11919,17 +11927,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>298.05399999999997</v>
+        <v>417.09899999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>476.73500000000001</v>
+        <v>667.14700000000005</v>
       </c>
       <c r="I6" s="9">
-        <v>152.297</v>
+        <v>213.125</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>582.50049214571482</v>
+        <v>815.15578942616855</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11950,17 +11958,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-298.10199999999998</v>
+        <v>-417.161</v>
       </c>
       <c r="H7" s="9">
-        <v>1430.432</v>
+        <v>2001.732</v>
       </c>
       <c r="I7" s="9">
-        <v>456.96199999999999</v>
+        <v>639.46799999999996</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>1530.9522456536652</v>
+        <v>2142.3990344398962</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11981,17 +11989,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>232.09800000000001</v>
+        <v>324.779</v>
       </c>
       <c r="H8" s="9">
-        <v>-1547.32</v>
+        <v>-2165.19</v>
       </c>
       <c r="I8" s="9">
-        <v>-11.605</v>
+        <v>-16.239000000000001</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>1564.6735570172457</v>
+        <v>2189.4731877924428</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12012,17 +12020,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>-232.126</v>
+        <v>-324.82100000000003</v>
       </c>
       <c r="H9" s="9">
-        <v>-515.83600000000001</v>
+        <v>-721.82399999999996</v>
       </c>
       <c r="I9" s="9">
-        <v>-3.8690000000000002</v>
+        <v>-5.4139999999999997</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>565.67148410804657</v>
+        <v>791.56040856841742</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12043,17 +12051,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>298.05399999999997</v>
+        <v>417.09899999999999</v>
       </c>
       <c r="H10" s="9">
-        <v>476.73500000000001</v>
+        <v>667.14700000000005</v>
       </c>
       <c r="I10" s="9">
-        <v>152.29599999999999</v>
+        <v>213.125</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>582.50023069265819</v>
+        <v>815.15578942616855</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12074,17 +12082,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-298.10199999999998</v>
+        <v>-417.161</v>
       </c>
       <c r="H11" s="9">
-        <v>1430.432</v>
+        <v>2001.732</v>
       </c>
       <c r="I11" s="9">
-        <v>456.96199999999999</v>
+        <v>639.46799999999996</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>1530.9522456536652</v>
+        <v>2142.3990344398962</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12105,17 +12113,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>232.09800000000001</v>
+        <v>324.779</v>
       </c>
       <c r="H12" s="9">
-        <v>-1547.32</v>
+        <v>-2165.19</v>
       </c>
       <c r="I12" s="9">
-        <v>-11.605</v>
+        <v>-16.239000000000001</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>1564.6735570172457</v>
+        <v>2189.4731877924428</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12136,17 +12144,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>-232.126</v>
+        <v>-324.82100000000003</v>
       </c>
       <c r="H13" s="9">
-        <v>-515.83600000000001</v>
+        <v>-721.82399999999996</v>
       </c>
       <c r="I13" s="9">
-        <v>-3.8690000000000002</v>
+        <v>-5.4139999999999997</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>565.67148410804657</v>
+        <v>791.56040856841742</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12167,17 +12175,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="I14" s="9">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>7.4108029254595614E-2</v>
+        <v>5.1778373863998466E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12198,17 +12206,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="I15" s="9">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="H15" s="9">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>7.4108029254595614E-2</v>
+        <v>5.1778373863998466E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12229,17 +12237,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.08</v>
+        <v>0.112</v>
       </c>
       <c r="H16" s="9">
-        <v>-1298.211</v>
+        <v>-1816.702</v>
       </c>
       <c r="I16" s="9">
-        <v>444.87700000000001</v>
+        <v>622.55499999999995</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1372.321883542633</v>
+        <v>1920.4116478955755</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12260,17 +12268,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.08</v>
+        <v>0.112</v>
       </c>
       <c r="H17" s="9">
-        <v>-1298.211</v>
+        <v>-1816.702</v>
       </c>
       <c r="I17" s="9">
-        <v>444.87700000000001</v>
+        <v>622.55499999999995</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1372.321883542633</v>
+        <v>1920.4116478955755</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12294,14 +12302,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-940.33699999999999</v>
+        <v>-1315.8979999999999</v>
       </c>
       <c r="I18" s="9">
-        <v>-251.28399999999999</v>
+        <v>-351.64400000000001</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>973.33309931646727</v>
+        <v>1362.0723362362221</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12325,14 +12333,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-940.33699999999999</v>
+        <v>-1315.8979999999999</v>
       </c>
       <c r="I19" s="9">
-        <v>-251.28399999999999</v>
+        <v>-351.64400000000001</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>973.33309931646727</v>
+        <v>1362.0723362362221</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12353,17 +12361,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.08</v>
+        <v>0.112</v>
       </c>
       <c r="H20" s="9">
-        <v>-357.87400000000002</v>
+        <v>-500.803</v>
       </c>
       <c r="I20" s="9">
-        <v>696.16</v>
+        <v>974.19899999999996</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>782.7595747584312</v>
+        <v>1095.3845666951856</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12390,11 +12398,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>1038.6610000000001</v>
+        <v>1453.492</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1038.6610000000001</v>
+        <v>1453.492</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12421,11 +12429,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>-0.80300000000000005</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>0.80300000000000005</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12446,17 +12454,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>-0.17499999999999999</v>
+        <v>-0.245</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>-4101.7479999999996</v>
+        <v>-5739.9459999999999</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>4101.7480037331643</v>
+        <v>5739.9460052287077</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12477,17 +12485,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>0.17499999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>5141.2110000000002</v>
+        <v>7194.558</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>5141.2110029783844</v>
+        <v>7194.5580041715557</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12511,14 +12519,14 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>-1454.126</v>
+        <v>-2034.8879999999999</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" si="0"/>
-        <v>1454.126</v>
+        <v>2034.8879999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12541,17 +12549,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-565.31200000000001</v>
+        <v>-418.96800000000002</v>
       </c>
       <c r="H26" s="9">
-        <v>-1452.1079999999999</v>
+        <v>-1076.1959999999999</v>
       </c>
       <c r="I26" s="9">
-        <v>78.087999999999994</v>
+        <v>57.872999999999998</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>1560.2221113520984</v>
+        <v>1156.3223164710607</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12572,17 +12580,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>-76.061000000000007</v>
+        <v>42.642000000000003</v>
       </c>
       <c r="H27" s="9">
-        <v>195.25200000000001</v>
+        <v>-109.464</v>
       </c>
       <c r="I27" s="9">
-        <v>-10.5</v>
+        <v>5.8860000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>209.80674256324556</v>
+        <v>117.6237750456939</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12603,17 +12611,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>1771.9780000000001</v>
+        <v>1201.838</v>
       </c>
       <c r="H28" s="9">
-        <v>-4593.8540000000003</v>
+        <v>-3115.7649999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>507.71899999999999</v>
+        <v>344.35899999999998</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>4949.8665829253423</v>
+        <v>3357.2293985293886</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12634,17 +12642,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>93.709000000000003</v>
+        <v>-192.364</v>
       </c>
       <c r="H29" s="9">
-        <v>253.19399999999999</v>
+        <v>-519.75199999999995</v>
       </c>
       <c r="I29" s="9">
-        <v>-27.983000000000001</v>
+        <v>57.444000000000003</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>271.42517680937408</v>
+        <v>557.176689332926</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12665,17 +12673,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>93.709000000000003</v>
+        <v>-192.364</v>
       </c>
       <c r="H30" s="9">
-        <v>253.19399999999999</v>
+        <v>-519.75199999999995</v>
       </c>
       <c r="I30" s="9">
-        <v>-27.983000000000001</v>
+        <v>57.444000000000003</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>271.42517680937408</v>
+        <v>557.176689332926</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12696,17 +12704,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>1771.9780000000001</v>
+        <v>1201.838</v>
       </c>
       <c r="H31" s="9">
-        <v>-4593.8540000000003</v>
+        <v>-3115.7649999999999</v>
       </c>
       <c r="I31" s="9">
-        <v>507.71899999999999</v>
+        <v>344.35899999999998</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>4949.8665829253423</v>
+        <v>3357.2293985293886</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12727,17 +12735,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>-76.061000000000007</v>
+        <v>42.642000000000003</v>
       </c>
       <c r="H32" s="9">
-        <v>195.25200000000001</v>
+        <v>-109.464</v>
       </c>
       <c r="I32" s="9">
-        <v>-10.5</v>
+        <v>5.8860000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>209.80674256324556</v>
+        <v>117.6237750456939</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12758,17 +12766,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-565.31200000000001</v>
+        <v>-418.96800000000002</v>
       </c>
       <c r="H33" s="9">
-        <v>-1452.1079999999999</v>
+        <v>-1076.1959999999999</v>
       </c>
       <c r="I33" s="9">
-        <v>78.087999999999994</v>
+        <v>57.872999999999998</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>1560.2221113520984</v>
+        <v>1156.3223164710607</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12792,14 +12800,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>2081.2379999999998</v>
+        <v>2438.3679999999999</v>
       </c>
       <c r="I34" s="9">
-        <v>1489.701</v>
+        <v>1745.326</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2559.4453856343566</v>
+        <v>2998.6332469476824</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12823,14 +12831,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>2081.2379999999998</v>
+        <v>2438.3679999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>1489.701</v>
+        <v>1745.326</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2559.4453856343566</v>
+        <v>2998.6332469476824</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12854,14 +12862,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-173.48500000000001</v>
+        <v>-203.255</v>
       </c>
       <c r="I36" s="9">
-        <v>1699.2929999999999</v>
+        <v>1990.883</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1708.1257989603691</v>
+        <v>2001.2315494999575</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12885,14 +12893,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-173.48500000000001</v>
+        <v>-203.255</v>
       </c>
       <c r="I37" s="9">
-        <v>1699.2929999999999</v>
+        <v>1990.883</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1708.1257989603691</v>
+        <v>2001.2315494999575</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12913,17 +12921,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>-15.744999999999999</v>
+        <v>8.5259999999999998</v>
       </c>
       <c r="H38" s="9">
-        <v>768.63900000000001</v>
+        <v>-827.64800000000002</v>
       </c>
       <c r="I38" s="9">
-        <v>-74.426000000000002</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>772.39435965185555</v>
+        <v>831.77312783955699</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12944,17 +12952,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>-15.744999999999999</v>
+        <v>8.5259999999999998</v>
       </c>
       <c r="H39" s="9">
-        <v>768.63900000000001</v>
+        <v>-827.64800000000002</v>
       </c>
       <c r="I39" s="9">
-        <v>-74.426000000000002</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>772.39435965185555</v>
+        <v>831.77312783955699</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13012,11 +13020,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>1962.598</v>
+        <v>2293.1840000000002</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1962.598</v>
+        <v>2293.1840000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13043,11 +13051,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>398.74</v>
+        <v>493.32499999999999</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>398.74</v>
+        <v>493.32499999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13068,17 +13076,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>209.94</v>
+        <v>110.639</v>
       </c>
       <c r="H43" s="9">
-        <v>-413.18599999999998</v>
+        <v>-511.85700000000003</v>
       </c>
       <c r="I43" s="9">
-        <v>8848.0480000000007</v>
+        <v>10960.897000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>8860.1778133680818</v>
+        <v>10973.39972940834</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13099,17 +13107,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>998.52599999999995</v>
+        <v>530.91700000000003</v>
       </c>
       <c r="H44" s="9">
-        <v>451.38600000000002</v>
+        <v>470.05200000000002</v>
       </c>
       <c r="I44" s="9">
-        <v>-9665.1049999999996</v>
+        <v>-10065.168</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>9727.0272002650945</v>
+        <v>10090.115391402469</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,17 +13138,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>0.10299999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="H45" s="9">
-        <v>-2785.8380000000002</v>
+        <v>-3168.6509999999998</v>
       </c>
       <c r="I45" s="9">
-        <v>-130.095</v>
+        <v>-147.97200000000001</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>2788.8739809962731</v>
+        <v>3172.1041733010597</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13167,11 +13175,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>2909.7510000000002</v>
+        <v>1545.4269999999999</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>2909.7510000000002</v>
+        <v>1545.4269999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13195,14 +13203,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>2254.7240000000002</v>
+        <v>2641.623</v>
       </c>
       <c r="I47" s="9">
-        <v>-209.59200000000001</v>
+        <v>-245.55699999999999</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>2264.4445505774702</v>
+        <v>2653.0115556435107</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14205,8 +14213,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14923,17 +14931,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-298.94400000000002</v>
+        <v>-350.19799999999998</v>
       </c>
       <c r="H26" s="9">
-        <v>-767.89099999999996</v>
+        <v>-899.548</v>
       </c>
       <c r="I26" s="9">
-        <v>41.293999999999997</v>
+        <v>48.374000000000002</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>825.06320815619927</v>
+        <v>966.52226429813811</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14954,17 +14962,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>118.958</v>
+        <v>173.82400000000001</v>
       </c>
       <c r="H27" s="9">
-        <v>-305.37</v>
+        <v>-446.21300000000002</v>
       </c>
       <c r="I27" s="9">
-        <v>16.420999999999999</v>
+        <v>23.995000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>328.13334470151005</v>
+        <v>479.47532196141236</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14985,17 +14993,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>66.73</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H28" s="9">
-        <v>-172.99799999999999</v>
+        <v>-90.218000000000004</v>
       </c>
       <c r="I28" s="9">
-        <v>19.12</v>
+        <v>9.9710000000000001</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>186.40486931408202</v>
+        <v>97.209816196719558</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15016,17 +15024,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>449.92899999999997</v>
+        <v>466.096</v>
       </c>
       <c r="H29" s="9">
-        <v>1215.672</v>
+        <v>1259.354</v>
       </c>
       <c r="I29" s="9">
-        <v>-134.358</v>
+        <v>-139.185</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1303.2062725405369</v>
+        <v>1350.0334969018361</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15047,17 +15055,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>449.92899999999997</v>
+        <v>466.096</v>
       </c>
       <c r="H30" s="9">
-        <v>1215.672</v>
+        <v>1259.354</v>
       </c>
       <c r="I30" s="9">
-        <v>-134.358</v>
+        <v>-139.185</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1303.2062725405369</v>
+        <v>1350.0334969018361</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15078,17 +15086,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>66.73</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H31" s="9">
-        <v>-172.99799999999999</v>
+        <v>-90.218000000000004</v>
       </c>
       <c r="I31" s="9">
-        <v>19.12</v>
+        <v>9.9710000000000001</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>186.40486931408202</v>
+        <v>97.209816196719558</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15109,17 +15117,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>118.958</v>
+        <v>173.82400000000001</v>
       </c>
       <c r="H32" s="9">
-        <v>-305.37</v>
+        <v>-446.21300000000002</v>
       </c>
       <c r="I32" s="9">
-        <v>16.420999999999999</v>
+        <v>23.995000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>328.13334470151005</v>
+        <v>479.47532196141236</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15140,17 +15148,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-298.94400000000002</v>
+        <v>-350.19799999999998</v>
       </c>
       <c r="H33" s="9">
-        <v>-767.89099999999996</v>
+        <v>-899.548</v>
       </c>
       <c r="I33" s="9">
-        <v>41.293999999999997</v>
+        <v>48.374000000000002</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>825.06320815619927</v>
+        <v>966.52226429813811</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15174,14 +15182,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>673.81100000000004</v>
+        <v>829.88800000000003</v>
       </c>
       <c r="I34" s="9">
-        <v>482.298</v>
+        <v>594.01400000000001</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>828.63298541935933</v>
+        <v>1020.5717636403625</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15205,14 +15213,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>673.81100000000004</v>
+        <v>829.88800000000003</v>
       </c>
       <c r="I35" s="9">
-        <v>482.298</v>
+        <v>594.01400000000001</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>828.63298541935933</v>
+        <v>1020.5717636403625</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,14 +15244,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-56.167000000000002</v>
+        <v>-69.177000000000007</v>
       </c>
       <c r="I36" s="9">
-        <v>550.154</v>
+        <v>677.58799999999997</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>553.01370290888815</v>
+        <v>681.11009027395858</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15267,14 +15275,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-56.167000000000002</v>
+        <v>-69.177000000000007</v>
       </c>
       <c r="I37" s="9">
-        <v>550.154</v>
+        <v>677.58799999999997</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>553.01370290888815</v>
+        <v>681.11009027395858</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15295,17 +15303,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>0.876</v>
+        <v>-0.89300000000000002</v>
       </c>
       <c r="H38" s="9">
-        <v>-42.744</v>
+        <v>86.703999999999994</v>
       </c>
       <c r="I38" s="9">
-        <v>4.1390000000000002</v>
+        <v>-8.6210000000000004</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>42.952860591583423</v>
+        <v>87.136115968064587</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15326,17 +15334,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>0.876</v>
+        <v>-0.89300000000000002</v>
       </c>
       <c r="H39" s="9">
-        <v>-42.744</v>
+        <v>86.703999999999994</v>
       </c>
       <c r="I39" s="9">
-        <v>4.1390000000000002</v>
+        <v>-8.6210000000000004</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>42.952860591583423</v>
+        <v>87.136115968064587</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15363,11 +15371,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>1032.0440000000001</v>
+        <v>1445.8330000000001</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>1032.0440000000001</v>
+        <v>1445.8330000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15394,11 +15402,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>428.91399999999999</v>
+        <v>528.54700000000003</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>428.91399999999999</v>
+        <v>528.54700000000003</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15425,11 +15433,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>1939.0419999999999</v>
+        <v>2265.62</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1939.0419999999999</v>
+        <v>2265.62</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15450,17 +15458,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>59.283000000000001</v>
+        <v>56.915999999999997</v>
       </c>
       <c r="H43" s="9">
-        <v>106.093</v>
+        <v>127.253</v>
       </c>
       <c r="I43" s="9">
-        <v>-2271.8009999999999</v>
+        <v>-2724.9270000000001</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>2275.049446130567</v>
+        <v>2728.4904090712876</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15481,17 +15489,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>278.28800000000001</v>
+        <v>266.73899999999998</v>
       </c>
       <c r="H44" s="9">
-        <v>-86.897999999999996</v>
+        <v>-113.958</v>
       </c>
       <c r="I44" s="9">
-        <v>1861.0329999999999</v>
+        <v>2440.4899999999998</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>1883.7301559504217</v>
+        <v>2457.6670970627815</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15512,17 +15520,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>-2.1999999999999999E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="H45" s="9">
-        <v>581.28499999999997</v>
+        <v>726.67100000000005</v>
       </c>
       <c r="I45" s="9">
-        <v>27.145</v>
+        <v>33.935000000000002</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>581.91846742821281</v>
+        <v>727.4629387089077</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15549,11 +15557,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>812.53700000000003</v>
+        <v>779.05</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>812.53700000000003</v>
+        <v>779.05</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15577,14 +15585,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>729.97799999999995</v>
+        <v>899.06500000000005</v>
       </c>
       <c r="I47" s="9">
-        <v>-67.856999999999999</v>
+        <v>-83.573999999999998</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>733.12512774628044</v>
+        <v>902.94102116417332</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23915,8 +23923,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24010,17 +24018,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>67.117000000000004</v>
+        <v>54.887999999999998</v>
       </c>
       <c r="H6" s="9">
-        <v>92.016999999999996</v>
+        <v>87.793000000000006</v>
       </c>
       <c r="I6" s="9">
-        <v>29.395</v>
+        <v>28.045999999999999</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>117.62604304744761</v>
+        <v>107.27013335034128</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24041,17 +24049,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-67.132999999999996</v>
+        <v>-54.908999999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>193.28100000000001</v>
+        <v>263.48</v>
       </c>
       <c r="I7" s="9">
-        <v>61.744999999999997</v>
+        <v>84.171000000000006</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>213.72138328908505</v>
+        <v>281.99550691810674</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24072,17 +24080,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-11.568</v>
+        <v>-9.1219999999999999</v>
       </c>
       <c r="H8" s="9">
-        <v>43.973999999999997</v>
+        <v>60.814</v>
       </c>
       <c r="I8" s="9">
-        <v>4.4999999999999998E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>45.470136628341017</v>
+        <v>61.496027644068199</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24103,17 +24111,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>11.555999999999999</v>
+        <v>9.1129999999999995</v>
       </c>
       <c r="H9" s="9">
-        <v>20.919</v>
+        <v>20.25</v>
       </c>
       <c r="I9" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>0.152</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>23.898663937550989</v>
+        <v>22.206584001147046</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24134,17 +24142,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>67.117000000000004</v>
+        <v>54.887999999999998</v>
       </c>
       <c r="H10" s="9">
-        <v>92.016999999999996</v>
+        <v>87.793000000000006</v>
       </c>
       <c r="I10" s="9">
-        <v>29.395</v>
+        <v>28.045999999999999</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>117.62604304744761</v>
+        <v>107.27013335034128</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24165,17 +24173,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-67.132999999999996</v>
+        <v>-54.908999999999999</v>
       </c>
       <c r="H11" s="9">
-        <v>193.28100000000001</v>
+        <v>263.48</v>
       </c>
       <c r="I11" s="9">
-        <v>61.744999999999997</v>
+        <v>84.171000000000006</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>213.72138328908505</v>
+        <v>281.99550691810674</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24196,17 +24204,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-11.568</v>
+        <v>-9.1219999999999999</v>
       </c>
       <c r="H12" s="9">
-        <v>43.973999999999997</v>
+        <v>60.814</v>
       </c>
       <c r="I12" s="9">
-        <v>4.4999999999999998E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>45.470136628341017</v>
+        <v>61.496027644068199</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24227,17 +24235,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>11.555999999999999</v>
+        <v>9.1129999999999995</v>
       </c>
       <c r="H13" s="9">
-        <v>20.919</v>
+        <v>20.25</v>
       </c>
       <c r="I13" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>0.152</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>23.898663937550989</v>
+        <v>22.206584001147046</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24258,17 +24266,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H14" s="9">
-        <v>-4.2000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>-2E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>4.2473521163190607E-2</v>
+        <v>2.7367864366808017E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24289,17 +24297,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H15" s="9">
-        <v>-4.2000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>-2E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>4.2473521163190607E-2</v>
+        <v>2.7367864366808017E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24320,17 +24328,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H16" s="9">
-        <v>-350.15</v>
+        <v>-432.36399999999998</v>
       </c>
       <c r="I16" s="9">
-        <v>119.991</v>
+        <v>148.16399999999999</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>370.13897798259507</v>
+        <v>457.04616847863406</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24351,17 +24359,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H17" s="9">
-        <v>-350.15</v>
+        <v>-432.36399999999998</v>
       </c>
       <c r="I17" s="9">
-        <v>119.991</v>
+        <v>148.16399999999999</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>370.13897798259507</v>
+        <v>457.04616847863406</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24385,14 +24393,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-253.626</v>
+        <v>-313.17599999999999</v>
       </c>
       <c r="I18" s="9">
-        <v>-67.775999999999996</v>
+        <v>-83.688999999999993</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>262.5256826521931</v>
+        <v>324.16516730981442</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24416,14 +24424,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-253.626</v>
+        <v>-313.17599999999999</v>
       </c>
       <c r="I19" s="9">
-        <v>-67.775999999999996</v>
+        <v>-83.688999999999993</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>262.5256826521931</v>
+        <v>324.16516730981442</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24444,17 +24452,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H20" s="9">
-        <v>-96.525000000000006</v>
+        <v>-119.188</v>
       </c>
       <c r="I20" s="9">
-        <v>187.767</v>
+        <v>231.85300000000001</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>211.12442387132759</v>
+        <v>260.69444505397502</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24481,11 +24489,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>211.19499999999999</v>
+        <v>260.99099999999999</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>211.19499999999999</v>
+        <v>260.99099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24512,11 +24520,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24537,17 +24545,17 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>204.97300000000001</v>
+        <v>212.49100000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>204.97300000975741</v>
+        <v>212.49100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24568,17 +24576,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>-2E-3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>6.2039999999999997</v>
+        <v>48.485999999999997</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>6.2040003223726536</v>
+        <v>48.485999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24632,17 +24640,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-892.68899999999996</v>
+        <v>-1006.436</v>
       </c>
       <c r="H26" s="9">
-        <v>-2605.8359999999998</v>
+        <v>-2585.2159999999999</v>
       </c>
       <c r="I26" s="9">
-        <v>140.13</v>
+        <v>139.02099999999999</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2758.0629663800278</v>
+        <v>2777.6936525097581</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24663,17 +24671,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>-147.148</v>
+        <v>-180.15299999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>429.22399999999999</v>
+        <v>462.46</v>
       </c>
       <c r="I27" s="9">
-        <v>-23.082000000000001</v>
+        <v>-24.869</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>454.33308794759819</v>
+        <v>496.9334182463482</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24694,17 +24702,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>1581.058</v>
+        <v>1635.364</v>
       </c>
       <c r="H28" s="9">
-        <v>-4098.893</v>
+        <v>-4239.6819999999998</v>
       </c>
       <c r="I28" s="9">
-        <v>453.01499999999999</v>
+        <v>468.57499999999999</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>4416.5473862552408</v>
+        <v>4568.2470822236619</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24725,17 +24733,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>1493.5419999999999</v>
+        <v>1879.5350000000001</v>
       </c>
       <c r="H29" s="9">
-        <v>4035.4270000000001</v>
+        <v>5078.3490000000002</v>
       </c>
       <c r="I29" s="9">
-        <v>-446.00099999999998</v>
+        <v>-561.26599999999996</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>4325.9976502645031</v>
+        <v>5444.015053688041</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24756,17 +24764,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>1493.5419999999999</v>
+        <v>1879.5350000000001</v>
       </c>
       <c r="H30" s="9">
-        <v>4035.4270000000001</v>
+        <v>5078.3490000000002</v>
       </c>
       <c r="I30" s="9">
-        <v>-446.00099999999998</v>
+        <v>-561.26599999999996</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>4325.9976502645031</v>
+        <v>5444.015053688041</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24787,17 +24795,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>1581.058</v>
+        <v>1635.364</v>
       </c>
       <c r="H31" s="9">
-        <v>-4098.893</v>
+        <v>-4239.6819999999998</v>
       </c>
       <c r="I31" s="9">
-        <v>453.01499999999999</v>
+        <v>468.57499999999999</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>4416.5473862552408</v>
+        <v>4568.2470822236619</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24818,17 +24826,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>-147.148</v>
+        <v>-180.15299999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>429.22399999999999</v>
+        <v>462.46</v>
       </c>
       <c r="I32" s="9">
-        <v>-23.082000000000001</v>
+        <v>-24.869</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>454.33308794759819</v>
+        <v>496.9334182463482</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24849,17 +24857,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-892.68899999999996</v>
+        <v>-1006.436</v>
       </c>
       <c r="H33" s="9">
-        <v>-2605.8359999999998</v>
+        <v>-2585.2159999999999</v>
       </c>
       <c r="I33" s="9">
-        <v>140.13</v>
+        <v>139.02099999999999</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2758.0629663800278</v>
+        <v>2777.6936525097581</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24883,14 +24891,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>1788.0989999999999</v>
+        <v>1895.4960000000001</v>
       </c>
       <c r="I34" s="9">
-        <v>1279.8789999999999</v>
+        <v>1356.751</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2198.9516339478682</v>
+        <v>2331.0251740418848</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24914,14 +24922,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>1788.0989999999999</v>
+        <v>1895.4960000000001</v>
       </c>
       <c r="I35" s="9">
-        <v>1279.8789999999999</v>
+        <v>1356.751</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2198.9516339478682</v>
+        <v>2331.0251740418848</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24945,14 +24953,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-149.05000000000001</v>
+        <v>-158.00200000000001</v>
       </c>
       <c r="I36" s="9">
-        <v>1459.951</v>
+        <v>1547.6379999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1467.539718338485</v>
+        <v>1555.6824904356286</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24976,14 +24984,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-149.05000000000001</v>
+        <v>-158.00200000000001</v>
       </c>
       <c r="I37" s="9">
-        <v>1459.951</v>
+        <v>1547.6379999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1467.539718338485</v>
+        <v>1555.6824904356286</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25004,17 +25012,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>-9.2579999999999991</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="H38" s="9">
-        <v>451.97800000000001</v>
+        <v>-611.40800000000002</v>
       </c>
       <c r="I38" s="9">
-        <v>-15.138999999999999</v>
+        <v>60.793999999999997</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>452.32622339302861</v>
+        <v>614.45531188280893</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25035,17 +25043,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>-9.2579999999999991</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="H39" s="9">
-        <v>451.97800000000001</v>
+        <v>-611.40800000000002</v>
       </c>
       <c r="I39" s="9">
-        <v>-15.138999999999999</v>
+        <v>60.793999999999997</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>452.32622339302861</v>
+        <v>614.45531188280893</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25072,11 +25080,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>211.19900000000001</v>
+        <v>260.995</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>211.19900000000001</v>
+        <v>260.995</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25103,11 +25111,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>1388.8030000000001</v>
+        <v>1439.0070000000001</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1388.8030000000001</v>
+        <v>1439.0070000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25134,11 +25142,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>1388.8030000000001</v>
+        <v>1439.0070000000001</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1388.8030000000001</v>
+        <v>1439.0070000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25159,17 +25167,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>-336.95100000000002</v>
+        <v>408.048</v>
       </c>
       <c r="H43" s="9">
-        <v>-13.481</v>
+        <v>76.503</v>
       </c>
       <c r="I43" s="9">
-        <v>288.40600000000001</v>
+        <v>-1637.8979999999999</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>443.72934836226466</v>
+        <v>1689.6939775346896</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25190,17 +25198,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>2362.4580000000001</v>
+        <v>1926.5530000000001</v>
       </c>
       <c r="H44" s="9">
-        <v>176.63900000000001</v>
+        <v>118.389</v>
       </c>
       <c r="I44" s="9">
-        <v>-3780.6489999999999</v>
+        <v>-2533.6350000000002</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>4461.5822304745207</v>
+        <v>3185.1104738069921</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25221,17 +25229,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>-2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H45" s="9">
-        <v>64.552000000000007</v>
+        <v>-194.892</v>
       </c>
       <c r="I45" s="9">
-        <v>3.0139999999999998</v>
+        <v>-9.1010000000000009</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>64.622325120657806</v>
+        <v>195.1043820984039</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25255,14 +25263,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>-227.71</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>4878.0320000000002</v>
+        <v>5619.6419999999998</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>4883.3439400808129</v>
+        <v>5619.6419999999998</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25286,14 +25294,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>1937.15</v>
+        <v>2053.498</v>
       </c>
       <c r="I47" s="9">
-        <v>-180.071</v>
+        <v>-190.887</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>1945.5013974657022</v>
+        <v>2062.3510571124889</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93648634-3012-4684-A98A-1BDBE1B121C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E69EB-B7CD-49F9-81AC-8D2A4BFAE9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="134">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1316,26 +1382,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2818,72 +2864,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3703,34 +3683,34 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="BRAKING 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="134"/>
-      <tableStyleElement type="firstRowStripe" dxfId="133"/>
-      <tableStyleElement type="secondRowStripe" dxfId="132"/>
+      <tableStyleElement type="headerRow" dxfId="133"/>
+      <tableStyleElement type="firstRowStripe" dxfId="132"/>
+      <tableStyleElement type="secondRowStripe" dxfId="131"/>
     </tableStyle>
     <tableStyle name="Left Turn 1G + Freinage 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="131"/>
-      <tableStyleElement type="firstRowStripe" dxfId="130"/>
-      <tableStyleElement type="secondRowStripe" dxfId="129"/>
+      <tableStyleElement type="headerRow" dxfId="130"/>
+      <tableStyleElement type="firstRowStripe" dxfId="129"/>
+      <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
     <tableStyle name="LEFT TURN 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="128"/>
-      <tableStyleElement type="firstRowStripe" dxfId="127"/>
-      <tableStyleElement type="secondRowStripe" dxfId="126"/>
+      <tableStyleElement type="headerRow" dxfId="127"/>
+      <tableStyleElement type="firstRowStripe" dxfId="126"/>
+      <tableStyleElement type="secondRowStripe" dxfId="125"/>
     </tableStyle>
     <tableStyle name="Bump 3G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="125"/>
-      <tableStyleElement type="firstRowStripe" dxfId="124"/>
-      <tableStyleElement type="secondRowStripe" dxfId="123"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
     <tableStyle name="INVERSE BRAKING 0.5G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="122"/>
-      <tableStyleElement type="firstRowStripe" dxfId="121"/>
-      <tableStyleElement type="secondRowStripe" dxfId="120"/>
+      <tableStyleElement type="headerRow" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
     <tableStyle name="Right Turn 1G + Freinage 1G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="119"/>
-      <tableStyleElement type="firstRowStripe" dxfId="118"/>
-      <tableStyleElement type="secondRowStripe" dxfId="117"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="firstRowStripe" dxfId="117"/>
+      <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3850,15 +3830,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C777FF87-0074-4175-8D63-A33A87A03168}" name="Table_229101134" displayName="Table_229101134" ref="D5:J49" headerRowDxfId="116" totalsRowDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C777FF87-0074-4175-8D63-A33A87A03168}" name="Table_229101134" displayName="Table_229101134" ref="D5:J49" headerRowDxfId="115" totalsRowDxfId="114">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{26D7065E-0723-49DD-942F-5EAB10B5F2C1}" name="Type" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{42E99A40-BE0F-4C4B-98ED-D788F5248E8E}" name="Part 1" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{846F5324-9AF6-4E17-AEDD-167092EBFE89}" name="Part 2" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{DBFCE167-4C49-4117-B3F5-5A68024F9A79}" name="Rx" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{F98C7914-8832-4F22-8145-EAA165B66FDF}" name="Ry" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{CDCF233B-4F79-4686-B71C-845D28EC7C60}" name="Rz" dataDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{C86B6B54-B034-43FF-BA0B-855300888DE3}" name="F" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{26D7065E-0723-49DD-942F-5EAB10B5F2C1}" name="Type" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{42E99A40-BE0F-4C4B-98ED-D788F5248E8E}" name="Part 1" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{846F5324-9AF6-4E17-AEDD-167092EBFE89}" name="Part 2" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{DBFCE167-4C49-4117-B3F5-5A68024F9A79}" name="Rx" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{F98C7914-8832-4F22-8145-EAA165B66FDF}" name="Ry" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{CDCF233B-4F79-4686-B71C-845D28EC7C60}" name="Rz" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{C86B6B54-B034-43FF-BA0B-855300888DE3}" name="F" dataDxfId="107">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3867,15 +3847,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="37" totalsRowDxfId="36">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="29">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3884,15 +3864,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="28" totalsRowDxfId="27">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="20">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3901,32 +3881,29 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:J47" headerRowDxfId="17" totalsRowDxfId="16">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="F" dataDxfId="9">
-      <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:I50" headerRowDxfId="19" totalsRowDxfId="18">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="BRAKING 2G-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="11" totalsRowDxfId="10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="3">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3935,15 +3912,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="107" totalsRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="106" totalsRowDxfId="105">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part 1" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part 2" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rx" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ry" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rz" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="F" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part 1" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part 2" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rx" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ry" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rz" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="F" dataDxfId="98">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3952,15 +3929,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="98" totalsRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="97" totalsRowDxfId="96">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="89">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3969,15 +3946,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="89" totalsRowDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="88" totalsRowDxfId="87">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="83">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3986,15 +3963,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="80" totalsRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="82" totalsRowDxfId="81">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="74">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4003,15 +3980,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="73" totalsRowDxfId="72">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="65">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4020,15 +3997,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="62" totalsRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="64" totalsRowDxfId="63">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="56">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4037,15 +4014,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="55" totalsRowDxfId="54">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="47">
       <calculatedColumnFormula>SQRT(G3*G3+H3*H3+I3*I3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4054,15 +4031,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="46" totalsRowDxfId="45">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="38">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5617,8 +5594,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5715,17 +5692,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>538.45699999999999</v>
+        <v>967.02</v>
       </c>
       <c r="H6" s="9">
-        <v>861.33900000000006</v>
+        <v>1235.9359999999999</v>
       </c>
       <c r="I6" s="9">
-        <v>275.154</v>
+        <v>508.637</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1052.4022698027595</v>
+        <v>1649.659684378872</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,17 +5723,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-538.53700000000003</v>
+        <v>-966.45299999999997</v>
       </c>
       <c r="H7" s="9">
-        <v>2584.1469999999999</v>
+        <v>1852.367</v>
       </c>
       <c r="I7" s="9">
-        <v>825.52499999999998</v>
+        <v>763.25599999999997</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2765.7420963645541</v>
+        <v>2224.3773567976277</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,17 +5754,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>419.28300000000002</v>
+        <v>709.39099999999996</v>
       </c>
       <c r="H8" s="9">
-        <v>-2795.2150000000001</v>
+        <v>-2216.8440000000001</v>
       </c>
       <c r="I8" s="9">
-        <v>-20.963999999999999</v>
+        <v>-17.734999999999999</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2826.5641014507351</v>
+        <v>2327.6484789250289</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,17 +5785,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>-419.33699999999999</v>
+        <v>-709.84299999999996</v>
       </c>
       <c r="H9" s="9">
-        <v>-931.86099999999999</v>
+        <v>-1478.8409999999999</v>
       </c>
       <c r="I9" s="9">
-        <v>-6.9889999999999999</v>
+        <v>-11.831</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>1021.8890786239963</v>
+        <v>1640.4230431480166</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,17 +5816,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>538.45699999999999</v>
+        <v>967.02</v>
       </c>
       <c r="H10" s="9">
-        <v>861.32899999999995</v>
+        <v>1235.9259999999999</v>
       </c>
       <c r="I10" s="9">
-        <v>275.15199999999999</v>
+        <v>508.63400000000001</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1052.3935624061942</v>
+        <v>1649.6512673386455</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5870,17 +5847,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-538.53700000000003</v>
+        <v>-966.45299999999997</v>
       </c>
       <c r="H11" s="9">
-        <v>2584.1469999999999</v>
+        <v>1852.367</v>
       </c>
       <c r="I11" s="9">
-        <v>825.52499999999998</v>
+        <v>763.25599999999997</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2765.7420963645541</v>
+        <v>2224.3773567976277</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5901,17 +5878,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>419.28300000000002</v>
+        <v>709.39099999999996</v>
       </c>
       <c r="H12" s="9">
-        <v>-2795.2150000000001</v>
+        <v>-2216.8440000000001</v>
       </c>
       <c r="I12" s="9">
-        <v>-20.963999999999999</v>
+        <v>-17.734999999999999</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2826.5641014507351</v>
+        <v>2327.6484789250289</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,17 +5909,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>-419.33699999999999</v>
+        <v>-709.84299999999996</v>
       </c>
       <c r="H13" s="9">
-        <v>-931.86099999999999</v>
+        <v>-1478.8409999999999</v>
       </c>
       <c r="I13" s="9">
-        <v>-6.9889999999999999</v>
+        <v>-11.831</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>1021.8890786239963</v>
+        <v>1640.4230431480166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5963,17 +5940,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>-0.01</v>
+        <v>-0.114</v>
       </c>
       <c r="H14" s="9">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.379</v>
       </c>
       <c r="I14" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>6.6037867924396226E-2</v>
+        <v>0.39714732782684059</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,17 +5971,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>-0.01</v>
+        <v>-0.114</v>
       </c>
       <c r="H15" s="9">
-        <v>-6.5000000000000002E-2</v>
+        <v>-0.379</v>
       </c>
       <c r="I15" s="9">
-        <v>-6.0000000000000001E-3</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>6.6037867924396226E-2</v>
+        <v>0.39714732782684059</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,17 +6002,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>-2345.3339999999998</v>
+        <v>-2019.2280000000001</v>
       </c>
       <c r="I16" s="9">
-        <v>803.70899999999995</v>
+        <v>634.13499999999999</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>2479.2216014251326</v>
+        <v>2116.4614133522491</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,17 +6033,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-2345.3339999999998</v>
+        <v>-2019.2280000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>803.70899999999995</v>
+        <v>634.13499999999999</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>2479.2216014251326</v>
+        <v>2116.4614133522491</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6090,14 +6067,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-1698.8030000000001</v>
+        <v>-1563.0930000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>-453.96600000000001</v>
+        <v>-486.524</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1758.4131374523454</v>
+        <v>1637.059965066949</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,14 +6098,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-1698.8030000000001</v>
+        <v>-1563.0930000000001</v>
       </c>
       <c r="I19" s="9">
-        <v>-453.96600000000001</v>
+        <v>-486.524</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1758.4131374523454</v>
+        <v>1637.059965066949</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6149,17 +6126,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>-646.53</v>
+        <v>-456.13499999999999</v>
       </c>
       <c r="I20" s="9">
-        <v>1257.6759999999999</v>
+        <v>1120.6590000000001</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1414.1251651151676</v>
+        <v>1209.9321189661841</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,11 +6194,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>-1.45</v>
+        <v>-1.4530000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.45</v>
+        <v>1.4530000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6242,7 +6219,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>-0.315</v>
+        <v>-0.314</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
@@ -6252,7 +6229,7 @@
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>7410.1450066952139</v>
+        <v>7410.1450066527714</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,17 +6250,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>9288.0210000000006</v>
+        <v>9288.0239999999994</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>9288.0210053415576</v>
+        <v>9288.0240053076941</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,17 +6314,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-219.291</v>
+        <v>-165.02699999999999</v>
       </c>
       <c r="H26" s="9">
-        <v>-563.29</v>
+        <v>-390.91</v>
       </c>
       <c r="I26" s="9">
-        <v>30.291</v>
+        <v>21.658999999999999</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>605.22864395367139</v>
+        <v>424.86898111064784</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6368,17 +6345,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>168.32</v>
+        <v>113.767</v>
       </c>
       <c r="H27" s="9">
-        <v>-432.084</v>
+        <v>-260.21499999999997</v>
       </c>
       <c r="I27" s="9">
-        <v>23.236000000000001</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>464.29313709336691</v>
+        <v>284.38954403247664</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,17 +6376,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>607.81500000000005</v>
+        <v>589.31100000000004</v>
       </c>
       <c r="H28" s="9">
-        <v>-1575.76</v>
+        <v>-1527.789</v>
       </c>
       <c r="I28" s="9">
-        <v>174.155</v>
+        <v>168.85300000000001</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>1697.8776798845081</v>
+        <v>1646.1889377744585</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6430,17 +6407,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>-562.32000000000005</v>
+        <v>-543.20299999999997</v>
       </c>
       <c r="H29" s="9">
-        <v>-1519.3409999999999</v>
+        <v>-1467.6890000000001</v>
       </c>
       <c r="I29" s="9">
-        <v>167.92</v>
+        <v>162.21100000000001</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>1628.7412265553419</v>
+        <v>1573.3699210455879</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6461,17 +6438,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>-562.32000000000005</v>
+        <v>-543.20299999999997</v>
       </c>
       <c r="H30" s="9">
-        <v>-1519.3409999999999</v>
+        <v>-1467.6890000000001</v>
       </c>
       <c r="I30" s="9">
-        <v>167.92</v>
+        <v>162.21100000000001</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>1628.7412265553419</v>
+        <v>1573.3699210455879</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6492,17 +6469,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>607.81500000000005</v>
+        <v>589.31100000000004</v>
       </c>
       <c r="H31" s="9">
-        <v>-1575.76</v>
+        <v>-1527.789</v>
       </c>
       <c r="I31" s="9">
-        <v>174.155</v>
+        <v>168.85300000000001</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>1697.8776798845081</v>
+        <v>1646.1889377744585</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6523,17 +6500,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>168.32</v>
+        <v>113.767</v>
       </c>
       <c r="H32" s="9">
-        <v>-432.084</v>
+        <v>-260.21499999999997</v>
       </c>
       <c r="I32" s="9">
-        <v>23.236000000000001</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>464.29313709336691</v>
+        <v>284.38954403247664</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6554,17 +6531,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-219.291</v>
+        <v>-165.02699999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>-563.29</v>
+        <v>-390.91</v>
       </c>
       <c r="I33" s="9">
-        <v>30.291</v>
+        <v>21.658999999999999</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>605.22864395367139</v>
+        <v>424.86898111064784</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,14 +6565,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>1995.001</v>
+        <v>1519.768</v>
       </c>
       <c r="I34" s="9">
-        <v>1427.9739999999999</v>
+        <v>1459.05</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2453.3933102291203</v>
+        <v>2106.7799306818929</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,14 +6596,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>1995.001</v>
+        <v>1519.768</v>
       </c>
       <c r="I35" s="9">
-        <v>1427.9739999999999</v>
+        <v>1459.05</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2453.3933102291203</v>
+        <v>2106.7799306818929</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6650,14 +6627,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-166.298</v>
+        <v>-222.488</v>
       </c>
       <c r="I36" s="9">
-        <v>1628.886</v>
+        <v>1771.5709999999999</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1637.3529325713498</v>
+        <v>1785.4872495162208</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,14 +6658,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-166.298</v>
+        <v>-222.488</v>
       </c>
       <c r="I37" s="9">
-        <v>1628.886</v>
+        <v>1771.5709999999999</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1637.3529325713498</v>
+        <v>1785.4872495162208</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,17 +6686,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>5.476</v>
+        <v>5.1529999999999996</v>
       </c>
       <c r="H38" s="9">
-        <v>-531.52300000000002</v>
+        <v>-500.16300000000001</v>
       </c>
       <c r="I38" s="9">
-        <v>52.850999999999999</v>
+        <v>49.732999999999997</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>534.17217664906514</v>
+        <v>502.65589747559909</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6740,17 +6717,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>5.476</v>
+        <v>5.1529999999999996</v>
       </c>
       <c r="H39" s="9">
-        <v>-531.52300000000002</v>
+        <v>-500.16300000000001</v>
       </c>
       <c r="I39" s="9">
-        <v>52.850999999999999</v>
+        <v>49.732999999999997</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>534.17217664906514</v>
+        <v>502.65589747559909</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6777,11 +6754,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>221.98400000000001</v>
+        <v>221.983</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>221.98400000000001</v>
+        <v>221.983</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,14 +6844,14 @@
         <v>-1.238</v>
       </c>
       <c r="H43" s="9">
-        <v>-438.64699999999999</v>
+        <v>-438.64600000000002</v>
       </c>
       <c r="I43" s="9">
-        <v>9393.0910000000003</v>
+        <v>9393.0869999999995</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>9403.3276693697117</v>
+        <v>9403.3236270761736</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6901,11 +6878,11 @@
         <v>345.53100000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>-7399.1329999999998</v>
+        <v>-7399.1289999999999</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>7407.1966446413453</v>
+        <v>7407.1926489958396</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6978,36 +6955,33 @@
       <c r="C47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>2161.299</v>
+        <v>1742.2560000000001</v>
       </c>
       <c r="I47" s="9">
-        <v>-200.91399999999999</v>
-      </c>
-      <c r="J47" s="44">
-        <f t="shared" si="0"/>
-        <v>2170.6173782583146</v>
+        <v>-312.524</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" si="0"/>
+        <v>1770.0641853085442</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
       <c r="J48" s="36"/>
     </row>
     <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11830,8 +11804,8 @@
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11927,17 +11901,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>417.09899999999999</v>
+        <v>749.07500000000005</v>
       </c>
       <c r="H6" s="9">
-        <v>667.14700000000005</v>
+        <v>957.31700000000001</v>
       </c>
       <c r="I6" s="9">
-        <v>213.125</v>
+        <v>393.98</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>815.15578942616855</v>
+        <v>1277.8064933760511</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11958,17 +11932,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-417.161</v>
+        <v>-748.63599999999997</v>
       </c>
       <c r="H7" s="9">
-        <v>2001.732</v>
+        <v>1434.886</v>
       </c>
       <c r="I7" s="9">
-        <v>639.46799999999996</v>
+        <v>591.23599999999999</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>2142.3990344398962</v>
+        <v>1723.0535978860321</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11989,17 +11963,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>324.779</v>
+        <v>549.49800000000005</v>
       </c>
       <c r="H8" s="9">
-        <v>-2165.19</v>
+        <v>-1717.182</v>
       </c>
       <c r="I8" s="9">
-        <v>-16.239000000000001</v>
+        <v>-13.737</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>2189.4731877924428</v>
+        <v>1803.0115857356548</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12020,17 +11994,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>-324.82100000000003</v>
+        <v>-549.84900000000005</v>
       </c>
       <c r="H9" s="9">
-        <v>-721.82399999999996</v>
+        <v>-1145.519</v>
       </c>
       <c r="I9" s="9">
-        <v>-5.4139999999999997</v>
+        <v>-9.1639999999999997</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>791.56040856841742</v>
+        <v>1270.6815813011535</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12051,17 +12025,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>417.09899999999999</v>
+        <v>749.07500000000005</v>
       </c>
       <c r="H10" s="9">
-        <v>667.14700000000005</v>
+        <v>957.31700000000001</v>
       </c>
       <c r="I10" s="9">
-        <v>213.125</v>
+        <v>393.98</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>815.15578942616855</v>
+        <v>1277.8064933760511</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12082,17 +12056,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-417.161</v>
+        <v>-748.63599999999997</v>
       </c>
       <c r="H11" s="9">
-        <v>2001.732</v>
+        <v>1434.886</v>
       </c>
       <c r="I11" s="9">
-        <v>639.46799999999996</v>
+        <v>591.23599999999999</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>2142.3990344398962</v>
+        <v>1723.0535978860321</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12113,17 +12087,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>324.779</v>
+        <v>549.49800000000005</v>
       </c>
       <c r="H12" s="9">
-        <v>-2165.19</v>
+        <v>-1717.182</v>
       </c>
       <c r="I12" s="9">
-        <v>-16.239000000000001</v>
+        <v>-13.737</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>2189.4731877924428</v>
+        <v>1803.0115857356548</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12144,17 +12118,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>-324.82100000000003</v>
+        <v>-549.84900000000005</v>
       </c>
       <c r="H13" s="9">
-        <v>-721.82399999999996</v>
+        <v>-1145.519</v>
       </c>
       <c r="I13" s="9">
-        <v>-5.4139999999999997</v>
+        <v>-9.1639999999999997</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>791.56040856841742</v>
+        <v>1270.6815813011535</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12175,17 +12149,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>-8.0000000000000002E-3</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="H14" s="9">
-        <v>-5.0999999999999997E-2</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="I14" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>5.1778373863998466E-2</v>
+        <v>0.30599509799995162</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12206,17 +12180,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>-8.0000000000000002E-3</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>-5.0999999999999997E-2</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="I15" s="9">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>5.1778373863998466E-2</v>
+        <v>0.30599509799995162</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12237,17 +12211,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>-1816.702</v>
+        <v>-1564.0989999999999</v>
       </c>
       <c r="I16" s="9">
-        <v>622.55499999999995</v>
+        <v>491.202</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>1920.4116478955755</v>
+        <v>1639.4160809888988</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12268,17 +12242,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-1816.702</v>
+        <v>-1564.0989999999999</v>
       </c>
       <c r="I17" s="9">
-        <v>622.55499999999995</v>
+        <v>491.202</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>1920.4116478955755</v>
+        <v>1639.4160809888988</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12302,14 +12276,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-1315.8979999999999</v>
+        <v>-1210.7750000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>-351.64400000000001</v>
+        <v>-376.863</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>1362.0723362362221</v>
+        <v>1268.0701169075787</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12333,14 +12307,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-1315.8979999999999</v>
+        <v>-1210.7750000000001</v>
       </c>
       <c r="I19" s="9">
-        <v>-351.64400000000001</v>
+        <v>-376.863</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>1362.0723362362221</v>
+        <v>1268.0701169075787</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12361,17 +12335,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>-500.803</v>
+        <v>-353.32299999999998</v>
       </c>
       <c r="I20" s="9">
-        <v>974.19899999999996</v>
+        <v>868.06500000000005</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>1095.3845666951856</v>
+        <v>937.21608317079153</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12398,11 +12372,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>1453.492</v>
+        <v>1453.491</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>1453.492</v>
+        <v>1453.491</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12429,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>-1.1200000000000001</v>
+        <v>-1.1220000000000001</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>1.1220000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12454,7 +12428,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="9">
-        <v>-0.245</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
@@ -12464,7 +12438,7 @@
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>5739.9460052287077</v>
+        <v>5739.946005059368</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12485,17 +12459,17 @@
         <v>78</v>
       </c>
       <c r="G24" s="9">
-        <v>0.245</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>7194.558</v>
+        <v>7194.5590000000002</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>7194.5580041715557</v>
+        <v>7194.5590040364532</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12549,17 +12523,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-418.96800000000002</v>
+        <v>-355.988</v>
       </c>
       <c r="H26" s="9">
-        <v>-1076.1959999999999</v>
+        <v>-843.24900000000002</v>
       </c>
       <c r="I26" s="9">
-        <v>57.872999999999998</v>
+        <v>46.720999999999997</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>1156.3223164710607</v>
+        <v>916.50378285416809</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12580,17 +12554,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>42.642000000000003</v>
+        <v>-22.666</v>
       </c>
       <c r="H27" s="9">
-        <v>-109.464</v>
+        <v>51.844000000000001</v>
       </c>
       <c r="I27" s="9">
-        <v>5.8860000000000001</v>
+        <v>-2.9729999999999999</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>117.6237750456939</v>
+        <v>56.66027374625012</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12611,17 +12585,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>1201.838</v>
+        <v>1204.2429999999999</v>
       </c>
       <c r="H28" s="9">
-        <v>-3115.7649999999999</v>
+        <v>-3122</v>
       </c>
       <c r="I28" s="9">
-        <v>344.35899999999998</v>
+        <v>345.048</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>3357.2293985293886</v>
+        <v>3363.9475806488126</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12642,17 +12616,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>-192.364</v>
+        <v>-190.511</v>
       </c>
       <c r="H29" s="9">
-        <v>-519.75199999999995</v>
+        <v>-514.745</v>
       </c>
       <c r="I29" s="9">
-        <v>57.444000000000003</v>
+        <v>56.89</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>557.176689332926</v>
+        <v>551.80914114030406</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12673,17 +12647,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>-192.364</v>
+        <v>-190.511</v>
       </c>
       <c r="H30" s="9">
-        <v>-519.75199999999995</v>
+        <v>-514.745</v>
       </c>
       <c r="I30" s="9">
-        <v>57.444000000000003</v>
+        <v>56.89</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>557.176689332926</v>
+        <v>551.80914114030406</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12704,17 +12678,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>1201.838</v>
+        <v>1204.2429999999999</v>
       </c>
       <c r="H31" s="9">
-        <v>-3115.7649999999999</v>
+        <v>-3122</v>
       </c>
       <c r="I31" s="9">
-        <v>344.35899999999998</v>
+        <v>345.048</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>3357.2293985293886</v>
+        <v>3363.9475806488126</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12735,17 +12709,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>42.642000000000003</v>
+        <v>-22.666</v>
       </c>
       <c r="H32" s="9">
-        <v>-109.464</v>
+        <v>51.844000000000001</v>
       </c>
       <c r="I32" s="9">
-        <v>5.8860000000000001</v>
+        <v>-2.9729999999999999</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>117.6237750456939</v>
+        <v>56.66027374625012</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12766,17 +12740,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-418.96800000000002</v>
+        <v>-355.988</v>
       </c>
       <c r="H33" s="9">
-        <v>-1076.1959999999999</v>
+        <v>-843.24900000000002</v>
       </c>
       <c r="I33" s="9">
-        <v>57.872999999999998</v>
+        <v>46.720999999999997</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>1156.3223164710607</v>
+        <v>916.50378285416809</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12800,14 +12774,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>2438.3679999999999</v>
+        <v>1858.058</v>
       </c>
       <c r="I34" s="9">
-        <v>1745.326</v>
+        <v>1783.8240000000001</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2998.6332469476824</v>
+        <v>2575.7343796168116</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12831,14 +12805,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>2438.3679999999999</v>
+        <v>1858.058</v>
       </c>
       <c r="I35" s="9">
-        <v>1745.326</v>
+        <v>1783.8240000000001</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2998.6332469476824</v>
+        <v>2575.7343796168116</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12862,14 +12836,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-203.255</v>
+        <v>-272.01100000000002</v>
       </c>
       <c r="I36" s="9">
-        <v>1990.883</v>
+        <v>2165.902</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>2001.2315494999575</v>
+        <v>2182.9158155377868</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12893,14 +12867,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-203.255</v>
+        <v>-272.01100000000002</v>
       </c>
       <c r="I37" s="9">
-        <v>1990.883</v>
+        <v>2165.902</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>2001.2315494999575</v>
+        <v>2182.9158155377868</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,17 +12895,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>8.5259999999999998</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="H38" s="9">
-        <v>-827.64800000000002</v>
+        <v>-640.36500000000001</v>
       </c>
       <c r="I38" s="9">
-        <v>82.296000000000006</v>
+        <v>63.673999999999999</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>831.77312783955699</v>
+        <v>643.55670450240825</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12952,17 +12926,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>8.5259999999999998</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="H39" s="9">
-        <v>-827.64800000000002</v>
+        <v>-640.36500000000001</v>
       </c>
       <c r="I39" s="9">
-        <v>82.296000000000006</v>
+        <v>63.673999999999999</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>831.77312783955699</v>
+        <v>643.55670450240825</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13076,17 +13050,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>110.639</v>
+        <v>110.64</v>
       </c>
       <c r="H43" s="9">
         <v>-511.85700000000003</v>
       </c>
       <c r="I43" s="9">
-        <v>10960.897000000001</v>
+        <v>10960.895</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>10973.39972940834</v>
+        <v>10973.397741769593</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,17 +13081,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>530.91700000000003</v>
+        <v>530.91800000000001</v>
       </c>
       <c r="H44" s="9">
-        <v>470.05200000000002</v>
+        <v>470.05099999999999</v>
       </c>
       <c r="I44" s="9">
-        <v>-10065.168</v>
+        <v>-10065.166999999999</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>10090.115391402469</v>
+        <v>10090.114399907168</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13175,11 +13149,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>1545.4269999999999</v>
+        <v>1545.4280000000001</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>1545.4269999999999</v>
+        <v>1545.4280000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13203,33 +13177,48 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>2641.623</v>
+        <v>2130.069</v>
       </c>
       <c r="I47" s="9">
-        <v>-245.55699999999999</v>
+        <v>-382.07799999999997</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>2653.0115556435107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>2164.0650505114213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="46"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="46"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="J49" s="47"/>
+    </row>
+    <row r="50" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="46"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="4:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14213,7 +14202,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -23923,8 +23912,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I47"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24018,17 +24007,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>54.887999999999998</v>
+        <v>171.34899999999999</v>
       </c>
       <c r="H6" s="9">
-        <v>87.793000000000006</v>
+        <v>218.98400000000001</v>
       </c>
       <c r="I6" s="9">
-        <v>28.045999999999999</v>
+        <v>90.122</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>107.27013335034128</v>
+        <v>292.29513670432493</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24049,17 +24038,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-54.908999999999999</v>
+        <v>-171.249</v>
       </c>
       <c r="H7" s="9">
-        <v>263.48</v>
+        <v>328.22699999999998</v>
       </c>
       <c r="I7" s="9">
-        <v>84.171000000000006</v>
+        <v>135.244</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>281.99550691810674</v>
+        <v>394.14479961810986</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24080,17 +24069,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-9.1219999999999999</v>
+        <v>-23.201000000000001</v>
       </c>
       <c r="H8" s="9">
-        <v>60.814</v>
+        <v>72.501999999999995</v>
       </c>
       <c r="I8" s="9">
-        <v>0.45600000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>61.496027644068199</v>
+        <v>76.125966693369477</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24111,17 +24100,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>9.1129999999999995</v>
+        <v>23.109000000000002</v>
       </c>
       <c r="H9" s="9">
-        <v>20.25</v>
+        <v>48.143999999999998</v>
       </c>
       <c r="I9" s="9">
-        <v>0.152</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>22.206584001147046</v>
+        <v>53.404296100594756</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24142,17 +24131,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>54.887999999999998</v>
+        <v>171.34899999999999</v>
       </c>
       <c r="H10" s="9">
-        <v>87.793000000000006</v>
+        <v>218.98400000000001</v>
       </c>
       <c r="I10" s="9">
-        <v>28.045999999999999</v>
+        <v>90.122</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>107.27013335034128</v>
+        <v>292.29513670432493</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24173,17 +24162,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-54.908999999999999</v>
+        <v>-171.249</v>
       </c>
       <c r="H11" s="9">
-        <v>263.48</v>
+        <v>328.22699999999998</v>
       </c>
       <c r="I11" s="9">
-        <v>84.171000000000006</v>
+        <v>135.244</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>281.99550691810674</v>
+        <v>394.14479961810986</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24204,17 +24193,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-9.1219999999999999</v>
+        <v>-23.201000000000001</v>
       </c>
       <c r="H12" s="9">
-        <v>60.814</v>
+        <v>72.501999999999995</v>
       </c>
       <c r="I12" s="9">
-        <v>0.45600000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>61.496027644068199</v>
+        <v>76.125966693369477</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24235,17 +24224,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>9.1129999999999995</v>
+        <v>23.109000000000002</v>
       </c>
       <c r="H13" s="9">
-        <v>20.25</v>
+        <v>48.143999999999998</v>
       </c>
       <c r="I13" s="9">
-        <v>0.152</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>22.206584001147046</v>
+        <v>53.404296100594756</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24266,17 +24255,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="H14" s="9">
-        <v>2.7E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>2.7367864366808017E-2</v>
+        <v>3.043024810940588E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24297,17 +24286,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="H15" s="9">
-        <v>2.7E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>2E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>2.7367864366808017E-2</v>
+        <v>3.043024810940588E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24328,17 +24317,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>-432.36399999999998</v>
+        <v>-667.82899999999995</v>
       </c>
       <c r="I16" s="9">
-        <v>148.16399999999999</v>
+        <v>209.73</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>457.04616847863406</v>
+        <v>699.98731855727215</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24359,17 +24348,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-432.36399999999998</v>
+        <v>-667.82899999999995</v>
       </c>
       <c r="I17" s="9">
-        <v>148.16399999999999</v>
+        <v>209.73</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>457.04616847863406</v>
+        <v>699.98731855727215</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24393,14 +24382,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-313.17599999999999</v>
+        <v>-516.96900000000005</v>
       </c>
       <c r="I18" s="9">
-        <v>-83.688999999999993</v>
+        <v>-160.91</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>324.16516730981442</v>
+        <v>541.43233654908352</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24424,14 +24413,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-313.17599999999999</v>
+        <v>-516.96900000000005</v>
       </c>
       <c r="I19" s="9">
-        <v>-83.688999999999993</v>
+        <v>-160.91</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>324.16516730981442</v>
+        <v>541.43233654908352</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24452,17 +24441,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>-119.188</v>
+        <v>-150.86000000000001</v>
       </c>
       <c r="I20" s="9">
-        <v>231.85300000000001</v>
+        <v>370.64100000000002</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>260.69444505397502</v>
+        <v>400.16682831164309</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24489,11 +24478,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>260.99099999999999</v>
+        <v>436.05900000000003</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="0"/>
-        <v>260.99099999999999</v>
+        <v>436.05900000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24520,11 +24509,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24551,11 +24540,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>212.49100000000001</v>
+        <v>355.02600000000001</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>212.49100000000001</v>
+        <v>355.02600000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24582,11 +24571,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>48.485999999999997</v>
+        <v>81.007999999999996</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>48.485999999999997</v>
+        <v>81.007999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24640,17 +24629,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-1006.436</v>
+        <v>-1043.3219999999999</v>
       </c>
       <c r="H26" s="9">
-        <v>-2585.2159999999999</v>
+        <v>-2471.3780000000002</v>
       </c>
       <c r="I26" s="9">
-        <v>139.02099999999999</v>
+        <v>136.928</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2777.6936525097581</v>
+        <v>2686.0713489689733</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24671,17 +24660,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>-180.15299999999999</v>
+        <v>-111.401</v>
       </c>
       <c r="H27" s="9">
-        <v>462.46</v>
+        <v>254.80500000000001</v>
       </c>
       <c r="I27" s="9">
-        <v>-24.869</v>
+        <v>-14.611000000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>496.9334182463482</v>
+        <v>278.47666355908535</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24702,17 +24691,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>1635.364</v>
+        <v>1627.2059999999999</v>
       </c>
       <c r="H28" s="9">
-        <v>-4239.6819999999998</v>
+        <v>-4218.5320000000002</v>
       </c>
       <c r="I28" s="9">
-        <v>468.57499999999999</v>
+        <v>466.238</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>4568.2470822236619</v>
+        <v>4545.4581148773113</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24733,17 +24722,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>1879.5350000000001</v>
+        <v>1766.76</v>
       </c>
       <c r="H29" s="9">
-        <v>5078.3490000000002</v>
+        <v>4773.6409999999996</v>
       </c>
       <c r="I29" s="9">
-        <v>-561.26599999999996</v>
+        <v>-527.58900000000006</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>5444.015053688041</v>
+        <v>5117.3664562352769</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24764,17 +24753,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>1879.5350000000001</v>
+        <v>1766.76</v>
       </c>
       <c r="H30" s="9">
-        <v>5078.3490000000002</v>
+        <v>4773.6409999999996</v>
       </c>
       <c r="I30" s="9">
-        <v>-561.26599999999996</v>
+        <v>-527.58900000000006</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>5444.015053688041</v>
+        <v>5117.3664562352769</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24795,17 +24784,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>1635.364</v>
+        <v>1627.2059999999999</v>
       </c>
       <c r="H31" s="9">
-        <v>-4239.6819999999998</v>
+        <v>-4218.5320000000002</v>
       </c>
       <c r="I31" s="9">
-        <v>468.57499999999999</v>
+        <v>466.238</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>4568.2470822236619</v>
+        <v>4545.4581148773113</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24826,17 +24815,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>-180.15299999999999</v>
+        <v>-111.401</v>
       </c>
       <c r="H32" s="9">
-        <v>462.46</v>
+        <v>254.80500000000001</v>
       </c>
       <c r="I32" s="9">
-        <v>-24.869</v>
+        <v>-14.611000000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>496.9334182463482</v>
+        <v>278.47666355908535</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24857,17 +24846,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-1006.436</v>
+        <v>-1043.3219999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>-2585.2159999999999</v>
+        <v>-2471.3780000000002</v>
       </c>
       <c r="I33" s="9">
-        <v>139.02099999999999</v>
+        <v>136.928</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2777.6936525097581</v>
+        <v>2686.0713489689733</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24891,14 +24880,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>1895.4960000000001</v>
+        <v>1687.787</v>
       </c>
       <c r="I34" s="9">
-        <v>1356.751</v>
+        <v>1620.356</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>2331.0251740418848</v>
+        <v>2339.6962461193548</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24922,14 +24911,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>1895.4960000000001</v>
+        <v>1687.787</v>
       </c>
       <c r="I35" s="9">
-        <v>1356.751</v>
+        <v>1620.356</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>2331.0251740418848</v>
+        <v>2339.6962461193548</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24953,14 +24942,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-158.00200000000001</v>
+        <v>-247.084</v>
       </c>
       <c r="I36" s="9">
-        <v>1547.6379999999999</v>
+        <v>1967.42</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>1555.6824904356286</v>
+        <v>1982.8746706375571</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24984,14 +24973,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-158.00200000000001</v>
+        <v>-247.084</v>
       </c>
       <c r="I37" s="9">
-        <v>1547.6379999999999</v>
+        <v>1967.42</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>1555.6824904356286</v>
+        <v>1982.8746706375571</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25012,17 +25001,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>6.2990000000000004</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H38" s="9">
-        <v>-611.40800000000002</v>
+        <v>-26.323</v>
       </c>
       <c r="I38" s="9">
-        <v>60.793999999999997</v>
+        <v>2.617</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>614.45531188280893</v>
+        <v>26.454157688348349</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25043,17 +25032,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>6.2990000000000004</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="9">
-        <v>-611.40800000000002</v>
+        <v>-26.323</v>
       </c>
       <c r="I39" s="9">
-        <v>60.793999999999997</v>
+        <v>2.617</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>614.45531188280893</v>
+        <v>26.454157688348349</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25080,11 +25069,11 @@
         <v>0</v>
       </c>
       <c r="I40" s="9">
-        <v>260.995</v>
+        <v>436.06400000000002</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="0"/>
-        <v>260.995</v>
+        <v>436.06400000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25111,11 +25100,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="9">
-        <v>1439.0070000000001</v>
+        <v>1683.9380000000001</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" si="0"/>
-        <v>1439.0070000000001</v>
+        <v>1683.9380000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25142,11 +25131,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>1439.0070000000001</v>
+        <v>1683.9380000000001</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="0"/>
-        <v>1439.0070000000001</v>
+        <v>1683.9380000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25167,17 +25156,17 @@
         <v>126</v>
       </c>
       <c r="G43" s="9">
-        <v>408.048</v>
+        <v>391.43</v>
       </c>
       <c r="H43" s="9">
-        <v>76.503</v>
+        <v>70.941000000000003</v>
       </c>
       <c r="I43" s="9">
-        <v>-1637.8979999999999</v>
+        <v>-1518.817</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>1689.6939775346896</v>
+        <v>1570.0494100091246</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25198,17 +25187,17 @@
         <v>126</v>
       </c>
       <c r="G44" s="9">
-        <v>1926.5530000000001</v>
+        <v>1848.078</v>
       </c>
       <c r="H44" s="9">
-        <v>118.389</v>
+        <v>101.872</v>
       </c>
       <c r="I44" s="9">
-        <v>-2533.6350000000002</v>
+        <v>-2180.009</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>3185.1104738069921</v>
+        <v>2859.7568845181581</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25229,17 +25218,17 @@
         <v>126</v>
       </c>
       <c r="G45" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H45" s="9">
-        <v>-194.892</v>
+        <v>-172.81399999999999</v>
       </c>
       <c r="I45" s="9">
-        <v>-9.1010000000000009</v>
+        <v>-8.07</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="0"/>
-        <v>195.1043820984039</v>
+        <v>173.00232233123344</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25266,11 +25255,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>5619.6419999999998</v>
+        <v>5390.8339999999998</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="0"/>
-        <v>5619.6419999999998</v>
+        <v>5390.8339999999998</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25294,14 +25283,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>2053.498</v>
+        <v>1934.8710000000001</v>
       </c>
       <c r="I47" s="9">
-        <v>-190.887</v>
+        <v>-347.065</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>2062.3510571124889</v>
+        <v>1965.751739377585</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E69EB-B7CD-49F9-81AC-8D2A4BFAE9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE3800-C64C-4AD0-B28C-459350DA2307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -1143,72 +1143,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -2864,6 +2798,72 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3847,15 +3847,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="34" totalsRowDxfId="33">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="26">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3864,15 +3864,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="25" totalsRowDxfId="24">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="17">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3881,29 +3881,29 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:I50" headerRowDxfId="19" totalsRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:I50" headerRowDxfId="16" totalsRowDxfId="15">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="BRAKING 2G-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="11" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3951,10 +3951,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="86"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="85"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="83">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="80">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3963,15 +3963,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="82" totalsRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="79" totalsRowDxfId="78">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="71">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3980,15 +3980,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="73" totalsRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="70" totalsRowDxfId="69">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="62">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3997,15 +3997,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="61" totalsRowDxfId="60">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="53">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4014,15 +4014,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="55" totalsRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="52" totalsRowDxfId="51">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="44">
       <calculatedColumnFormula>SQRT(G3*G3+H3*H3+I3*I3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4031,15 +4031,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="46" totalsRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="43" totalsRowDxfId="42">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="35">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7968,8 +7968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8062,17 +8062,17 @@
         <v>20</v>
       </c>
       <c r="G6" s="9">
-        <v>591.23699999999997</v>
+        <v>1104.7070000000001</v>
       </c>
       <c r="H6" s="9">
-        <v>945.678</v>
+        <v>1411.818</v>
       </c>
       <c r="I6" s="9">
-        <v>302.10399999999998</v>
+        <v>581.02800000000002</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ref="J6:J47" si="0">SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1155.4803748523814</v>
+        <v>1884.4630953555445</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8093,17 +8093,17 @@
         <v>20</v>
       </c>
       <c r="G7" s="9">
-        <v>-591.46600000000001</v>
+        <v>-1104.06</v>
       </c>
       <c r="H7" s="9">
-        <v>2838.1260000000002</v>
+        <v>2116.1149999999998</v>
       </c>
       <c r="I7" s="9">
-        <v>906.66</v>
+        <v>871.93100000000004</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="0"/>
-        <v>3037.5686949651031</v>
+        <v>2541.0932382708825</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8124,17 +8124,17 @@
         <v>20</v>
       </c>
       <c r="G8" s="9">
-        <v>-98.260999999999996</v>
+        <v>-149.577</v>
       </c>
       <c r="H8" s="9">
-        <v>655.07299999999998</v>
+        <v>467.428</v>
       </c>
       <c r="I8" s="9">
-        <v>4.9130000000000003</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="0"/>
-        <v>662.41980421708399</v>
+        <v>490.79139584348866</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8155,17 +8155,17 @@
         <v>20</v>
       </c>
       <c r="G9" s="9">
-        <v>98.156999999999996</v>
+        <v>148.98599999999999</v>
       </c>
       <c r="H9" s="9">
-        <v>218.12700000000001</v>
+        <v>310.38799999999998</v>
       </c>
       <c r="I9" s="9">
-        <v>1.6359999999999999</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="0"/>
-        <v>239.20046252881704</v>
+        <v>344.30176303498649</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8186,17 +8186,17 @@
         <v>35</v>
       </c>
       <c r="G10" s="9">
-        <v>591.23699999999997</v>
+        <v>1104.7070000000001</v>
       </c>
       <c r="H10" s="9">
-        <v>945.678</v>
+        <v>1411.818</v>
       </c>
       <c r="I10" s="9">
-        <v>302.10399999999998</v>
+        <v>581.02800000000002</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="0"/>
-        <v>1155.4803748523814</v>
+        <v>1884.4630953555445</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8217,17 +8217,17 @@
         <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>-591.46600000000001</v>
+        <v>-1104.06</v>
       </c>
       <c r="H11" s="9">
-        <v>2838.1260000000002</v>
+        <v>2116.1149999999998</v>
       </c>
       <c r="I11" s="9">
-        <v>906.66</v>
+        <v>871.93100000000004</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="0"/>
-        <v>3037.5686949651031</v>
+        <v>2541.0932382708825</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8248,17 +8248,17 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>-98.260999999999996</v>
+        <v>-149.577</v>
       </c>
       <c r="H12" s="9">
-        <v>655.07299999999998</v>
+        <v>467.428</v>
       </c>
       <c r="I12" s="9">
-        <v>4.9130000000000003</v>
+        <v>3.7389999999999999</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="0"/>
-        <v>662.41980421708399</v>
+        <v>490.79139584348866</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8279,17 +8279,17 @@
         <v>42</v>
       </c>
       <c r="G13" s="9">
-        <v>98.156999999999996</v>
+        <v>148.98599999999999</v>
       </c>
       <c r="H13" s="9">
-        <v>218.12700000000001</v>
+        <v>310.38799999999998</v>
       </c>
       <c r="I13" s="9">
-        <v>1.6359999999999999</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="0"/>
-        <v>239.20046252881704</v>
+        <v>344.30176303498649</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8310,17 +8310,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="9">
-        <v>4.5999999999999999E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="H14" s="9">
-        <v>0.29099999999999998</v>
+        <v>-0.185</v>
       </c>
       <c r="I14" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="0"/>
-        <v>0.29567211569574831</v>
+        <v>0.19395102474593939</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8341,17 +8341,17 @@
         <v>49</v>
       </c>
       <c r="G15" s="9">
-        <v>4.5999999999999999E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="H15" s="9">
-        <v>0.29099999999999998</v>
+        <v>-0.185</v>
       </c>
       <c r="I15" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="0"/>
-        <v>0.29567211569574831</v>
+        <v>0.19395102474593939</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8372,17 +8372,17 @@
         <v>53</v>
       </c>
       <c r="G16" s="9">
-        <v>0.28599999999999998</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>-4657.2939999999999</v>
+        <v>-4305.5630000000001</v>
       </c>
       <c r="I16" s="9">
-        <v>1595.982</v>
+        <v>1352.155</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="0"/>
-        <v>4923.1642292895331</v>
+        <v>4512.8921869455289</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8403,17 +8403,17 @@
         <v>57</v>
       </c>
       <c r="G17" s="9">
-        <v>0.28599999999999998</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>-4657.2939999999999</v>
+        <v>-4305.5630000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>1595.982</v>
+        <v>1352.155</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="0"/>
-        <v>4923.1642292895331</v>
+        <v>4512.8921869455289</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -8437,14 +8437,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>-3373.4340000000002</v>
+        <v>-3332.9589999999998</v>
       </c>
       <c r="I18" s="9">
-        <v>-901.47299999999996</v>
+        <v>-1037.4079999999999</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="0"/>
-        <v>3491.8061976697677</v>
+        <v>3490.6777356474768</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -8468,14 +8468,14 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>-3373.4340000000002</v>
+        <v>-3332.9589999999998</v>
       </c>
       <c r="I19" s="9">
-        <v>-901.47299999999996</v>
+        <v>-1037.4079999999999</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="0"/>
-        <v>3491.8061976697677</v>
+        <v>3490.6777356474768</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8496,17 +8496,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="9">
-        <v>0.28599999999999998</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>-1283.8599999999999</v>
+        <v>-972.60400000000004</v>
       </c>
       <c r="I20" s="9">
-        <v>2497.4560000000001</v>
+        <v>2389.5619999999999</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="0"/>
-        <v>2808.1280336430532</v>
+        <v>2579.9157142550221</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8595,11 +8595,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>2288.8910000000001</v>
+        <v>2288.89</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="0"/>
-        <v>2288.8910000000001</v>
+        <v>2288.89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8626,11 +8626,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>522.27099999999996</v>
+        <v>522.27200000000005</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" si="0"/>
-        <v>522.27099999999996</v>
+        <v>522.27200000000005</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8684,17 +8684,17 @@
         <v>20</v>
       </c>
       <c r="G26" s="9">
-        <v>-914.51700000000005</v>
+        <v>-862.90099999999995</v>
       </c>
       <c r="H26" s="9">
-        <v>-2349.105</v>
+        <v>-2044.0039999999999</v>
       </c>
       <c r="I26" s="9">
-        <v>126.324</v>
+        <v>113.249</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" si="0"/>
-        <v>2524.0034463704683</v>
+        <v>2221.5705759255097</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8715,17 +8715,17 @@
         <v>20</v>
       </c>
       <c r="G27" s="9">
-        <v>826.42499999999995</v>
+        <v>774.31500000000005</v>
       </c>
       <c r="H27" s="9">
-        <v>-2121.4659999999999</v>
+        <v>-1771.066</v>
       </c>
       <c r="I27" s="9">
-        <v>114.083</v>
+        <v>101.55800000000001</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="0"/>
-        <v>2279.6076856928694</v>
+        <v>1935.6013336803114</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8746,17 +8746,17 @@
         <v>20</v>
       </c>
       <c r="G28" s="9">
-        <v>-69.448999999999998</v>
+        <v>-106.26900000000001</v>
       </c>
       <c r="H28" s="9">
-        <v>180.04499999999999</v>
+        <v>275.50200000000001</v>
       </c>
       <c r="I28" s="9">
-        <v>-19.899000000000001</v>
+        <v>-30.449000000000002</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" si="0"/>
-        <v>193.99828820636534</v>
+        <v>296.85281532436238</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8777,17 +8777,17 @@
         <v>20</v>
       </c>
       <c r="G29" s="9">
-        <v>158.292</v>
+        <v>196.18100000000001</v>
       </c>
       <c r="H29" s="9">
-        <v>427.69299999999998</v>
+        <v>530.06399999999996</v>
       </c>
       <c r="I29" s="9">
-        <v>-47.268999999999998</v>
+        <v>-58.582999999999998</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" si="0"/>
-        <v>458.48884160249742</v>
+        <v>568.23128807379135</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8808,17 +8808,17 @@
         <v>99</v>
       </c>
       <c r="G30" s="9">
-        <v>158.292</v>
+        <v>196.18100000000001</v>
       </c>
       <c r="H30" s="9">
-        <v>427.69299999999998</v>
+        <v>530.06399999999996</v>
       </c>
       <c r="I30" s="9">
-        <v>-47.268999999999998</v>
+        <v>-58.582999999999998</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" si="0"/>
-        <v>458.48884160249742</v>
+        <v>568.23128807379135</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8839,17 +8839,17 @@
         <v>101</v>
       </c>
       <c r="G31" s="9">
-        <v>-69.448999999999998</v>
+        <v>-106.26900000000001</v>
       </c>
       <c r="H31" s="9">
-        <v>180.04499999999999</v>
+        <v>275.50200000000001</v>
       </c>
       <c r="I31" s="9">
-        <v>-19.899000000000001</v>
+        <v>-30.449000000000002</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" si="0"/>
-        <v>193.99828820636534</v>
+        <v>296.85281532436238</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8870,17 +8870,17 @@
         <v>103</v>
       </c>
       <c r="G32" s="9">
-        <v>826.42499999999995</v>
+        <v>774.31500000000005</v>
       </c>
       <c r="H32" s="9">
-        <v>-2121.4659999999999</v>
+        <v>-1771.066</v>
       </c>
       <c r="I32" s="9">
-        <v>114.083</v>
+        <v>101.55800000000001</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="0"/>
-        <v>2279.6076856928694</v>
+        <v>1935.6013336803114</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8901,17 +8901,17 @@
         <v>105</v>
       </c>
       <c r="G33" s="9">
-        <v>-914.51700000000005</v>
+        <v>-862.90099999999995</v>
       </c>
       <c r="H33" s="9">
-        <v>-2349.105</v>
+        <v>-2044.0039999999999</v>
       </c>
       <c r="I33" s="9">
-        <v>126.324</v>
+        <v>113.249</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" si="0"/>
-        <v>2524.0034463704683</v>
+        <v>2221.5705759255097</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -8935,14 +8935,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>3789.8609999999999</v>
+        <v>2880.7939999999999</v>
       </c>
       <c r="I34" s="9">
-        <v>2712.692</v>
+        <v>2765.6990000000001</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" si="0"/>
-        <v>4660.6592115477615</v>
+        <v>3993.5028520131295</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -8966,14 +8966,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>3789.8609999999999</v>
+        <v>2880.7939999999999</v>
       </c>
       <c r="I35" s="9">
-        <v>2712.692</v>
+        <v>2765.6990000000001</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" si="0"/>
-        <v>4660.6592115477615</v>
+        <v>3993.5028520131295</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -8997,14 +8997,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>-315.911</v>
+        <v>-421.73500000000001</v>
       </c>
       <c r="I36" s="9">
-        <v>3094.3519999999999</v>
+        <v>3358.085</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="0"/>
-        <v>3110.4363134172991</v>
+        <v>3384.4638094460402</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9028,14 +9028,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>-315.911</v>
+        <v>-421.73500000000001</v>
       </c>
       <c r="I37" s="9">
-        <v>3094.3519999999999</v>
+        <v>3358.085</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="0"/>
-        <v>3110.4363134172991</v>
+        <v>3384.4638094460402</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9056,17 +9056,17 @@
         <v>119</v>
       </c>
       <c r="G38" s="9">
-        <v>-0.752</v>
+        <v>-1.3260000000000001</v>
       </c>
       <c r="H38" s="9">
-        <v>72.971000000000004</v>
+        <v>128.71100000000001</v>
       </c>
       <c r="I38" s="9">
-        <v>-7.2560000000000002</v>
+        <v>-12.798</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" si="0"/>
-        <v>73.334724933008374</v>
+        <v>129.35249746719234</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -9087,17 +9087,17 @@
         <v>20</v>
       </c>
       <c r="G39" s="9">
-        <v>-0.752</v>
+        <v>-1.3260000000000001</v>
       </c>
       <c r="H39" s="9">
-        <v>72.971000000000004</v>
+        <v>128.71100000000001</v>
       </c>
       <c r="I39" s="9">
-        <v>-7.2560000000000002</v>
+        <v>-12.798</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="0"/>
-        <v>73.334724933008374</v>
+        <v>129.35249746719234</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -9217,11 +9217,11 @@
         <v>-23.19</v>
       </c>
       <c r="I43" s="9">
-        <v>496.589</v>
+        <v>496.59</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="0"/>
-        <v>497.13017520766124</v>
+        <v>497.13117411906484</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9248,11 +9248,11 @@
         <v>-110.90600000000001</v>
       </c>
       <c r="I44" s="9">
-        <v>2374.922</v>
+        <v>2374.9209999999998</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" si="0"/>
-        <v>2377.5101780930399</v>
+        <v>2377.509179181649</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9338,14 +9338,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <v>4105.7719999999999</v>
+        <v>3302.529</v>
       </c>
       <c r="I47" s="9">
-        <v>-381.65899999999999</v>
+        <v>-592.38599999999997</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="0"/>
-        <v>4123.472724326547</v>
+        <v>3355.2375428331447</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -23912,7 +23912,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -33505,7 +33505,7 @@
   <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="G3" sqref="G3:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Kawczynski\Documents\EPSA\GIT\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSAE_invictus\STUF-2020\SU_Suspension\13_Cas_de_charges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE3800-C64C-4AD0-B28C-459350DA2307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation" sheetId="1" r:id="rId1"/>
@@ -27,6 +26,7 @@
     <sheet name="Bump 3G" sheetId="5" r:id="rId12"/>
     <sheet name="Left Turn 1G + Freinage 1" sheetId="2" r:id="rId13"/>
     <sheet name="Right Turn 1G + Freinage 1G" sheetId="7" r:id="rId14"/>
+    <sheet name="Braking" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="4">'BRAKING 1,9G'!$D$5:$I$47</definedName>
@@ -42,7 +42,7 @@
     <definedName name="DonnéesExternes_5" localSheetId="6">'RIGHT TURN 0,5G'!#REF!</definedName>
     <definedName name="DonnéesExternes_5" localSheetId="8">'RIGHT TURN 1 G'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="200">
   <si>
     <t xml:space="preserve">Pour les Rockers </t>
   </si>
@@ -557,11 +557,110 @@
   <si>
     <t>rear ur a-arm</t>
   </si>
+  <si>
+    <t>F_z0R</t>
+  </si>
+  <si>
+    <t>F_z0F</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a_y</t>
+  </si>
+  <si>
+    <t>a_x</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m/s^2</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ΔF_zx</t>
+  </si>
+  <si>
+    <t>F_zR</t>
+  </si>
+  <si>
+    <t>F_zF</t>
+  </si>
+  <si>
+    <t>ΔF_zy</t>
+  </si>
+  <si>
+    <t>r_R</t>
+  </si>
+  <si>
+    <t>r_F</t>
+  </si>
+  <si>
+    <t>F_cF</t>
+  </si>
+  <si>
+    <t>F_cR</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>force étrier C19</t>
+  </si>
+  <si>
+    <t>vehiclue + pilote</t>
+  </si>
+  <si>
+    <t>wheelbase</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>CG height</t>
+  </si>
+  <si>
+    <t>Contineantal plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brake caliper force </t>
+  </si>
+  <si>
+    <t>r_tire</t>
+  </si>
+  <si>
+    <t>F_xmaxF</t>
+  </si>
+  <si>
+    <t>F_xmaxR</t>
+  </si>
+  <si>
+    <t>M_xmaxR</t>
+  </si>
+  <si>
+    <t>M_xmaxF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -609,7 +708,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +754,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1133,9 +1238,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="134">
     <dxf>
@@ -3682,32 +3806,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="BRAKING 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="BRAKING 2G-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="133"/>
       <tableStyleElement type="firstRowStripe" dxfId="132"/>
       <tableStyleElement type="secondRowStripe" dxfId="131"/>
     </tableStyle>
-    <tableStyle name="Left Turn 1G + Freinage 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Left Turn 1G + Freinage 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="130"/>
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="LEFT TURN 2G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="LEFT TURN 2G-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="127"/>
       <tableStyleElement type="firstRowStripe" dxfId="126"/>
       <tableStyleElement type="secondRowStripe" dxfId="125"/>
     </tableStyle>
-    <tableStyle name="Bump 3G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Bump 3G-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="124"/>
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="INVERSE BRAKING 0.5G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="INVERSE BRAKING 0.5G-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="121"/>
       <tableStyleElement type="firstRowStripe" dxfId="120"/>
       <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
-    <tableStyle name="Right Turn 1G + Freinage 1G-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Right Turn 1G + Freinage 1G-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="118"/>
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
@@ -3744,7 +3868,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD81574-FF06-4A0D-B9C8-EA545AF92F77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD81574-FF06-4A0D-B9C8-EA545AF92F77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +3918,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279B19E-54D1-481B-90CC-723536620A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3279B19E-54D1-481B-90CC-723536620A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,15 +3954,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C777FF87-0074-4175-8D63-A33A87A03168}" name="Table_229101134" displayName="Table_229101134" ref="D5:J49" headerRowDxfId="115" totalsRowDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_229101134" displayName="Table_229101134" ref="D5:J49" headerRowDxfId="115" totalsRowDxfId="114">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{26D7065E-0723-49DD-942F-5EAB10B5F2C1}" name="Type" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{42E99A40-BE0F-4C4B-98ED-D788F5248E8E}" name="Part 1" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{846F5324-9AF6-4E17-AEDD-167092EBFE89}" name="Part 2" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{DBFCE167-4C49-4117-B3F5-5A68024F9A79}" name="Rx" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{F98C7914-8832-4F22-8145-EAA165B66FDF}" name="Ry" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{CDCF233B-4F79-4686-B71C-845D28EC7C60}" name="Rz" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{C86B6B54-B034-43FF-BA0B-855300888DE3}" name="F" dataDxfId="107">
+    <tableColumn id="1" name="Type" dataDxfId="113"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="112"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="111"/>
+    <tableColumn id="4" name="Rx" dataDxfId="110"/>
+    <tableColumn id="5" name="Ry" dataDxfId="109"/>
+    <tableColumn id="6" name="Rz" dataDxfId="108"/>
+    <tableColumn id="10" name="F" dataDxfId="107">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3847,15 +3971,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="34" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_226" displayName="Table_226" ref="D5:J50" headerRowDxfId="34" totalsRowDxfId="33">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Type" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Part 1" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Part 2" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Rx" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Ry" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rz" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="F" dataDxfId="26">
+    <tableColumn id="1" name="Type" dataDxfId="32"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="31"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="30"/>
+    <tableColumn id="4" name="Rx" dataDxfId="29"/>
+    <tableColumn id="5" name="Ry" dataDxfId="28"/>
+    <tableColumn id="6" name="Rz" dataDxfId="27"/>
+    <tableColumn id="10" name="F" dataDxfId="26">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3864,15 +3988,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="25" totalsRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_22910" displayName="Table_22910" ref="D5:J48" headerRowDxfId="25" totalsRowDxfId="24">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Type" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Part 1" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Part 2" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Rx" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Ry" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rz" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="F" dataDxfId="17">
+    <tableColumn id="1" name="Type" dataDxfId="23"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="22"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="21"/>
+    <tableColumn id="4" name="Rx" dataDxfId="20"/>
+    <tableColumn id="5" name="Ry" dataDxfId="19"/>
+    <tableColumn id="6" name="Rz" dataDxfId="18"/>
+    <tableColumn id="10" name="F" dataDxfId="17">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3881,29 +4005,29 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_229101112" displayName="Table_229101112" ref="D5:I50" headerRowDxfId="16" totalsRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_229101112" displayName="Table_229101112" ref="D5:I50" headerRowDxfId="16" totalsRowDxfId="15">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Type" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Part 1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Part 2" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Rx" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Ry" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Rz" dataDxfId="9"/>
+    <tableColumn id="1" name="Type" dataDxfId="14"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="13"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="12"/>
+    <tableColumn id="4" name="Rx" dataDxfId="11"/>
+    <tableColumn id="5" name="Ry" dataDxfId="10"/>
+    <tableColumn id="6" name="Rz" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="BRAKING 2G-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_22910111213" displayName="Table_22910111213" ref="D5:J47" headerRowDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Part 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Part 2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Rx" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Ry" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Rz" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="F" dataDxfId="0">
+    <tableColumn id="1" name="Type" dataDxfId="6"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="5"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="4"/>
+    <tableColumn id="4" name="Rx" dataDxfId="3"/>
+    <tableColumn id="5" name="Ry" dataDxfId="2"/>
+    <tableColumn id="6" name="Rz" dataDxfId="1"/>
+    <tableColumn id="10" name="F" dataDxfId="0">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3912,15 +4036,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="106" totalsRowDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_22910113" displayName="Table_22910113" ref="D5:J49" headerRowDxfId="106" totalsRowDxfId="105">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part 1" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part 2" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rx" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ry" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rz" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="F" dataDxfId="98">
+    <tableColumn id="1" name="Type" dataDxfId="104"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="103"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="102"/>
+    <tableColumn id="4" name="Rx" dataDxfId="101"/>
+    <tableColumn id="5" name="Ry" dataDxfId="100"/>
+    <tableColumn id="6" name="Rz" dataDxfId="99"/>
+    <tableColumn id="10" name="F" dataDxfId="98">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3929,15 +4053,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_2291011" displayName="Table_2291011" ref="D5:J50" headerRowDxfId="97" totalsRowDxfId="96">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Part 1" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part 2" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Rx" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Ry" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rz" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="F" dataDxfId="89">
+    <tableColumn id="1" name="Type" dataDxfId="95"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="94"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="93"/>
+    <tableColumn id="4" name="Rx" dataDxfId="92"/>
+    <tableColumn id="5" name="Ry" dataDxfId="91"/>
+    <tableColumn id="6" name="Rz" dataDxfId="90"/>
+    <tableColumn id="10" name="F" dataDxfId="89">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3946,15 +4070,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="88" totalsRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_22" displayName="Table_22" ref="D5:J47" headerRowDxfId="88" totalsRowDxfId="87">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Type" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Part 1" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Part 2" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Rx" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Ry" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rz" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="F" dataDxfId="80">
+    <tableColumn id="1" name="Type" dataDxfId="86"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="85"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="84"/>
+    <tableColumn id="4" name="Rx" dataDxfId="83"/>
+    <tableColumn id="5" name="Ry" dataDxfId="82"/>
+    <tableColumn id="6" name="Rz" dataDxfId="81"/>
+    <tableColumn id="10" name="F" dataDxfId="80">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3963,15 +4087,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B0AFE184-AE6C-4FF3-8D63-F0BC8E23A6CF}" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="79" totalsRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_2295814" displayName="Table_2295814" ref="D5:J50" headerRowDxfId="79" totalsRowDxfId="78">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CF42B42-17BB-4840-A98E-B5C21DA88B45}" name="Type" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{CA484149-8619-432A-AAEE-273B43A77EEB}" name="Part 1" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{153A0EC0-A7FA-4356-B034-40ABDE58108F}" name="Part 2" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{6438DE58-B6AF-4E59-A3B4-304BF0284DF3}" name="Rx" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{11464FEA-AD23-45DD-8207-9270CBF74988}" name="Ry" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{832F0331-1E22-477B-8D82-FCD2E083B4C0}" name="Rz" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{E2A35E5D-E1C6-41C4-A510-2FF34E76A089}" name="F" dataDxfId="71">
+    <tableColumn id="1" name="Type" dataDxfId="77"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="76"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="75"/>
+    <tableColumn id="4" name="Rx" dataDxfId="74"/>
+    <tableColumn id="5" name="Ry" dataDxfId="73"/>
+    <tableColumn id="6" name="Rz" dataDxfId="72"/>
+    <tableColumn id="10" name="F" dataDxfId="71">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3980,15 +4104,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63497B11-6CFB-431E-8043-C5EA4856B019}" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="70" totalsRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_22958" displayName="Table_22958" ref="D5:J50" headerRowDxfId="70" totalsRowDxfId="69">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C7C2A27F-B68F-4595-B3A6-80824AAEBE7E}" name="Type" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{F9164B72-0BB0-4A2B-AB4C-E9D021461BC3}" name="Part 1" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{E1FE5AA7-DF77-4186-B6D1-FCD4A338577B}" name="Part 2" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{E98E1800-10A5-4E7A-902F-83A63939A99C}" name="Rx" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{DF57FFDE-C9BB-4026-9267-B35746E5617B}" name="Ry" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{B76AC1C2-BF2D-435A-BC8A-DF791C33A631}" name="Rz" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{B94DD169-5874-4A11-82AB-41D75CE9E1C4}" name="F" dataDxfId="62">
+    <tableColumn id="1" name="Type" dataDxfId="68"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="67"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="66"/>
+    <tableColumn id="4" name="Rx" dataDxfId="65"/>
+    <tableColumn id="5" name="Ry" dataDxfId="64"/>
+    <tableColumn id="6" name="Rz" dataDxfId="63"/>
+    <tableColumn id="10" name="F" dataDxfId="62">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3997,15 +4121,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EEA5A4BA-6E68-456A-BA37-768ED05DFF03}" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="61" totalsRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_2295" displayName="Table_2295" ref="D5:J50" headerRowDxfId="61" totalsRowDxfId="60">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0C6F79C5-B10E-4271-A5D4-4408A2063025}" name="Type" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{E86F6686-943D-4BC7-9D6F-FA4449FBAA83}" name="Part 1" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{2D13C6D0-4244-4392-980F-76660A4A5060}" name="Part 2" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{064AD1C3-3244-488D-BBFE-2B8CCB4B6B60}" name="Rx" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{7E162B99-B799-4078-9949-6F27B23EC330}" name="Ry" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{673CB13C-8584-493A-B7B1-E54129F7F8A7}" name="Rz" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{54734AB4-F9C8-4F27-8D94-075B17BBB2D5}" name="F" dataDxfId="53">
+    <tableColumn id="1" name="Type" dataDxfId="59"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="58"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="57"/>
+    <tableColumn id="4" name="Rx" dataDxfId="56"/>
+    <tableColumn id="5" name="Ry" dataDxfId="55"/>
+    <tableColumn id="6" name="Rz" dataDxfId="54"/>
+    <tableColumn id="10" name="F" dataDxfId="53">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4014,15 +4138,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0C05053-3AE3-4D2D-9A69-48FE95801512}" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="52" totalsRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_2297" displayName="Table_2297" ref="D2:J47" headerRowDxfId="52" totalsRowDxfId="51">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{817511AE-EF59-4237-8AC4-BD3087668C1E}" name="Type" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{C5BA019C-B66B-499C-AB50-D0EE858D989B}" name="Part 1" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{734CB3FF-2256-439B-B403-9C5DE48737CB}" name="Part 2" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{E2A78AA9-3F71-4A43-8FD5-ABAEC128EA00}" name="Rx" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{2E02113B-8D48-42B2-ABCD-F2B6F3E2A60B}" name="Ry" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{055EC799-14EC-445A-A1B5-BEFABF90C4C5}" name="Rz" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{23D90AD4-2234-478E-9B30-A06F6533CDD2}" name="F" dataDxfId="44">
+    <tableColumn id="1" name="Type" dataDxfId="50"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="49"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="48"/>
+    <tableColumn id="4" name="Rx" dataDxfId="47"/>
+    <tableColumn id="5" name="Ry" dataDxfId="46"/>
+    <tableColumn id="6" name="Rz" dataDxfId="45"/>
+    <tableColumn id="10" name="F" dataDxfId="44">
       <calculatedColumnFormula>SQRT(G3*G3+H3*H3+I3*I3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4031,15 +4155,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="43" totalsRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_229" displayName="Table_229" ref="D5:J50" headerRowDxfId="43" totalsRowDxfId="42">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Type" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Part 1" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Part 2" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Rx" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Ry" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Rz" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="F" dataDxfId="35">
+    <tableColumn id="1" name="Type" dataDxfId="41"/>
+    <tableColumn id="2" name="Part 1" dataDxfId="40"/>
+    <tableColumn id="3" name="Part 2" dataDxfId="39"/>
+    <tableColumn id="4" name="Rx" dataDxfId="38"/>
+    <tableColumn id="5" name="Ry" dataDxfId="37"/>
+    <tableColumn id="6" name="Rz" dataDxfId="36"/>
+    <tableColumn id="10" name="F" dataDxfId="35">
       <calculatedColumnFormula>SQRT(G6*G6+H6*H6+I6*I6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4309,7 +4433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5588,14 +5712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7965,11 +8089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9379,7 +9503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11798,14 +11922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14196,7 +14320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -16573,8 +16697,319 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="53" style="33" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="33">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="33">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="33">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="76"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1.575</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1.254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="33">
+        <f>B5/2</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="33">
+        <f>B5/2</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="77">
+        <f>B2*9.81*B7/B5</f>
+        <v>1471.4999999999998</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="77">
+        <f>B2*9.81*B8/B5</f>
+        <v>1471.4999999999998</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="77"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="77">
+        <f>B2*B3*B9/B6</f>
+        <v>717.7033492822967</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="77">
+        <f>B2*B4*B9/B5</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="77"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="77">
+        <f>B11/2-B15/2+B14</f>
+        <v>1167.7390635680108</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="77">
+        <f>B12/2+B15/2+B14</f>
+        <v>1739.1676349965824</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="78">
+        <f xml:space="preserve"> 0.47/2</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="33">
+        <f>B20*B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="33">
+        <f>B21*B22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="33">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="33">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="33">
+        <f>B23/B27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="78">
+        <f>B24/B26</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF62E0FA-858F-4829-8870-4EE24504D301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -19015,7 +19450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -21456,7 +21891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -23906,7 +24341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -26358,7 +26793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4537A60-832C-4B2A-805D-6CA7399A23AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -28738,7 +29173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59B02D3-FE29-417B-B443-7EB530F6E40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31118,7 +31553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D3F0C7-AF85-41CE-B5F9-9892EDFE2304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33498,7 +33933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C32081-A929-4522-B293-C477D4F88BAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
+++ b/SU_Suspension/13_Cas_de_charges/Cas de charges Invictus.xlsx
@@ -636,9 +636,6 @@
     <t>CG height</t>
   </si>
   <si>
-    <t>Contineantal plots</t>
-  </si>
-  <si>
     <t xml:space="preserve">brake caliper force </t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>M_xmaxF</t>
+  </si>
+  <si>
+    <t>Contineantal plots from TIR with MF simplified</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1256,6 +1256,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3868,7 +3877,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD81574-FF06-4A0D-B9C8-EA545AF92F77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD81574-FF06-4A0D-B9C8-EA545AF92F77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3927,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279B19E-54D1-481B-90CC-723536620A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3279B19E-54D1-481B-90CC-723536620A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16701,8 +16710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16904,30 +16913,33 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="B20" s="33">
+        <v>4800</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>193</v>
+      <c r="D20" s="79" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="33">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="79"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="57">
         <f xml:space="preserve"> 0.47/2</f>
@@ -16939,11 +16951,11 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="33">
         <f>B20*B22</f>
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>187</v>
@@ -16951,11 +16963,11 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="33">
         <f>B21*B22</f>
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>187</v>
@@ -16987,32 +16999,33 @@
       <c r="A29" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="80">
         <f>B23/B27</f>
-        <v>0</v>
+        <v>10951.456310679612</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="81">
         <f>B24/B26</f>
-        <v>8011.3636363636369</v>
+        <v>8545.454545454546</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
